--- a/HTCS5607 - Gantt Chart.xlsx
+++ b/HTCS5607 - Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharish\Documents\unitec\HTCS5607 IS Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEA8FE2-95E4-4F9C-93C6-FB35BA24BFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5528A1-46A3-4C01-822E-925DE36AE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$127</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="235">
   <si>
     <t>WBS</t>
   </si>
@@ -1536,9 +1536,6 @@
     <t>Gantt Chart</t>
   </si>
   <si>
-    <t>Use Case Diagrams</t>
-  </si>
-  <si>
     <t>Version Control</t>
   </si>
   <si>
@@ -1816,6 +1813,9 @@
   </si>
   <si>
     <t>Technical Report finalization</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
   </si>
 </sst>
 </file>
@@ -3101,115 +3101,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="124">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="115">
     <dxf>
       <border>
         <left style="thin">
@@ -4666,7 +4558,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5322,11 +5214,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN146"/>
+  <dimension ref="A1:BN137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5431,13 +5323,13 @@
         <v>68</v>
       </c>
       <c r="H4" s="101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="46"/>
       <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
+        <v>Week 1</v>
       </c>
       <c r="L4" s="136"/>
       <c r="M4" s="136"/>
@@ -5447,7 +5339,7 @@
       <c r="Q4" s="137"/>
       <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
+        <v>Week 2</v>
       </c>
       <c r="S4" s="136"/>
       <c r="T4" s="136"/>
@@ -5457,7 +5349,7 @@
       <c r="X4" s="137"/>
       <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
+        <v>Week 3</v>
       </c>
       <c r="Z4" s="136"/>
       <c r="AA4" s="136"/>
@@ -5467,7 +5359,7 @@
       <c r="AE4" s="137"/>
       <c r="AF4" s="135" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
+        <v>Week 4</v>
       </c>
       <c r="AG4" s="136"/>
       <c r="AH4" s="136"/>
@@ -5477,7 +5369,7 @@
       <c r="AL4" s="137"/>
       <c r="AM4" s="135" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
+        <v>Week 5</v>
       </c>
       <c r="AN4" s="136"/>
       <c r="AO4" s="136"/>
@@ -5487,7 +5379,7 @@
       <c r="AS4" s="137"/>
       <c r="AT4" s="135" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
+        <v>Week 6</v>
       </c>
       <c r="AU4" s="136"/>
       <c r="AV4" s="136"/>
@@ -5497,7 +5389,7 @@
       <c r="AZ4" s="137"/>
       <c r="BA4" s="135" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
+        <v>Week 7</v>
       </c>
       <c r="BB4" s="136"/>
       <c r="BC4" s="136"/>
@@ -5507,7 +5399,7 @@
       <c r="BG4" s="137"/>
       <c r="BH4" s="135" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
+        <v>Week 8</v>
       </c>
       <c r="BI4" s="136"/>
       <c r="BJ4" s="136"/>
@@ -5533,7 +5425,7 @@
       <c r="J5" s="46"/>
       <c r="K5" s="139">
         <f>K6</f>
-        <v>44480</v>
+        <v>44459</v>
       </c>
       <c r="L5" s="140"/>
       <c r="M5" s="140"/>
@@ -5543,7 +5435,7 @@
       <c r="Q5" s="141"/>
       <c r="R5" s="139">
         <f>R6</f>
-        <v>44487</v>
+        <v>44466</v>
       </c>
       <c r="S5" s="140"/>
       <c r="T5" s="140"/>
@@ -5553,7 +5445,7 @@
       <c r="X5" s="141"/>
       <c r="Y5" s="139">
         <f>Y6</f>
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="Z5" s="140"/>
       <c r="AA5" s="140"/>
@@ -5563,7 +5455,7 @@
       <c r="AE5" s="141"/>
       <c r="AF5" s="139">
         <f>AF6</f>
-        <v>44501</v>
+        <v>44480</v>
       </c>
       <c r="AG5" s="140"/>
       <c r="AH5" s="140"/>
@@ -5573,7 +5465,7 @@
       <c r="AL5" s="141"/>
       <c r="AM5" s="139">
         <f>AM6</f>
-        <v>44508</v>
+        <v>44487</v>
       </c>
       <c r="AN5" s="140"/>
       <c r="AO5" s="140"/>
@@ -5583,7 +5475,7 @@
       <c r="AS5" s="141"/>
       <c r="AT5" s="139">
         <f>AT6</f>
-        <v>44515</v>
+        <v>44494</v>
       </c>
       <c r="AU5" s="140"/>
       <c r="AV5" s="140"/>
@@ -5593,7 +5485,7 @@
       <c r="AZ5" s="141"/>
       <c r="BA5" s="139">
         <f>BA6</f>
-        <v>44522</v>
+        <v>44501</v>
       </c>
       <c r="BB5" s="140"/>
       <c r="BC5" s="140"/>
@@ -5603,7 +5495,7 @@
       <c r="BG5" s="141"/>
       <c r="BH5" s="139">
         <f>BH6</f>
-        <v>44529</v>
+        <v>44508</v>
       </c>
       <c r="BI5" s="140"/>
       <c r="BJ5" s="140"/>
@@ -5625,227 +5517,227 @@
       <c r="J6" s="46"/>
       <c r="K6" s="70">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44480</v>
+        <v>44459</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>44481</v>
+        <v>44460</v>
       </c>
       <c r="M6" s="61">
         <f t="shared" si="0"/>
-        <v>44482</v>
+        <v>44461</v>
       </c>
       <c r="N6" s="61">
         <f t="shared" si="0"/>
-        <v>44483</v>
+        <v>44462</v>
       </c>
       <c r="O6" s="61">
         <f t="shared" si="0"/>
-        <v>44484</v>
+        <v>44463</v>
       </c>
       <c r="P6" s="61">
         <f t="shared" si="0"/>
-        <v>44485</v>
+        <v>44464</v>
       </c>
       <c r="Q6" s="71">
         <f t="shared" si="0"/>
-        <v>44486</v>
+        <v>44465</v>
       </c>
       <c r="R6" s="70">
         <f t="shared" si="0"/>
-        <v>44487</v>
+        <v>44466</v>
       </c>
       <c r="S6" s="61">
         <f t="shared" si="0"/>
-        <v>44488</v>
+        <v>44467</v>
       </c>
       <c r="T6" s="61">
         <f t="shared" si="0"/>
-        <v>44489</v>
+        <v>44468</v>
       </c>
       <c r="U6" s="61">
         <f t="shared" si="0"/>
-        <v>44490</v>
+        <v>44469</v>
       </c>
       <c r="V6" s="61">
         <f t="shared" si="0"/>
-        <v>44491</v>
+        <v>44470</v>
       </c>
       <c r="W6" s="61">
         <f t="shared" si="0"/>
-        <v>44492</v>
+        <v>44471</v>
       </c>
       <c r="X6" s="71">
         <f t="shared" si="0"/>
-        <v>44493</v>
+        <v>44472</v>
       </c>
       <c r="Y6" s="70">
         <f t="shared" si="0"/>
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="Z6" s="61">
         <f t="shared" si="0"/>
-        <v>44495</v>
+        <v>44474</v>
       </c>
       <c r="AA6" s="61">
         <f t="shared" si="0"/>
-        <v>44496</v>
+        <v>44475</v>
       </c>
       <c r="AB6" s="61">
         <f t="shared" si="0"/>
-        <v>44497</v>
+        <v>44476</v>
       </c>
       <c r="AC6" s="61">
         <f t="shared" si="0"/>
-        <v>44498</v>
+        <v>44477</v>
       </c>
       <c r="AD6" s="61">
         <f t="shared" si="0"/>
-        <v>44499</v>
+        <v>44478</v>
       </c>
       <c r="AE6" s="71">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>44479</v>
       </c>
       <c r="AF6" s="70">
         <f t="shared" si="0"/>
-        <v>44501</v>
+        <v>44480</v>
       </c>
       <c r="AG6" s="61">
         <f t="shared" si="0"/>
-        <v>44502</v>
+        <v>44481</v>
       </c>
       <c r="AH6" s="61">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44482</v>
       </c>
       <c r="AI6" s="61">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44483</v>
       </c>
       <c r="AJ6" s="61">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44484</v>
       </c>
       <c r="AK6" s="61">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44485</v>
       </c>
       <c r="AL6" s="71">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44486</v>
       </c>
       <c r="AM6" s="70">
         <f t="shared" si="0"/>
-        <v>44508</v>
+        <v>44487</v>
       </c>
       <c r="AN6" s="61">
         <f t="shared" si="0"/>
-        <v>44509</v>
+        <v>44488</v>
       </c>
       <c r="AO6" s="61">
         <f t="shared" si="0"/>
-        <v>44510</v>
+        <v>44489</v>
       </c>
       <c r="AP6" s="61">
         <f t="shared" si="0"/>
-        <v>44511</v>
+        <v>44490</v>
       </c>
       <c r="AQ6" s="61">
         <f t="shared" si="0"/>
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="AR6" s="61">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>44513</v>
+        <v>44492</v>
       </c>
       <c r="AS6" s="71">
         <f t="shared" si="1"/>
-        <v>44514</v>
+        <v>44493</v>
       </c>
       <c r="AT6" s="70">
         <f t="shared" si="1"/>
-        <v>44515</v>
+        <v>44494</v>
       </c>
       <c r="AU6" s="61">
         <f t="shared" si="1"/>
-        <v>44516</v>
+        <v>44495</v>
       </c>
       <c r="AV6" s="61">
         <f t="shared" si="1"/>
-        <v>44517</v>
+        <v>44496</v>
       </c>
       <c r="AW6" s="61">
         <f t="shared" si="1"/>
-        <v>44518</v>
+        <v>44497</v>
       </c>
       <c r="AX6" s="61">
         <f t="shared" si="1"/>
-        <v>44519</v>
+        <v>44498</v>
       </c>
       <c r="AY6" s="61">
         <f t="shared" si="1"/>
-        <v>44520</v>
+        <v>44499</v>
       </c>
       <c r="AZ6" s="71">
         <f t="shared" si="1"/>
-        <v>44521</v>
+        <v>44500</v>
       </c>
       <c r="BA6" s="70">
         <f t="shared" si="1"/>
-        <v>44522</v>
+        <v>44501</v>
       </c>
       <c r="BB6" s="61">
         <f t="shared" si="1"/>
-        <v>44523</v>
+        <v>44502</v>
       </c>
       <c r="BC6" s="61">
         <f t="shared" si="1"/>
-        <v>44524</v>
+        <v>44503</v>
       </c>
       <c r="BD6" s="61">
         <f t="shared" si="1"/>
-        <v>44525</v>
+        <v>44504</v>
       </c>
       <c r="BE6" s="61">
         <f t="shared" si="1"/>
-        <v>44526</v>
+        <v>44505</v>
       </c>
       <c r="BF6" s="61">
         <f t="shared" si="1"/>
-        <v>44527</v>
+        <v>44506</v>
       </c>
       <c r="BG6" s="71">
         <f t="shared" si="1"/>
-        <v>44528</v>
+        <v>44507</v>
       </c>
       <c r="BH6" s="70">
         <f t="shared" si="1"/>
-        <v>44529</v>
+        <v>44508</v>
       </c>
       <c r="BI6" s="61">
         <f t="shared" si="1"/>
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="BJ6" s="61">
         <f t="shared" si="1"/>
-        <v>44531</v>
+        <v>44510</v>
       </c>
       <c r="BK6" s="61">
         <f t="shared" si="1"/>
-        <v>44532</v>
+        <v>44511</v>
       </c>
       <c r="BL6" s="61">
         <f t="shared" si="1"/>
-        <v>44533</v>
+        <v>44512</v>
       </c>
       <c r="BM6" s="61">
         <f t="shared" si="1"/>
-        <v>44534</v>
+        <v>44513</v>
       </c>
       <c r="BN6" s="71">
         <f t="shared" si="1"/>
-        <v>44535</v>
+        <v>44514</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="96" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
@@ -6120,7 +6012,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I131" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I122" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -6274,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="77"/>
@@ -6436,7 +6328,7 @@
         <v>2.1.1</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="99"/>
       <c r="E12" s="75">
@@ -6520,7 +6412,7 @@
         <v>2.1.2</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="99"/>
       <c r="E13" s="75">
@@ -6604,7 +6496,7 @@
         <v>2.1.3</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="75">
@@ -6688,7 +6580,7 @@
         <v>2.1.4</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="99"/>
       <c r="E15" s="75">
@@ -6772,7 +6664,7 @@
         <v>2.2</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="75">
@@ -6856,7 +6748,7 @@
         <v>2.2.1</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="99"/>
       <c r="E17" s="75">
@@ -6940,7 +6832,7 @@
         <v>2.2.2</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="75">
@@ -7024,7 +6916,7 @@
         <v>2.2.3</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="99"/>
       <c r="E19" s="75">
@@ -7108,7 +7000,7 @@
         <v>2.3</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="99"/>
       <c r="E20" s="75">
@@ -7192,7 +7084,7 @@
         <v>2.3.1</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="99"/>
       <c r="E21" s="75">
@@ -7276,7 +7168,7 @@
         <v>2.3.2</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="75">
@@ -7360,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="77"/>
@@ -7438,7 +7330,7 @@
         <v>3.1</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="75">
@@ -7522,7 +7414,7 @@
         <v>3.1.1</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="75">
@@ -7606,7 +7498,7 @@
         <v>3.1.2</v>
       </c>
       <c r="B26" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="75">
@@ -7774,7 +7666,7 @@
         <v>3.2.1</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="75">
@@ -7858,14 +7750,14 @@
         <v>3.2.2</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="75">
         <v>44466</v>
       </c>
       <c r="F29" s="76">
-        <f t="shared" ref="F29:F131" si="19">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <f t="shared" ref="F29:F122" si="19">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
         <v>44470</v>
       </c>
       <c r="G29" s="58">
@@ -7942,7 +7834,7 @@
         <v>3.2.3</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="75">
@@ -8026,7 +7918,7 @@
         <v>3.2.4</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="75">
@@ -8110,7 +8002,7 @@
         <v>3.2.5</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="75">
@@ -8194,7 +8086,7 @@
         <v>3.2.6</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="75">
@@ -8278,7 +8170,7 @@
         <v>3.2.7</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="75">
@@ -8362,7 +8254,7 @@
         <v>3.2.8</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="75">
@@ -8446,7 +8338,7 @@
         <v>3.2.9</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="75">
@@ -8614,7 +8506,7 @@
         <v>3.3.1</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="99"/>
       <c r="E38" s="75">
@@ -8698,7 +8590,7 @@
         <v>3.3.2</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="75">
@@ -8782,7 +8674,7 @@
         <v>3.3.3</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="75">
@@ -8866,7 +8758,7 @@
         <v>3.3.4</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="75">
@@ -8950,7 +8842,7 @@
         <v>3.3.5</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="99"/>
       <c r="E42" s="75">
@@ -9034,7 +8926,7 @@
         <v>3.3.6</v>
       </c>
       <c r="B43" s="100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="75">
@@ -9118,7 +9010,7 @@
         <v>3.3.7</v>
       </c>
       <c r="B44" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" s="99"/>
       <c r="E44" s="75">
@@ -9202,7 +9094,7 @@
         <v>3.3.8</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="75">
@@ -9286,7 +9178,7 @@
         <v>3.3.9</v>
       </c>
       <c r="B46" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="99"/>
       <c r="E46" s="75">
@@ -9370,7 +9262,7 @@
         <v>3.4</v>
       </c>
       <c r="B47" s="98" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="D47" s="99"/>
       <c r="E47" s="75">
@@ -9450,34 +9342,34 @@
     </row>
     <row r="48" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="str">
-        <f t="shared" ref="A48:A56" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.1</v>
-      </c>
-      <c r="B48" s="100" t="s">
-        <v>189</v>
+        <f t="shared" ref="A48" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>137</v>
       </c>
       <c r="D48" s="99"/>
       <c r="E48" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F48" s="76">
-        <f t="shared" si="19"/>
-        <v>44470</v>
+        <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44498</v>
       </c>
       <c r="G48" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H48" s="59">
         <v>0</v>
       </c>
       <c r="I48" s="60">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>10</v>
       </c>
       <c r="J48" s="73"/>
       <c r="K48" s="79"/>
       <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
+      <c r="M48" s="80"/>
       <c r="N48" s="79"/>
       <c r="O48" s="79"/>
       <c r="P48" s="79"/>
@@ -9532,115 +9424,109 @@
       <c r="BM48" s="79"/>
       <c r="BN48" s="79"/>
     </row>
-    <row r="49" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.2</v>
-      </c>
-      <c r="B49" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="75">
-        <v>44466</v>
-      </c>
-      <c r="F49" s="76">
-        <f t="shared" ref="F49:F56" si="24">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
-        <v>44470</v>
-      </c>
-      <c r="G49" s="58">
-        <v>5</v>
-      </c>
-      <c r="H49" s="59">
-        <v>0</v>
-      </c>
-      <c r="I49" s="60">
-        <f t="shared" ref="I49:I56" si="25">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
-        <v>5</v>
-      </c>
-      <c r="J49" s="73"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79"/>
-      <c r="U49" s="79"/>
-      <c r="V49" s="79"/>
-      <c r="W49" s="79"/>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
-      <c r="Z49" s="79"/>
-      <c r="AA49" s="79"/>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="79"/>
-      <c r="AD49" s="79"/>
-      <c r="AE49" s="79"/>
-      <c r="AF49" s="79"/>
-      <c r="AG49" s="79"/>
-      <c r="AH49" s="79"/>
-      <c r="AI49" s="79"/>
-      <c r="AJ49" s="79"/>
-      <c r="AK49" s="79"/>
-      <c r="AL49" s="79"/>
-      <c r="AM49" s="79"/>
-      <c r="AN49" s="79"/>
-      <c r="AO49" s="79"/>
-      <c r="AP49" s="79"/>
-      <c r="AQ49" s="79"/>
-      <c r="AR49" s="79"/>
-      <c r="AS49" s="79"/>
-      <c r="AT49" s="79"/>
-      <c r="AU49" s="79"/>
-      <c r="AV49" s="79"/>
-      <c r="AW49" s="79"/>
-      <c r="AX49" s="79"/>
-      <c r="AY49" s="79"/>
-      <c r="AZ49" s="79"/>
-      <c r="BA49" s="79"/>
-      <c r="BB49" s="79"/>
-      <c r="BC49" s="79"/>
-      <c r="BD49" s="79"/>
-      <c r="BE49" s="79"/>
-      <c r="BF49" s="79"/>
-      <c r="BG49" s="79"/>
-      <c r="BH49" s="79"/>
-      <c r="BI49" s="79"/>
-      <c r="BJ49" s="79"/>
-      <c r="BK49" s="79"/>
-      <c r="BL49" s="79"/>
-      <c r="BM49" s="79"/>
-      <c r="BN49" s="79"/>
+    <row r="49" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J49" s="74"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
+      <c r="S49" s="81"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="81"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="81"/>
+      <c r="Z49" s="81"/>
+      <c r="AA49" s="81"/>
+      <c r="AB49" s="81"/>
+      <c r="AC49" s="81"/>
+      <c r="AD49" s="81"/>
+      <c r="AE49" s="81"/>
+      <c r="AF49" s="81"/>
+      <c r="AG49" s="81"/>
+      <c r="AH49" s="81"/>
+      <c r="AI49" s="81"/>
+      <c r="AJ49" s="81"/>
+      <c r="AK49" s="81"/>
+      <c r="AL49" s="81"/>
+      <c r="AM49" s="81"/>
+      <c r="AN49" s="81"/>
+      <c r="AO49" s="81"/>
+      <c r="AP49" s="81"/>
+      <c r="AQ49" s="81"/>
+      <c r="AR49" s="81"/>
+      <c r="AS49" s="81"/>
+      <c r="AT49" s="81"/>
+      <c r="AU49" s="81"/>
+      <c r="AV49" s="81"/>
+      <c r="AW49" s="81"/>
+      <c r="AX49" s="81"/>
+      <c r="AY49" s="81"/>
+      <c r="AZ49" s="81"/>
+      <c r="BA49" s="81"/>
+      <c r="BB49" s="81"/>
+      <c r="BC49" s="81"/>
+      <c r="BD49" s="81"/>
+      <c r="BE49" s="81"/>
+      <c r="BF49" s="81"/>
+      <c r="BG49" s="81"/>
+      <c r="BH49" s="81"/>
+      <c r="BI49" s="81"/>
+      <c r="BJ49" s="81"/>
+      <c r="BK49" s="81"/>
+      <c r="BL49" s="81"/>
+      <c r="BM49" s="81"/>
+      <c r="BN49" s="81"/>
     </row>
     <row r="50" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.3</v>
-      </c>
-      <c r="B50" s="100" t="s">
-        <v>169</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>183</v>
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F50" s="76">
-        <f t="shared" si="24"/>
-        <v>44470</v>
+        <f t="shared" ref="F50:F59" si="24">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
+        <v>44498</v>
       </c>
       <c r="G50" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H50" s="59">
         <v>0</v>
       </c>
       <c r="I50" s="60">
-        <f t="shared" si="25"/>
-        <v>5</v>
+        <f t="shared" ref="I50:I59" si="25">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
+        <v>10</v>
       </c>
       <c r="J50" s="73"/>
       <c r="K50" s="79"/>
@@ -9702,29 +9588,29 @@
     </row>
     <row r="51" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.4</v>
+        <f t="shared" ref="A51:A59" si="26">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.1</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D51" s="99"/>
       <c r="E51" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F51" s="76">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="G51" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H51" s="59">
         <v>0</v>
       </c>
       <c r="I51" s="60">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J51" s="73"/>
       <c r="K51" s="79"/>
@@ -9786,29 +9672,29 @@
     </row>
     <row r="52" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.5</v>
+        <f t="shared" si="26"/>
+        <v>4.1.2</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F52" s="76">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="G52" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H52" s="59">
         <v>0</v>
       </c>
       <c r="I52" s="60">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J52" s="73"/>
       <c r="K52" s="79"/>
@@ -9870,29 +9756,29 @@
     </row>
     <row r="53" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.6</v>
+        <f t="shared" si="26"/>
+        <v>4.1.3</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D53" s="99"/>
       <c r="E53" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F53" s="76">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="G53" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H53" s="59">
         <v>0</v>
       </c>
       <c r="I53" s="60">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J53" s="73"/>
       <c r="K53" s="79"/>
@@ -9954,29 +9840,29 @@
     </row>
     <row r="54" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.7</v>
+        <f t="shared" si="26"/>
+        <v>4.1.4</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D54" s="99"/>
       <c r="E54" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F54" s="76">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="G54" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H54" s="59">
         <v>0</v>
       </c>
       <c r="I54" s="60">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J54" s="73"/>
       <c r="K54" s="79"/>
@@ -10038,29 +9924,29 @@
     </row>
     <row r="55" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.8</v>
+        <f t="shared" si="26"/>
+        <v>4.1.5</v>
       </c>
       <c r="B55" s="100" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D55" s="99"/>
       <c r="E55" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F55" s="76">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="G55" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H55" s="59">
         <v>0</v>
       </c>
       <c r="I55" s="60">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J55" s="73"/>
       <c r="K55" s="79"/>
@@ -10122,29 +10008,29 @@
     </row>
     <row r="56" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v>3.4.9</v>
+        <f t="shared" si="26"/>
+        <v>4.1.6</v>
       </c>
       <c r="B56" s="100" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D56" s="99"/>
       <c r="E56" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F56" s="76">
         <f t="shared" si="24"/>
-        <v>44470</v>
+        <v>44498</v>
       </c>
       <c r="G56" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H56" s="59">
         <v>0</v>
       </c>
       <c r="I56" s="60">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J56" s="73"/>
       <c r="K56" s="79"/>
@@ -10204,98 +10090,104 @@
       <c r="BM56" s="79"/>
       <c r="BN56" s="79"/>
     </row>
-    <row r="57" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G57" s="53"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J57" s="74"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
-      <c r="S57" s="81"/>
-      <c r="T57" s="81"/>
-      <c r="U57" s="81"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
-      <c r="X57" s="81"/>
-      <c r="Y57" s="81"/>
-      <c r="Z57" s="81"/>
-      <c r="AA57" s="81"/>
-      <c r="AB57" s="81"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="81"/>
-      <c r="AE57" s="81"/>
-      <c r="AF57" s="81"/>
-      <c r="AG57" s="81"/>
-      <c r="AH57" s="81"/>
-      <c r="AI57" s="81"/>
-      <c r="AJ57" s="81"/>
-      <c r="AK57" s="81"/>
-      <c r="AL57" s="81"/>
-      <c r="AM57" s="81"/>
-      <c r="AN57" s="81"/>
-      <c r="AO57" s="81"/>
-      <c r="AP57" s="81"/>
-      <c r="AQ57" s="81"/>
-      <c r="AR57" s="81"/>
-      <c r="AS57" s="81"/>
-      <c r="AT57" s="81"/>
-      <c r="AU57" s="81"/>
-      <c r="AV57" s="81"/>
-      <c r="AW57" s="81"/>
-      <c r="AX57" s="81"/>
-      <c r="AY57" s="81"/>
-      <c r="AZ57" s="81"/>
-      <c r="BA57" s="81"/>
-      <c r="BB57" s="81"/>
-      <c r="BC57" s="81"/>
-      <c r="BD57" s="81"/>
-      <c r="BE57" s="81"/>
-      <c r="BF57" s="81"/>
-      <c r="BG57" s="81"/>
-      <c r="BH57" s="81"/>
-      <c r="BI57" s="81"/>
-      <c r="BJ57" s="81"/>
-      <c r="BK57" s="81"/>
-      <c r="BL57" s="81"/>
-      <c r="BM57" s="81"/>
-      <c r="BN57" s="81"/>
+    <row r="57" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="56" t="str">
+        <f t="shared" si="26"/>
+        <v>4.1.7</v>
+      </c>
+      <c r="B57" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="99"/>
+      <c r="E57" s="75">
+        <v>44487</v>
+      </c>
+      <c r="F57" s="76">
+        <f t="shared" si="24"/>
+        <v>44498</v>
+      </c>
+      <c r="G57" s="58">
+        <v>12</v>
+      </c>
+      <c r="H57" s="59">
+        <v>0</v>
+      </c>
+      <c r="I57" s="60">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="J57" s="73"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79"/>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
+      <c r="AA57" s="79"/>
+      <c r="AB57" s="79"/>
+      <c r="AC57" s="79"/>
+      <c r="AD57" s="79"/>
+      <c r="AE57" s="79"/>
+      <c r="AF57" s="79"/>
+      <c r="AG57" s="79"/>
+      <c r="AH57" s="79"/>
+      <c r="AI57" s="79"/>
+      <c r="AJ57" s="79"/>
+      <c r="AK57" s="79"/>
+      <c r="AL57" s="79"/>
+      <c r="AM57" s="79"/>
+      <c r="AN57" s="79"/>
+      <c r="AO57" s="79"/>
+      <c r="AP57" s="79"/>
+      <c r="AQ57" s="79"/>
+      <c r="AR57" s="79"/>
+      <c r="AS57" s="79"/>
+      <c r="AT57" s="79"/>
+      <c r="AU57" s="79"/>
+      <c r="AV57" s="79"/>
+      <c r="AW57" s="79"/>
+      <c r="AX57" s="79"/>
+      <c r="AY57" s="79"/>
+      <c r="AZ57" s="79"/>
+      <c r="BA57" s="79"/>
+      <c r="BB57" s="79"/>
+      <c r="BC57" s="79"/>
+      <c r="BD57" s="79"/>
+      <c r="BE57" s="79"/>
+      <c r="BF57" s="79"/>
+      <c r="BG57" s="79"/>
+      <c r="BH57" s="79"/>
+      <c r="BI57" s="79"/>
+      <c r="BJ57" s="79"/>
+      <c r="BK57" s="79"/>
+      <c r="BL57" s="79"/>
+      <c r="BM57" s="79"/>
+      <c r="BN57" s="79"/>
     </row>
     <row r="58" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>184</v>
+        <f t="shared" si="26"/>
+        <v>4.1.8</v>
+      </c>
+      <c r="B58" s="100" t="s">
+        <v>165</v>
       </c>
       <c r="D58" s="99"/>
       <c r="E58" s="75">
         <v>44487</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" ref="F58:F67" si="26">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
+        <f t="shared" si="24"/>
         <v>44498</v>
       </c>
       <c r="G58" s="58">
@@ -10305,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="60">
-        <f t="shared" ref="I58:I67" si="27">IF(OR(F58=0,E58=0)," - ",NETWORKDAYS(E58,F58))</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="J58" s="73"/>
@@ -10368,18 +10260,18 @@
     </row>
     <row r="59" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
-        <f t="shared" ref="A59:A67" si="28">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.1</v>
+        <f t="shared" si="26"/>
+        <v>4.1.9</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D59" s="99"/>
       <c r="E59" s="75">
         <v>44487</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>44498</v>
       </c>
       <c r="G59" s="58">
@@ -10389,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="J59" s="73"/>
@@ -10452,18 +10344,18 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.2</v>
-      </c>
-      <c r="B60" s="100" t="s">
-        <v>160</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="75">
         <v>44487</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G60" s="58">
@@ -10473,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J60" s="73"/>
@@ -10536,18 +10428,18 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.3</v>
+        <f t="shared" ref="A61:A69" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="75">
         <v>44487</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F61" si="28">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
         <v>44498</v>
       </c>
       <c r="G61" s="58">
@@ -10557,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I61" si="29">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
         <v>10</v>
       </c>
       <c r="J61" s="73"/>
@@ -10620,18 +10512,18 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.4</v>
+        <f t="shared" si="27"/>
+        <v>4.2.2</v>
       </c>
       <c r="B62" s="100" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="75">
         <v>44487</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G62" s="58">
@@ -10641,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J62" s="73"/>
@@ -10704,18 +10596,18 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.5</v>
+        <f t="shared" si="27"/>
+        <v>4.2.3</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D63" s="99"/>
       <c r="E63" s="75">
         <v>44487</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G63" s="58">
@@ -10725,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J63" s="73"/>
@@ -10788,18 +10680,18 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.6</v>
+        <f t="shared" si="27"/>
+        <v>4.2.4</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D64" s="99"/>
       <c r="E64" s="75">
         <v>44487</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G64" s="58">
@@ -10809,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J64" s="73"/>
@@ -10872,18 +10764,18 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.7</v>
+        <f t="shared" si="27"/>
+        <v>4.2.5</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D65" s="99"/>
       <c r="E65" s="75">
         <v>44487</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G65" s="58">
@@ -10893,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J65" s="73"/>
@@ -10956,18 +10848,18 @@
     </row>
     <row r="66" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.8</v>
+        <f t="shared" si="27"/>
+        <v>4.2.6</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D66" s="99"/>
       <c r="E66" s="75">
         <v>44487</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G66" s="58">
@@ -10977,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J66" s="73"/>
@@ -11040,18 +10932,18 @@
     </row>
     <row r="67" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>4.1.9</v>
+        <f t="shared" si="27"/>
+        <v>4.2.7</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D67" s="99"/>
       <c r="E67" s="75">
         <v>44487</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G67" s="58">
@@ -11061,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J67" s="73"/>
@@ -11124,11 +11016,11 @@
     </row>
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B68" s="98" t="s">
-        <v>156</v>
+        <f t="shared" si="27"/>
+        <v>4.2.8</v>
+      </c>
+      <c r="B68" s="100" t="s">
+        <v>173</v>
       </c>
       <c r="D68" s="99"/>
       <c r="E68" s="75">
@@ -11208,18 +11100,18 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f t="shared" ref="A69:A77" si="29">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
+        <f t="shared" si="27"/>
+        <v>4.2.9</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="75">
         <v>44487</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" ref="F69" si="30">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G69" s="58">
@@ -11229,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="60">
-        <f t="shared" ref="I69" si="31">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J69" s="73"/>
@@ -11292,11 +11184,11 @@
     </row>
     <row r="70" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.2</v>
-      </c>
-      <c r="B70" s="100" t="s">
-        <v>168</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B70" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="75">
@@ -11376,11 +11268,11 @@
     </row>
     <row r="71" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.3</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.1</v>
       </c>
       <c r="B71" s="100" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D71" s="99"/>
       <c r="E71" s="75">
@@ -11460,18 +11352,18 @@
     </row>
     <row r="72" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.2</v>
       </c>
       <c r="B72" s="100" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="D72" s="99"/>
       <c r="E72" s="75">
         <v>44487</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F72" si="30">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
         <v>44498</v>
       </c>
       <c r="G72" s="58">
@@ -11481,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I72" si="31">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
         <v>10</v>
       </c>
       <c r="J72" s="73"/>
@@ -11544,11 +11436,11 @@
     </row>
     <row r="73" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.5</v>
-      </c>
-      <c r="B73" s="100" t="s">
-        <v>171</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B73" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="75">
@@ -11628,11 +11520,11 @@
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.6</v>
+        <f t="shared" ref="A74:A82" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.4.1</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D74" s="99"/>
       <c r="E74" s="75">
@@ -11712,18 +11604,18 @@
     </row>
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.7</v>
+        <f t="shared" si="32"/>
+        <v>4.4.2</v>
       </c>
       <c r="B75" s="100" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D75" s="99"/>
       <c r="E75" s="75">
         <v>44487</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F75:F82" si="33">IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
         <v>44498</v>
       </c>
       <c r="G75" s="58">
@@ -11733,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I75:I82" si="34">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
         <v>10</v>
       </c>
       <c r="J75" s="73"/>
@@ -11796,18 +11688,18 @@
     </row>
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.8</v>
+        <f t="shared" si="32"/>
+        <v>4.4.3</v>
       </c>
       <c r="B76" s="100" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D76" s="99"/>
       <c r="E76" s="75">
         <v>44487</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G76" s="58">
@@ -11817,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J76" s="73"/>
@@ -11880,18 +11772,18 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f t="shared" si="29"/>
-        <v>4.2.9</v>
+        <f t="shared" si="32"/>
+        <v>4.4.4</v>
       </c>
       <c r="B77" s="100" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D77" s="99"/>
       <c r="E77" s="75">
         <v>44487</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G77" s="58">
@@ -11901,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J77" s="73"/>
@@ -11964,18 +11856,18 @@
     </row>
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B78" s="98" t="s">
-        <v>157</v>
+        <f t="shared" si="32"/>
+        <v>4.4.5</v>
+      </c>
+      <c r="B78" s="100" t="s">
+        <v>178</v>
       </c>
       <c r="D78" s="99"/>
       <c r="E78" s="75">
         <v>44487</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G78" s="58">
@@ -11985,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J78" s="73"/>
@@ -12048,18 +11940,18 @@
     </row>
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.3.1</v>
+        <f t="shared" si="32"/>
+        <v>4.4.6</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="75">
         <v>44487</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G79" s="58">
@@ -12069,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J79" s="73"/>
@@ -12132,18 +12024,18 @@
     </row>
     <row r="80" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.3.2</v>
+        <f t="shared" si="32"/>
+        <v>4.4.7</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D80" s="99"/>
       <c r="E80" s="75">
         <v>44487</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" ref="F80" si="32">IF(ISBLANK(E80)," - ",IF(G80=0,E80,E80+G80-1))</f>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G80" s="58">
@@ -12153,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="60">
-        <f t="shared" ref="I80" si="33">IF(OR(F80=0,E80=0)," - ",NETWORKDAYS(E80,F80))</f>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J80" s="73"/>
@@ -12216,18 +12108,18 @@
     </row>
     <row r="81" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f t="shared" ref="A81" si="34">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B81" s="98" t="s">
-        <v>137</v>
+        <f t="shared" si="32"/>
+        <v>4.4.8</v>
+      </c>
+      <c r="B81" s="100" t="s">
+        <v>181</v>
       </c>
       <c r="D81" s="99"/>
       <c r="E81" s="75">
         <v>44487</v>
       </c>
       <c r="F81" s="76">
-        <f>IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G81" s="58">
@@ -12237,13 +12129,13 @@
         <v>0</v>
       </c>
       <c r="I81" s="60">
-        <f>IF(OR(F81=0,E81=0)," - ",NETWORKDAYS(E81,F81))</f>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J81" s="73"/>
       <c r="K81" s="79"/>
       <c r="L81" s="79"/>
-      <c r="M81" s="80"/>
+      <c r="M81" s="79"/>
       <c r="N81" s="79"/>
       <c r="O81" s="79"/>
       <c r="P81" s="79"/>
@@ -12300,18 +12192,18 @@
     </row>
     <row r="82" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B82" s="98" t="s">
-        <v>158</v>
+        <f t="shared" si="32"/>
+        <v>4.4.9</v>
+      </c>
+      <c r="B82" s="100" t="s">
+        <v>182</v>
       </c>
       <c r="D82" s="99"/>
       <c r="E82" s="75">
         <v>44487</v>
       </c>
       <c r="F82" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G82" s="58">
@@ -12321,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J82" s="73"/>
@@ -12384,11 +12276,11 @@
     </row>
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
-        <f t="shared" ref="A83:A91" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.5.1</v>
-      </c>
-      <c r="B83" s="100" t="s">
-        <v>188</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B83" s="98" t="s">
+        <v>158</v>
       </c>
       <c r="D83" s="99"/>
       <c r="E83" s="75">
@@ -12468,18 +12360,18 @@
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.2</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.5.1</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="D84" s="99"/>
       <c r="E84" s="75">
         <v>44487</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" ref="F84:F91" si="36">IF(ISBLANK(E84)," - ",IF(G84=0,E84,E84+G84-1))</f>
+        <f t="shared" ref="F84:F85" si="35">IF(ISBLANK(E84)," - ",IF(G84=0,E84,E84+G84-1))</f>
         <v>44498</v>
       </c>
       <c r="G84" s="58">
@@ -12489,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="60">
-        <f t="shared" ref="I84:I91" si="37">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
+        <f t="shared" ref="I84:I85" si="36">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
         <v>10</v>
       </c>
       <c r="J84" s="73"/>
@@ -12552,18 +12444,18 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.3</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.5.2</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="D85" s="99"/>
       <c r="E85" s="75">
         <v>44487</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>44498</v>
       </c>
       <c r="G85" s="58">
@@ -12573,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="J85" s="73"/>
@@ -12636,18 +12528,18 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.4</v>
-      </c>
-      <c r="B86" s="100" t="s">
-        <v>178</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.6</v>
+      </c>
+      <c r="B86" s="98" t="s">
+        <v>194</v>
       </c>
       <c r="D86" s="99"/>
       <c r="E86" s="75">
         <v>44487</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="F86:F87" si="37">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
         <v>44498</v>
       </c>
       <c r="G86" s="58">
@@ -12657,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I86:I87" si="38">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
         <v>10</v>
       </c>
       <c r="J86" s="73"/>
@@ -12720,18 +12612,18 @@
     </row>
     <row r="87" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.5</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.6.1</v>
       </c>
       <c r="B87" s="100" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D87" s="99"/>
       <c r="E87" s="75">
         <v>44487</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>44498</v>
       </c>
       <c r="G87" s="58">
@@ -12741,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="J87" s="73"/>
@@ -12802,105 +12694,99 @@
       <c r="BM87" s="79"/>
       <c r="BN87" s="79"/>
     </row>
-    <row r="88" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.6</v>
-      </c>
-      <c r="B88" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="99"/>
-      <c r="E88" s="75">
-        <v>44487</v>
-      </c>
-      <c r="F88" s="76">
-        <f t="shared" si="36"/>
-        <v>44498</v>
-      </c>
-      <c r="G88" s="58">
-        <v>12</v>
-      </c>
-      <c r="H88" s="59">
-        <v>0</v>
-      </c>
-      <c r="I88" s="60">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="J88" s="73"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="79"/>
-      <c r="O88" s="79"/>
-      <c r="P88" s="79"/>
-      <c r="Q88" s="79"/>
-      <c r="R88" s="79"/>
-      <c r="S88" s="79"/>
-      <c r="T88" s="79"/>
-      <c r="U88" s="79"/>
-      <c r="V88" s="79"/>
-      <c r="W88" s="79"/>
-      <c r="X88" s="79"/>
-      <c r="Y88" s="79"/>
-      <c r="Z88" s="79"/>
-      <c r="AA88" s="79"/>
-      <c r="AB88" s="79"/>
-      <c r="AC88" s="79"/>
-      <c r="AD88" s="79"/>
-      <c r="AE88" s="79"/>
-      <c r="AF88" s="79"/>
-      <c r="AG88" s="79"/>
-      <c r="AH88" s="79"/>
-      <c r="AI88" s="79"/>
-      <c r="AJ88" s="79"/>
-      <c r="AK88" s="79"/>
-      <c r="AL88" s="79"/>
-      <c r="AM88" s="79"/>
-      <c r="AN88" s="79"/>
-      <c r="AO88" s="79"/>
-      <c r="AP88" s="79"/>
-      <c r="AQ88" s="79"/>
-      <c r="AR88" s="79"/>
-      <c r="AS88" s="79"/>
-      <c r="AT88" s="79"/>
-      <c r="AU88" s="79"/>
-      <c r="AV88" s="79"/>
-      <c r="AW88" s="79"/>
-      <c r="AX88" s="79"/>
-      <c r="AY88" s="79"/>
-      <c r="AZ88" s="79"/>
-      <c r="BA88" s="79"/>
-      <c r="BB88" s="79"/>
-      <c r="BC88" s="79"/>
-      <c r="BD88" s="79"/>
-      <c r="BE88" s="79"/>
-      <c r="BF88" s="79"/>
-      <c r="BG88" s="79"/>
-      <c r="BH88" s="79"/>
-      <c r="BI88" s="79"/>
-      <c r="BJ88" s="79"/>
-      <c r="BK88" s="79"/>
-      <c r="BL88" s="79"/>
-      <c r="BM88" s="79"/>
-      <c r="BN88" s="79"/>
+    <row r="88" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="52"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G88" s="53"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J88" s="74"/>
+      <c r="K88" s="81"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="81"/>
+      <c r="O88" s="81"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
+      <c r="W88" s="81"/>
+      <c r="X88" s="81"/>
+      <c r="Y88" s="81"/>
+      <c r="Z88" s="81"/>
+      <c r="AA88" s="81"/>
+      <c r="AB88" s="81"/>
+      <c r="AC88" s="81"/>
+      <c r="AD88" s="81"/>
+      <c r="AE88" s="81"/>
+      <c r="AF88" s="81"/>
+      <c r="AG88" s="81"/>
+      <c r="AH88" s="81"/>
+      <c r="AI88" s="81"/>
+      <c r="AJ88" s="81"/>
+      <c r="AK88" s="81"/>
+      <c r="AL88" s="81"/>
+      <c r="AM88" s="81"/>
+      <c r="AN88" s="81"/>
+      <c r="AO88" s="81"/>
+      <c r="AP88" s="81"/>
+      <c r="AQ88" s="81"/>
+      <c r="AR88" s="81"/>
+      <c r="AS88" s="81"/>
+      <c r="AT88" s="81"/>
+      <c r="AU88" s="81"/>
+      <c r="AV88" s="81"/>
+      <c r="AW88" s="81"/>
+      <c r="AX88" s="81"/>
+      <c r="AY88" s="81"/>
+      <c r="AZ88" s="81"/>
+      <c r="BA88" s="81"/>
+      <c r="BB88" s="81"/>
+      <c r="BC88" s="81"/>
+      <c r="BD88" s="81"/>
+      <c r="BE88" s="81"/>
+      <c r="BF88" s="81"/>
+      <c r="BG88" s="81"/>
+      <c r="BH88" s="81"/>
+      <c r="BI88" s="81"/>
+      <c r="BJ88" s="81"/>
+      <c r="BK88" s="81"/>
+      <c r="BL88" s="81"/>
+      <c r="BM88" s="81"/>
+      <c r="BN88" s="81"/>
     </row>
     <row r="89" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.7</v>
-      </c>
-      <c r="B89" s="100" t="s">
-        <v>181</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B89" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="D89" s="99"/>
       <c r="E89" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="36"/>
-        <v>44498</v>
+        <f t="shared" si="19"/>
+        <v>44512</v>
       </c>
       <c r="G89" s="58">
         <v>12</v>
@@ -12909,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J89" s="73"/>
@@ -12972,19 +12858,19 @@
     </row>
     <row r="90" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.1.1</v>
       </c>
       <c r="B90" s="100" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D90" s="99"/>
       <c r="E90" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="36"/>
-        <v>44498</v>
+        <f t="shared" si="19"/>
+        <v>44512</v>
       </c>
       <c r="G90" s="58">
         <v>12</v>
@@ -12993,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J90" s="73"/>
@@ -13056,19 +12942,19 @@
     </row>
     <row r="91" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.5.9</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.1.2</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D91" s="99"/>
       <c r="E91" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" si="36"/>
-        <v>44498</v>
+        <f t="shared" ref="F91" si="39">IF(ISBLANK(E91)," - ",IF(G91=0,E91,E91+G91-1))</f>
+        <v>44512</v>
       </c>
       <c r="G91" s="58">
         <v>12</v>
@@ -13077,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I91" si="40">IF(OR(F91=0,E91=0)," - ",NETWORKDAYS(E91,F91))</f>
         <v>10</v>
       </c>
       <c r="J91" s="73"/>
@@ -13141,18 +13027,18 @@
     <row r="92" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D92" s="99"/>
       <c r="E92" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F92" s="76">
         <f t="shared" si="19"/>
-        <v>44498</v>
+        <v>44512</v>
       </c>
       <c r="G92" s="58">
         <v>12</v>
@@ -13224,19 +13110,19 @@
     </row>
     <row r="93" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.6.1</v>
-      </c>
-      <c r="B93" s="100" t="s">
-        <v>232</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B93" s="98" t="s">
+        <v>190</v>
       </c>
       <c r="D93" s="99"/>
       <c r="E93" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" ref="F93:F94" si="38">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
-        <v>44498</v>
+        <f t="shared" si="19"/>
+        <v>44512</v>
       </c>
       <c r="G93" s="58">
         <v>12</v>
@@ -13245,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" ref="I93:I94" si="39">IF(OR(F93=0,E93=0)," - ",NETWORKDAYS(E93,F93))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J93" s="73"/>
@@ -13308,19 +13194,19 @@
     </row>
     <row r="94" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.6.2</v>
+        <f t="shared" ref="A94:A121" si="41">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.3.1</v>
       </c>
       <c r="B94" s="100" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="D94" s="99"/>
       <c r="E94" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" si="38"/>
-        <v>44498</v>
+        <f t="shared" ref="F94:F102" si="42">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
+        <v>44512</v>
       </c>
       <c r="G94" s="58">
         <v>12</v>
@@ -13329,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="60">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="I94:I102" si="43">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
         <v>10</v>
       </c>
       <c r="J94" s="73"/>
@@ -13392,19 +13278,19 @@
     </row>
     <row r="95" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.7</v>
-      </c>
-      <c r="B95" s="98" t="s">
-        <v>195</v>
+        <f t="shared" si="41"/>
+        <v>5.3.2</v>
+      </c>
+      <c r="B95" s="100" t="s">
+        <v>175</v>
       </c>
       <c r="D95" s="99"/>
       <c r="E95" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F95" s="76">
-        <f t="shared" ref="F95:F96" si="40">IF(ISBLANK(E95)," - ",IF(G95=0,E95,E95+G95-1))</f>
-        <v>44498</v>
+        <f t="shared" si="42"/>
+        <v>44512</v>
       </c>
       <c r="G95" s="58">
         <v>12</v>
@@ -13413,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="60">
-        <f t="shared" ref="I95:I96" si="41">IF(OR(F95=0,E95=0)," - ",NETWORKDAYS(E95,F95))</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J95" s="73"/>
@@ -13476,19 +13362,19 @@
     </row>
     <row r="96" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.7.1</v>
+        <f t="shared" si="41"/>
+        <v>5.3.3</v>
       </c>
       <c r="B96" s="100" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D96" s="99"/>
       <c r="E96" s="75">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="F96" s="76">
-        <f t="shared" si="40"/>
-        <v>44498</v>
+        <f t="shared" si="42"/>
+        <v>44512</v>
       </c>
       <c r="G96" s="58">
         <v>12</v>
@@ -13497,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J96" s="73"/>
@@ -13558,98 +13444,104 @@
       <c r="BM96" s="79"/>
       <c r="BN96" s="79"/>
     </row>
-    <row r="97" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B97" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" s="52"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G97" s="53"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J97" s="74"/>
-      <c r="K97" s="81"/>
-      <c r="L97" s="81"/>
-      <c r="M97" s="81"/>
-      <c r="N97" s="81"/>
-      <c r="O97" s="81"/>
-      <c r="P97" s="81"/>
-      <c r="Q97" s="81"/>
-      <c r="R97" s="81"/>
-      <c r="S97" s="81"/>
-      <c r="T97" s="81"/>
-      <c r="U97" s="81"/>
-      <c r="V97" s="81"/>
-      <c r="W97" s="81"/>
-      <c r="X97" s="81"/>
-      <c r="Y97" s="81"/>
-      <c r="Z97" s="81"/>
-      <c r="AA97" s="81"/>
-      <c r="AB97" s="81"/>
-      <c r="AC97" s="81"/>
-      <c r="AD97" s="81"/>
-      <c r="AE97" s="81"/>
-      <c r="AF97" s="81"/>
-      <c r="AG97" s="81"/>
-      <c r="AH97" s="81"/>
-      <c r="AI97" s="81"/>
-      <c r="AJ97" s="81"/>
-      <c r="AK97" s="81"/>
-      <c r="AL97" s="81"/>
-      <c r="AM97" s="81"/>
-      <c r="AN97" s="81"/>
-      <c r="AO97" s="81"/>
-      <c r="AP97" s="81"/>
-      <c r="AQ97" s="81"/>
-      <c r="AR97" s="81"/>
-      <c r="AS97" s="81"/>
-      <c r="AT97" s="81"/>
-      <c r="AU97" s="81"/>
-      <c r="AV97" s="81"/>
-      <c r="AW97" s="81"/>
-      <c r="AX97" s="81"/>
-      <c r="AY97" s="81"/>
-      <c r="AZ97" s="81"/>
-      <c r="BA97" s="81"/>
-      <c r="BB97" s="81"/>
-      <c r="BC97" s="81"/>
-      <c r="BD97" s="81"/>
-      <c r="BE97" s="81"/>
-      <c r="BF97" s="81"/>
-      <c r="BG97" s="81"/>
-      <c r="BH97" s="81"/>
-      <c r="BI97" s="81"/>
-      <c r="BJ97" s="81"/>
-      <c r="BK97" s="81"/>
-      <c r="BL97" s="81"/>
-      <c r="BM97" s="81"/>
-      <c r="BN97" s="81"/>
+    <row r="97" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="56" t="str">
+        <f t="shared" si="41"/>
+        <v>5.3.4</v>
+      </c>
+      <c r="B97" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" s="99"/>
+      <c r="E97" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F97" s="76">
+        <f t="shared" si="42"/>
+        <v>44512</v>
+      </c>
+      <c r="G97" s="58">
+        <v>12</v>
+      </c>
+      <c r="H97" s="59">
+        <v>0</v>
+      </c>
+      <c r="I97" s="60">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="J97" s="73"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="79"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="79"/>
+      <c r="P97" s="79"/>
+      <c r="Q97" s="79"/>
+      <c r="R97" s="79"/>
+      <c r="S97" s="79"/>
+      <c r="T97" s="79"/>
+      <c r="U97" s="79"/>
+      <c r="V97" s="79"/>
+      <c r="W97" s="79"/>
+      <c r="X97" s="79"/>
+      <c r="Y97" s="79"/>
+      <c r="Z97" s="79"/>
+      <c r="AA97" s="79"/>
+      <c r="AB97" s="79"/>
+      <c r="AC97" s="79"/>
+      <c r="AD97" s="79"/>
+      <c r="AE97" s="79"/>
+      <c r="AF97" s="79"/>
+      <c r="AG97" s="79"/>
+      <c r="AH97" s="79"/>
+      <c r="AI97" s="79"/>
+      <c r="AJ97" s="79"/>
+      <c r="AK97" s="79"/>
+      <c r="AL97" s="79"/>
+      <c r="AM97" s="79"/>
+      <c r="AN97" s="79"/>
+      <c r="AO97" s="79"/>
+      <c r="AP97" s="79"/>
+      <c r="AQ97" s="79"/>
+      <c r="AR97" s="79"/>
+      <c r="AS97" s="79"/>
+      <c r="AT97" s="79"/>
+      <c r="AU97" s="79"/>
+      <c r="AV97" s="79"/>
+      <c r="AW97" s="79"/>
+      <c r="AX97" s="79"/>
+      <c r="AY97" s="79"/>
+      <c r="AZ97" s="79"/>
+      <c r="BA97" s="79"/>
+      <c r="BB97" s="79"/>
+      <c r="BC97" s="79"/>
+      <c r="BD97" s="79"/>
+      <c r="BE97" s="79"/>
+      <c r="BF97" s="79"/>
+      <c r="BG97" s="79"/>
+      <c r="BH97" s="79"/>
+      <c r="BI97" s="79"/>
+      <c r="BJ97" s="79"/>
+      <c r="BK97" s="79"/>
+      <c r="BL97" s="79"/>
+      <c r="BM97" s="79"/>
+      <c r="BN97" s="79"/>
     </row>
     <row r="98" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B98" s="98" t="s">
-        <v>185</v>
+        <f t="shared" si="41"/>
+        <v>5.3.5</v>
+      </c>
+      <c r="B98" s="100" t="s">
+        <v>178</v>
       </c>
       <c r="D98" s="99"/>
       <c r="E98" s="75">
         <v>44501</v>
       </c>
       <c r="F98" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>44512</v>
       </c>
       <c r="G98" s="58">
@@ -13659,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J98" s="73"/>
@@ -13722,18 +13614,18 @@
     </row>
     <row r="99" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.1</v>
+        <f t="shared" si="41"/>
+        <v>5.3.6</v>
       </c>
       <c r="B99" s="100" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D99" s="99"/>
       <c r="E99" s="75">
         <v>44501</v>
       </c>
       <c r="F99" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>44512</v>
       </c>
       <c r="G99" s="58">
@@ -13743,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J99" s="73"/>
@@ -13806,18 +13698,18 @@
     </row>
     <row r="100" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.2</v>
+        <f t="shared" si="41"/>
+        <v>5.3.7</v>
       </c>
       <c r="B100" s="100" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="D100" s="99"/>
       <c r="E100" s="75">
         <v>44501</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" ref="F100" si="42">IF(ISBLANK(E100)," - ",IF(G100=0,E100,E100+G100-1))</f>
+        <f t="shared" si="42"/>
         <v>44512</v>
       </c>
       <c r="G100" s="58">
@@ -13827,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="60">
-        <f t="shared" ref="I100" si="43">IF(OR(F100=0,E100=0)," - ",NETWORKDAYS(E100,F100))</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J100" s="73"/>
@@ -13890,18 +13782,18 @@
     </row>
     <row r="101" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B101" s="98" t="s">
-        <v>186</v>
+        <f t="shared" si="41"/>
+        <v>5.3.8</v>
+      </c>
+      <c r="B101" s="100" t="s">
+        <v>181</v>
       </c>
       <c r="D101" s="99"/>
       <c r="E101" s="75">
         <v>44501</v>
       </c>
       <c r="F101" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>44512</v>
       </c>
       <c r="G101" s="58">
@@ -13911,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J101" s="73"/>
@@ -13974,18 +13866,18 @@
     </row>
     <row r="102" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B102" s="98" t="s">
-        <v>191</v>
+        <f t="shared" si="41"/>
+        <v>5.3.9</v>
+      </c>
+      <c r="B102" s="100" t="s">
+        <v>182</v>
       </c>
       <c r="D102" s="99"/>
       <c r="E102" s="75">
         <v>44501</v>
       </c>
       <c r="F102" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>44512</v>
       </c>
       <c r="G102" s="58">
@@ -13995,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J102" s="73"/>
@@ -14058,18 +13950,18 @@
     </row>
     <row r="103" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="str">
-        <f t="shared" ref="A103:A130" si="44">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.3.1</v>
-      </c>
-      <c r="B103" s="100" t="s">
-        <v>188</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>198</v>
       </c>
       <c r="D103" s="99"/>
       <c r="E103" s="75">
         <v>44501</v>
       </c>
       <c r="F103" s="76">
-        <f t="shared" ref="F103:F111" si="45">IF(ISBLANK(E103)," - ",IF(G103=0,E103,E103+G103-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G103" s="58">
@@ -14079,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="60">
-        <f t="shared" ref="I103:I111" si="46">IF(OR(F103=0,E103=0)," - ",NETWORKDAYS(E103,F103))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J103" s="73"/>
@@ -14142,18 +14034,18 @@
     </row>
     <row r="104" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.2</v>
+        <f t="shared" si="41"/>
+        <v>5.4.1</v>
       </c>
       <c r="B104" s="100" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D104" s="99"/>
       <c r="E104" s="75">
         <v>44501</v>
       </c>
       <c r="F104" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G104" s="58">
@@ -14163,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J104" s="73"/>
@@ -14226,18 +14118,18 @@
     </row>
     <row r="105" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.3</v>
+        <f t="shared" si="41"/>
+        <v>5.4.2</v>
       </c>
       <c r="B105" s="100" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D105" s="99"/>
       <c r="E105" s="75">
         <v>44501</v>
       </c>
       <c r="F105" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F105" si="44">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
         <v>44512</v>
       </c>
       <c r="G105" s="58">
@@ -14247,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I105" si="45">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
         <v>10</v>
       </c>
       <c r="J105" s="73"/>
@@ -14310,18 +14202,18 @@
     </row>
     <row r="106" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.4</v>
+        <f t="shared" si="41"/>
+        <v>5.4.3</v>
       </c>
       <c r="B106" s="100" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="75">
         <v>44501</v>
       </c>
       <c r="F106" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G106" s="58">
@@ -14331,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J106" s="73"/>
@@ -14394,18 +14286,18 @@
     </row>
     <row r="107" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.5</v>
+        <f t="shared" si="41"/>
+        <v>5.4.4</v>
       </c>
       <c r="B107" s="100" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D107" s="99"/>
       <c r="E107" s="75">
         <v>44501</v>
       </c>
       <c r="F107" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F107" si="46">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
         <v>44512</v>
       </c>
       <c r="G107" s="58">
@@ -14415,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I107" si="47">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
         <v>10</v>
       </c>
       <c r="J107" s="73"/>
@@ -14478,18 +14370,18 @@
     </row>
     <row r="108" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.6</v>
+        <f t="shared" si="41"/>
+        <v>5.4.5</v>
       </c>
       <c r="B108" s="100" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D108" s="99"/>
       <c r="E108" s="75">
         <v>44501</v>
       </c>
       <c r="F108" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G108" s="58">
@@ -14499,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J108" s="73"/>
@@ -14562,18 +14454,18 @@
     </row>
     <row r="109" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.7</v>
+        <f t="shared" si="41"/>
+        <v>5.4.6</v>
       </c>
       <c r="B109" s="100" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D109" s="99"/>
       <c r="E109" s="75">
         <v>44501</v>
       </c>
       <c r="F109" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F109" si="48">IF(ISBLANK(E109)," - ",IF(G109=0,E109,E109+G109-1))</f>
         <v>44512</v>
       </c>
       <c r="G109" s="58">
@@ -14583,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I109" si="49">IF(OR(F109=0,E109=0)," - ",NETWORKDAYS(E109,F109))</f>
         <v>10</v>
       </c>
       <c r="J109" s="73"/>
@@ -14646,18 +14538,18 @@
     </row>
     <row r="110" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.8</v>
+        <f t="shared" si="41"/>
+        <v>5.4.7</v>
       </c>
       <c r="B110" s="100" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D110" s="99"/>
       <c r="E110" s="75">
         <v>44501</v>
       </c>
       <c r="F110" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G110" s="58">
@@ -14667,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J110" s="73"/>
@@ -14730,18 +14622,18 @@
     </row>
     <row r="111" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.3.9</v>
+        <f t="shared" si="41"/>
+        <v>5.4.8</v>
       </c>
       <c r="B111" s="100" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D111" s="99"/>
       <c r="E111" s="75">
         <v>44501</v>
       </c>
       <c r="F111" s="76">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F111" si="50">IF(ISBLANK(E111)," - ",IF(G111=0,E111,E111+G111-1))</f>
         <v>44512</v>
       </c>
       <c r="G111" s="58">
@@ -14751,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I111" si="51">IF(OR(F111=0,E111=0)," - ",NETWORKDAYS(E111,F111))</f>
         <v>10</v>
       </c>
       <c r="J111" s="73"/>
@@ -14814,11 +14706,11 @@
     </row>
     <row r="112" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
-      </c>
-      <c r="B112" s="98" t="s">
-        <v>199</v>
+        <f t="shared" si="41"/>
+        <v>5.4.9</v>
+      </c>
+      <c r="B112" s="100" t="s">
+        <v>213</v>
       </c>
       <c r="D112" s="99"/>
       <c r="E112" s="75">
@@ -14898,18 +14790,18 @@
     </row>
     <row r="113" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.1</v>
+        <f t="shared" si="41"/>
+        <v>5.4.10</v>
       </c>
       <c r="B113" s="100" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D113" s="99"/>
       <c r="E113" s="75">
         <v>44501</v>
       </c>
       <c r="F113" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F113" si="52">IF(ISBLANK(E113)," - ",IF(G113=0,E113,E113+G113-1))</f>
         <v>44512</v>
       </c>
       <c r="G113" s="58">
@@ -14919,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I113" si="53">IF(OR(F113=0,E113=0)," - ",NETWORKDAYS(E113,F113))</f>
         <v>10</v>
       </c>
       <c r="J113" s="73"/>
@@ -14982,18 +14874,18 @@
     </row>
     <row r="114" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.2</v>
+        <f t="shared" si="41"/>
+        <v>5.4.11</v>
       </c>
       <c r="B114" s="100" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D114" s="99"/>
       <c r="E114" s="75">
         <v>44501</v>
       </c>
       <c r="F114" s="76">
-        <f t="shared" ref="F114" si="47">IF(ISBLANK(E114)," - ",IF(G114=0,E114,E114+G114-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G114" s="58">
@@ -15003,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="60">
-        <f t="shared" ref="I114" si="48">IF(OR(F114=0,E114=0)," - ",NETWORKDAYS(E114,F114))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J114" s="73"/>
@@ -15066,18 +14958,18 @@
     </row>
     <row r="115" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.3</v>
+        <f t="shared" si="41"/>
+        <v>5.4.12</v>
       </c>
       <c r="B115" s="100" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="75">
         <v>44501</v>
       </c>
       <c r="F115" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F115" si="54">IF(ISBLANK(E115)," - ",IF(G115=0,E115,E115+G115-1))</f>
         <v>44512</v>
       </c>
       <c r="G115" s="58">
@@ -15087,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I115" si="55">IF(OR(F115=0,E115=0)," - ",NETWORKDAYS(E115,F115))</f>
         <v>10</v>
       </c>
       <c r="J115" s="73"/>
@@ -15150,18 +15042,18 @@
     </row>
     <row r="116" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.4</v>
+        <f t="shared" si="41"/>
+        <v>5.4.13</v>
       </c>
       <c r="B116" s="100" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D116" s="99"/>
       <c r="E116" s="75">
         <v>44501</v>
       </c>
       <c r="F116" s="76">
-        <f t="shared" ref="F116" si="49">IF(ISBLANK(E116)," - ",IF(G116=0,E116,E116+G116-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G116" s="58">
@@ -15171,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="60">
-        <f t="shared" ref="I116" si="50">IF(OR(F116=0,E116=0)," - ",NETWORKDAYS(E116,F116))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J116" s="73"/>
@@ -15234,18 +15126,18 @@
     </row>
     <row r="117" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.5</v>
+        <f t="shared" si="41"/>
+        <v>5.4.14</v>
       </c>
       <c r="B117" s="100" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D117" s="99"/>
       <c r="E117" s="75">
         <v>44501</v>
       </c>
       <c r="F117" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F117" si="56">IF(ISBLANK(E117)," - ",IF(G117=0,E117,E117+G117-1))</f>
         <v>44512</v>
       </c>
       <c r="G117" s="58">
@@ -15255,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I117" si="57">IF(OR(F117=0,E117=0)," - ",NETWORKDAYS(E117,F117))</f>
         <v>10</v>
       </c>
       <c r="J117" s="73"/>
@@ -15318,18 +15210,18 @@
     </row>
     <row r="118" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.6</v>
+        <f t="shared" si="41"/>
+        <v>5.4.15</v>
       </c>
       <c r="B118" s="100" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D118" s="99"/>
       <c r="E118" s="75">
         <v>44501</v>
       </c>
       <c r="F118" s="76">
-        <f t="shared" ref="F118" si="51">IF(ISBLANK(E118)," - ",IF(G118=0,E118,E118+G118-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G118" s="58">
@@ -15339,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="60">
-        <f t="shared" ref="I118" si="52">IF(OR(F118=0,E118=0)," - ",NETWORKDAYS(E118,F118))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J118" s="73"/>
@@ -15402,18 +15294,18 @@
     </row>
     <row r="119" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.7</v>
+        <f t="shared" si="41"/>
+        <v>5.4.16</v>
       </c>
       <c r="B119" s="100" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D119" s="99"/>
       <c r="E119" s="75">
         <v>44501</v>
       </c>
       <c r="F119" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F119" si="58">IF(ISBLANK(E119)," - ",IF(G119=0,E119,E119+G119-1))</f>
         <v>44512</v>
       </c>
       <c r="G119" s="58">
@@ -15423,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I119" si="59">IF(OR(F119=0,E119=0)," - ",NETWORKDAYS(E119,F119))</f>
         <v>10</v>
       </c>
       <c r="J119" s="73"/>
@@ -15486,18 +15378,18 @@
     </row>
     <row r="120" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.8</v>
+        <f t="shared" si="41"/>
+        <v>5.4.17</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D120" s="99"/>
       <c r="E120" s="75">
         <v>44501</v>
       </c>
       <c r="F120" s="76">
-        <f t="shared" ref="F120" si="53">IF(ISBLANK(E120)," - ",IF(G120=0,E120,E120+G120-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G120" s="58">
@@ -15507,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="60">
-        <f t="shared" ref="I120" si="54">IF(OR(F120=0,E120=0)," - ",NETWORKDAYS(E120,F120))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J120" s="73"/>
@@ -15570,18 +15462,18 @@
     </row>
     <row r="121" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.9</v>
+        <f t="shared" si="41"/>
+        <v>5.4.18</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D121" s="99"/>
       <c r="E121" s="75">
         <v>44501</v>
       </c>
       <c r="F121" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F121" si="60">IF(ISBLANK(E121)," - ",IF(G121=0,E121,E121+G121-1))</f>
         <v>44512</v>
       </c>
       <c r="G121" s="58">
@@ -15591,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I121" si="61">IF(OR(F121=0,E121=0)," - ",NETWORKDAYS(E121,F121))</f>
         <v>10</v>
       </c>
       <c r="J121" s="73"/>
@@ -15654,18 +15546,18 @@
     </row>
     <row r="122" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.10</v>
-      </c>
-      <c r="B122" s="100" t="s">
-        <v>205</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.5</v>
+      </c>
+      <c r="B122" s="98" t="s">
+        <v>192</v>
       </c>
       <c r="D122" s="99"/>
       <c r="E122" s="75">
         <v>44501</v>
       </c>
       <c r="F122" s="76">
-        <f t="shared" ref="F122" si="55">IF(ISBLANK(E122)," - ",IF(G122=0,E122,E122+G122-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G122" s="58">
@@ -15675,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="60">
-        <f t="shared" ref="I122" si="56">IF(OR(F122=0,E122=0)," - ",NETWORKDAYS(E122,F122))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J122" s="73"/>
@@ -15738,18 +15630,18 @@
     </row>
     <row r="123" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.5.1</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D123" s="99"/>
       <c r="E123" s="75">
         <v>44501</v>
       </c>
       <c r="F123" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F123:F125" si="62">IF(ISBLANK(E123)," - ",IF(G123=0,E123,E123+G123-1))</f>
         <v>44512</v>
       </c>
       <c r="G123" s="58">
@@ -15759,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I123:I125" si="63">IF(OR(F123=0,E123=0)," - ",NETWORKDAYS(E123,F123))</f>
         <v>10</v>
       </c>
       <c r="J123" s="73"/>
@@ -15822,18 +15714,18 @@
     </row>
     <row r="124" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.12</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.5.2</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="75">
         <v>44501</v>
       </c>
       <c r="F124" s="76">
-        <f t="shared" ref="F124" si="57">IF(ISBLANK(E124)," - ",IF(G124=0,E124,E124+G124-1))</f>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G124" s="58">
@@ -15843,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="60">
-        <f t="shared" ref="I124" si="58">IF(OR(F124=0,E124=0)," - ",NETWORKDAYS(E124,F124))</f>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J124" s="73"/>
@@ -15906,18 +15798,18 @@
     </row>
     <row r="125" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.13</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.5.3</v>
       </c>
       <c r="B125" s="100" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D125" s="99"/>
       <c r="E125" s="75">
         <v>44501</v>
       </c>
       <c r="F125" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G125" s="58">
@@ -15927,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J125" s="73"/>
@@ -15988,104 +15880,98 @@
       <c r="BM125" s="79"/>
       <c r="BN125" s="79"/>
     </row>
-    <row r="126" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.14</v>
-      </c>
-      <c r="B126" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="D126" s="99"/>
-      <c r="E126" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F126" s="76">
-        <f t="shared" ref="F126" si="59">IF(ISBLANK(E126)," - ",IF(G126=0,E126,E126+G126-1))</f>
-        <v>44512</v>
-      </c>
-      <c r="G126" s="58">
-        <v>12</v>
-      </c>
-      <c r="H126" s="59">
-        <v>0</v>
-      </c>
-      <c r="I126" s="60">
-        <f t="shared" ref="I126" si="60">IF(OR(F126=0,E126=0)," - ",NETWORKDAYS(E126,F126))</f>
-        <v>10</v>
-      </c>
-      <c r="J126" s="73"/>
-      <c r="K126" s="79"/>
-      <c r="L126" s="79"/>
-      <c r="M126" s="79"/>
-      <c r="N126" s="79"/>
-      <c r="O126" s="79"/>
-      <c r="P126" s="79"/>
-      <c r="Q126" s="79"/>
-      <c r="R126" s="79"/>
-      <c r="S126" s="79"/>
-      <c r="T126" s="79"/>
-      <c r="U126" s="79"/>
-      <c r="V126" s="79"/>
-      <c r="W126" s="79"/>
-      <c r="X126" s="79"/>
-      <c r="Y126" s="79"/>
-      <c r="Z126" s="79"/>
-      <c r="AA126" s="79"/>
-      <c r="AB126" s="79"/>
-      <c r="AC126" s="79"/>
-      <c r="AD126" s="79"/>
-      <c r="AE126" s="79"/>
-      <c r="AF126" s="79"/>
-      <c r="AG126" s="79"/>
-      <c r="AH126" s="79"/>
-      <c r="AI126" s="79"/>
-      <c r="AJ126" s="79"/>
-      <c r="AK126" s="79"/>
-      <c r="AL126" s="79"/>
-      <c r="AM126" s="79"/>
-      <c r="AN126" s="79"/>
-      <c r="AO126" s="79"/>
-      <c r="AP126" s="79"/>
-      <c r="AQ126" s="79"/>
-      <c r="AR126" s="79"/>
-      <c r="AS126" s="79"/>
-      <c r="AT126" s="79"/>
-      <c r="AU126" s="79"/>
-      <c r="AV126" s="79"/>
-      <c r="AW126" s="79"/>
-      <c r="AX126" s="79"/>
-      <c r="AY126" s="79"/>
-      <c r="AZ126" s="79"/>
-      <c r="BA126" s="79"/>
-      <c r="BB126" s="79"/>
-      <c r="BC126" s="79"/>
-      <c r="BD126" s="79"/>
-      <c r="BE126" s="79"/>
-      <c r="BF126" s="79"/>
-      <c r="BG126" s="79"/>
-      <c r="BH126" s="79"/>
-      <c r="BI126" s="79"/>
-      <c r="BJ126" s="79"/>
-      <c r="BK126" s="79"/>
-      <c r="BL126" s="79"/>
-      <c r="BM126" s="79"/>
-      <c r="BN126" s="79"/>
+    <row r="126" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="52"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="77" t="str">
+        <f t="shared" ref="F126:F136" si="64">IF(ISBLANK(E126)," - ",IF(G126=0,E126,E126+G126-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G126" s="53"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="55" t="str">
+        <f t="shared" ref="I126:I136" si="65">IF(OR(F126=0,E126=0)," - ",NETWORKDAYS(E126,F126))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J126" s="74"/>
+      <c r="K126" s="81"/>
+      <c r="L126" s="81"/>
+      <c r="M126" s="81"/>
+      <c r="N126" s="81"/>
+      <c r="O126" s="81"/>
+      <c r="P126" s="81"/>
+      <c r="Q126" s="81"/>
+      <c r="R126" s="81"/>
+      <c r="S126" s="81"/>
+      <c r="T126" s="81"/>
+      <c r="U126" s="81"/>
+      <c r="V126" s="81"/>
+      <c r="W126" s="81"/>
+      <c r="X126" s="81"/>
+      <c r="Y126" s="81"/>
+      <c r="Z126" s="81"/>
+      <c r="AA126" s="81"/>
+      <c r="AB126" s="81"/>
+      <c r="AC126" s="81"/>
+      <c r="AD126" s="81"/>
+      <c r="AE126" s="81"/>
+      <c r="AF126" s="81"/>
+      <c r="AG126" s="81"/>
+      <c r="AH126" s="81"/>
+      <c r="AI126" s="81"/>
+      <c r="AJ126" s="81"/>
+      <c r="AK126" s="81"/>
+      <c r="AL126" s="81"/>
+      <c r="AM126" s="81"/>
+      <c r="AN126" s="81"/>
+      <c r="AO126" s="81"/>
+      <c r="AP126" s="81"/>
+      <c r="AQ126" s="81"/>
+      <c r="AR126" s="81"/>
+      <c r="AS126" s="81"/>
+      <c r="AT126" s="81"/>
+      <c r="AU126" s="81"/>
+      <c r="AV126" s="81"/>
+      <c r="AW126" s="81"/>
+      <c r="AX126" s="81"/>
+      <c r="AY126" s="81"/>
+      <c r="AZ126" s="81"/>
+      <c r="BA126" s="81"/>
+      <c r="BB126" s="81"/>
+      <c r="BC126" s="81"/>
+      <c r="BD126" s="81"/>
+      <c r="BE126" s="81"/>
+      <c r="BF126" s="81"/>
+      <c r="BG126" s="81"/>
+      <c r="BH126" s="81"/>
+      <c r="BI126" s="81"/>
+      <c r="BJ126" s="81"/>
+      <c r="BK126" s="81"/>
+      <c r="BL126" s="81"/>
+      <c r="BM126" s="81"/>
+      <c r="BN126" s="81"/>
     </row>
     <row r="127" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.15</v>
-      </c>
-      <c r="B127" s="100" t="s">
-        <v>211</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B127" s="98" t="s">
+        <v>191</v>
       </c>
       <c r="D127" s="99"/>
       <c r="E127" s="75">
         <v>44501</v>
       </c>
       <c r="F127" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G127" s="58">
@@ -16095,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J127" s="73"/>
@@ -16158,18 +16044,18 @@
     </row>
     <row r="128" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.16</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.1</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D128" s="99"/>
       <c r="E128" s="75">
         <v>44501</v>
       </c>
       <c r="F128" s="76">
-        <f t="shared" ref="F128" si="61">IF(ISBLANK(E128)," - ",IF(G128=0,E128,E128+G128-1))</f>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G128" s="58">
@@ -16179,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="60">
-        <f t="shared" ref="I128" si="62">IF(OR(F128=0,E128=0)," - ",NETWORKDAYS(E128,F128))</f>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J128" s="73"/>
@@ -16242,18 +16128,18 @@
     </row>
     <row r="129" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.17</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.2</v>
       </c>
       <c r="B129" s="100" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D129" s="99"/>
       <c r="E129" s="75">
         <v>44501</v>
       </c>
       <c r="F129" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G129" s="58">
@@ -16263,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J129" s="73"/>
@@ -16326,18 +16212,18 @@
     </row>
     <row r="130" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="56" t="str">
-        <f t="shared" si="44"/>
-        <v>5.4.18</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.3</v>
       </c>
       <c r="B130" s="100" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D130" s="99"/>
       <c r="E130" s="75">
         <v>44501</v>
       </c>
       <c r="F130" s="76">
-        <f t="shared" ref="F130" si="63">IF(ISBLANK(E130)," - ",IF(G130=0,E130,E130+G130-1))</f>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G130" s="58">
@@ -16347,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="60">
-        <f t="shared" ref="I130" si="64">IF(OR(F130=0,E130=0)," - ",NETWORKDAYS(E130,F130))</f>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J130" s="73"/>
@@ -16411,7 +16297,7 @@
     <row r="131" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="B131" s="98" t="s">
         <v>193</v>
@@ -16421,7 +16307,7 @@
         <v>44501</v>
       </c>
       <c r="F131" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G131" s="58">
@@ -16431,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J131" s="73"/>
@@ -16495,17 +16381,17 @@
     <row r="132" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.1</v>
+        <v>6.2.1</v>
       </c>
       <c r="B132" s="100" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D132" s="99"/>
       <c r="E132" s="75">
         <v>44501</v>
       </c>
       <c r="F132" s="76">
-        <f t="shared" ref="F132:F134" si="65">IF(ISBLANK(E132)," - ",IF(G132=0,E132,E132+G132-1))</f>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G132" s="58">
@@ -16515,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="60">
-        <f t="shared" ref="I132:I134" si="66">IF(OR(F132=0,E132=0)," - ",NETWORKDAYS(E132,F132))</f>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J132" s="73"/>
@@ -16579,17 +16465,17 @@
     <row r="133" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.2</v>
+        <v>6.2.2</v>
       </c>
       <c r="B133" s="100" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D133" s="99"/>
       <c r="E133" s="75">
         <v>44501</v>
       </c>
       <c r="F133" s="76">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G133" s="58">
@@ -16599,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="60">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J133" s="73"/>
@@ -16662,18 +16548,18 @@
     </row>
     <row r="134" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.3</v>
-      </c>
-      <c r="B134" s="100" t="s">
-        <v>220</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.3</v>
+      </c>
+      <c r="B134" s="98" t="s">
+        <v>196</v>
       </c>
       <c r="D134" s="99"/>
       <c r="E134" s="75">
         <v>44501</v>
       </c>
       <c r="F134" s="76">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>44512</v>
       </c>
       <c r="G134" s="58">
@@ -16683,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="60">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J134" s="73"/>
@@ -16744,99 +16630,105 @@
       <c r="BM134" s="79"/>
       <c r="BN134" s="79"/>
     </row>
-    <row r="135" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B135" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D135" s="52"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="77" t="str">
-        <f t="shared" ref="F135:F145" si="67">IF(ISBLANK(E135)," - ",IF(G135=0,E135,E135+G135-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G135" s="53"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="55" t="str">
-        <f t="shared" ref="I135:I145" si="68">IF(OR(F135=0,E135=0)," - ",NETWORKDAYS(E135,F135))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J135" s="74"/>
-      <c r="K135" s="81"/>
-      <c r="L135" s="81"/>
-      <c r="M135" s="81"/>
-      <c r="N135" s="81"/>
-      <c r="O135" s="81"/>
-      <c r="P135" s="81"/>
-      <c r="Q135" s="81"/>
-      <c r="R135" s="81"/>
-      <c r="S135" s="81"/>
-      <c r="T135" s="81"/>
-      <c r="U135" s="81"/>
-      <c r="V135" s="81"/>
-      <c r="W135" s="81"/>
-      <c r="X135" s="81"/>
-      <c r="Y135" s="81"/>
-      <c r="Z135" s="81"/>
-      <c r="AA135" s="81"/>
-      <c r="AB135" s="81"/>
-      <c r="AC135" s="81"/>
-      <c r="AD135" s="81"/>
-      <c r="AE135" s="81"/>
-      <c r="AF135" s="81"/>
-      <c r="AG135" s="81"/>
-      <c r="AH135" s="81"/>
-      <c r="AI135" s="81"/>
-      <c r="AJ135" s="81"/>
-      <c r="AK135" s="81"/>
-      <c r="AL135" s="81"/>
-      <c r="AM135" s="81"/>
-      <c r="AN135" s="81"/>
-      <c r="AO135" s="81"/>
-      <c r="AP135" s="81"/>
-      <c r="AQ135" s="81"/>
-      <c r="AR135" s="81"/>
-      <c r="AS135" s="81"/>
-      <c r="AT135" s="81"/>
-      <c r="AU135" s="81"/>
-      <c r="AV135" s="81"/>
-      <c r="AW135" s="81"/>
-      <c r="AX135" s="81"/>
-      <c r="AY135" s="81"/>
-      <c r="AZ135" s="81"/>
-      <c r="BA135" s="81"/>
-      <c r="BB135" s="81"/>
-      <c r="BC135" s="81"/>
-      <c r="BD135" s="81"/>
-      <c r="BE135" s="81"/>
-      <c r="BF135" s="81"/>
-      <c r="BG135" s="81"/>
-      <c r="BH135" s="81"/>
-      <c r="BI135" s="81"/>
-      <c r="BJ135" s="81"/>
-      <c r="BK135" s="81"/>
-      <c r="BL135" s="81"/>
-      <c r="BM135" s="81"/>
-      <c r="BN135" s="81"/>
+    <row r="135" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.3.1</v>
+      </c>
+      <c r="B135" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D135" s="99"/>
+      <c r="E135" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F135" s="76">
+        <f t="shared" si="64"/>
+        <v>44512</v>
+      </c>
+      <c r="G135" s="58">
+        <v>12</v>
+      </c>
+      <c r="H135" s="59">
+        <v>0</v>
+      </c>
+      <c r="I135" s="60">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="J135" s="73"/>
+      <c r="K135" s="79"/>
+      <c r="L135" s="79"/>
+      <c r="M135" s="79"/>
+      <c r="N135" s="79"/>
+      <c r="O135" s="79"/>
+      <c r="P135" s="79"/>
+      <c r="Q135" s="79"/>
+      <c r="R135" s="79"/>
+      <c r="S135" s="79"/>
+      <c r="T135" s="79"/>
+      <c r="U135" s="79"/>
+      <c r="V135" s="79"/>
+      <c r="W135" s="79"/>
+      <c r="X135" s="79"/>
+      <c r="Y135" s="79"/>
+      <c r="Z135" s="79"/>
+      <c r="AA135" s="79"/>
+      <c r="AB135" s="79"/>
+      <c r="AC135" s="79"/>
+      <c r="AD135" s="79"/>
+      <c r="AE135" s="79"/>
+      <c r="AF135" s="79"/>
+      <c r="AG135" s="79"/>
+      <c r="AH135" s="79"/>
+      <c r="AI135" s="79"/>
+      <c r="AJ135" s="79"/>
+      <c r="AK135" s="79"/>
+      <c r="AL135" s="79"/>
+      <c r="AM135" s="79"/>
+      <c r="AN135" s="79"/>
+      <c r="AO135" s="79"/>
+      <c r="AP135" s="79"/>
+      <c r="AQ135" s="79"/>
+      <c r="AR135" s="79"/>
+      <c r="AS135" s="79"/>
+      <c r="AT135" s="79"/>
+      <c r="AU135" s="79"/>
+      <c r="AV135" s="79"/>
+      <c r="AW135" s="79"/>
+      <c r="AX135" s="79"/>
+      <c r="AY135" s="79"/>
+      <c r="AZ135" s="79"/>
+      <c r="BA135" s="79"/>
+      <c r="BB135" s="79"/>
+      <c r="BC135" s="79"/>
+      <c r="BD135" s="79"/>
+      <c r="BE135" s="79"/>
+      <c r="BF135" s="79"/>
+      <c r="BG135" s="79"/>
+      <c r="BH135" s="79"/>
+      <c r="BI135" s="79"/>
+      <c r="BJ135" s="79"/>
+      <c r="BK135" s="79"/>
+      <c r="BL135" s="79"/>
+      <c r="BM135" s="79"/>
+      <c r="BN135" s="79"/>
     </row>
     <row r="136" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="B136" s="98" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="D136" s="99"/>
       <c r="E136" s="75">
-        <v>44501</v>
+        <v>44515</v>
       </c>
       <c r="F136" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
+        <f t="shared" si="64"/>
+        <v>44526</v>
       </c>
       <c r="G136" s="58">
         <v>12</v>
@@ -16845,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="60">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="J136" s="73"/>
@@ -16906,763 +16798,7 @@
       <c r="BM136" s="79"/>
       <c r="BN136" s="79"/>
     </row>
-    <row r="137" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.1</v>
-      </c>
-      <c r="B137" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="D137" s="99"/>
-      <c r="E137" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F137" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G137" s="58">
-        <v>12</v>
-      </c>
-      <c r="H137" s="59">
-        <v>0</v>
-      </c>
-      <c r="I137" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J137" s="73"/>
-      <c r="K137" s="79"/>
-      <c r="L137" s="79"/>
-      <c r="M137" s="79"/>
-      <c r="N137" s="79"/>
-      <c r="O137" s="79"/>
-      <c r="P137" s="79"/>
-      <c r="Q137" s="79"/>
-      <c r="R137" s="79"/>
-      <c r="S137" s="79"/>
-      <c r="T137" s="79"/>
-      <c r="U137" s="79"/>
-      <c r="V137" s="79"/>
-      <c r="W137" s="79"/>
-      <c r="X137" s="79"/>
-      <c r="Y137" s="79"/>
-      <c r="Z137" s="79"/>
-      <c r="AA137" s="79"/>
-      <c r="AB137" s="79"/>
-      <c r="AC137" s="79"/>
-      <c r="AD137" s="79"/>
-      <c r="AE137" s="79"/>
-      <c r="AF137" s="79"/>
-      <c r="AG137" s="79"/>
-      <c r="AH137" s="79"/>
-      <c r="AI137" s="79"/>
-      <c r="AJ137" s="79"/>
-      <c r="AK137" s="79"/>
-      <c r="AL137" s="79"/>
-      <c r="AM137" s="79"/>
-      <c r="AN137" s="79"/>
-      <c r="AO137" s="79"/>
-      <c r="AP137" s="79"/>
-      <c r="AQ137" s="79"/>
-      <c r="AR137" s="79"/>
-      <c r="AS137" s="79"/>
-      <c r="AT137" s="79"/>
-      <c r="AU137" s="79"/>
-      <c r="AV137" s="79"/>
-      <c r="AW137" s="79"/>
-      <c r="AX137" s="79"/>
-      <c r="AY137" s="79"/>
-      <c r="AZ137" s="79"/>
-      <c r="BA137" s="79"/>
-      <c r="BB137" s="79"/>
-      <c r="BC137" s="79"/>
-      <c r="BD137" s="79"/>
-      <c r="BE137" s="79"/>
-      <c r="BF137" s="79"/>
-      <c r="BG137" s="79"/>
-      <c r="BH137" s="79"/>
-      <c r="BI137" s="79"/>
-      <c r="BJ137" s="79"/>
-      <c r="BK137" s="79"/>
-      <c r="BL137" s="79"/>
-      <c r="BM137" s="79"/>
-      <c r="BN137" s="79"/>
-    </row>
-    <row r="138" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.2</v>
-      </c>
-      <c r="B138" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="D138" s="99"/>
-      <c r="E138" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F138" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G138" s="58">
-        <v>12</v>
-      </c>
-      <c r="H138" s="59">
-        <v>0</v>
-      </c>
-      <c r="I138" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J138" s="73"/>
-      <c r="K138" s="79"/>
-      <c r="L138" s="79"/>
-      <c r="M138" s="79"/>
-      <c r="N138" s="79"/>
-      <c r="O138" s="79"/>
-      <c r="P138" s="79"/>
-      <c r="Q138" s="79"/>
-      <c r="R138" s="79"/>
-      <c r="S138" s="79"/>
-      <c r="T138" s="79"/>
-      <c r="U138" s="79"/>
-      <c r="V138" s="79"/>
-      <c r="W138" s="79"/>
-      <c r="X138" s="79"/>
-      <c r="Y138" s="79"/>
-      <c r="Z138" s="79"/>
-      <c r="AA138" s="79"/>
-      <c r="AB138" s="79"/>
-      <c r="AC138" s="79"/>
-      <c r="AD138" s="79"/>
-      <c r="AE138" s="79"/>
-      <c r="AF138" s="79"/>
-      <c r="AG138" s="79"/>
-      <c r="AH138" s="79"/>
-      <c r="AI138" s="79"/>
-      <c r="AJ138" s="79"/>
-      <c r="AK138" s="79"/>
-      <c r="AL138" s="79"/>
-      <c r="AM138" s="79"/>
-      <c r="AN138" s="79"/>
-      <c r="AO138" s="79"/>
-      <c r="AP138" s="79"/>
-      <c r="AQ138" s="79"/>
-      <c r="AR138" s="79"/>
-      <c r="AS138" s="79"/>
-      <c r="AT138" s="79"/>
-      <c r="AU138" s="79"/>
-      <c r="AV138" s="79"/>
-      <c r="AW138" s="79"/>
-      <c r="AX138" s="79"/>
-      <c r="AY138" s="79"/>
-      <c r="AZ138" s="79"/>
-      <c r="BA138" s="79"/>
-      <c r="BB138" s="79"/>
-      <c r="BC138" s="79"/>
-      <c r="BD138" s="79"/>
-      <c r="BE138" s="79"/>
-      <c r="BF138" s="79"/>
-      <c r="BG138" s="79"/>
-      <c r="BH138" s="79"/>
-      <c r="BI138" s="79"/>
-      <c r="BJ138" s="79"/>
-      <c r="BK138" s="79"/>
-      <c r="BL138" s="79"/>
-      <c r="BM138" s="79"/>
-      <c r="BN138" s="79"/>
-    </row>
-    <row r="139" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.3</v>
-      </c>
-      <c r="B139" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="D139" s="99"/>
-      <c r="E139" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F139" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G139" s="58">
-        <v>12</v>
-      </c>
-      <c r="H139" s="59">
-        <v>0</v>
-      </c>
-      <c r="I139" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J139" s="73"/>
-      <c r="K139" s="79"/>
-      <c r="L139" s="79"/>
-      <c r="M139" s="79"/>
-      <c r="N139" s="79"/>
-      <c r="O139" s="79"/>
-      <c r="P139" s="79"/>
-      <c r="Q139" s="79"/>
-      <c r="R139" s="79"/>
-      <c r="S139" s="79"/>
-      <c r="T139" s="79"/>
-      <c r="U139" s="79"/>
-      <c r="V139" s="79"/>
-      <c r="W139" s="79"/>
-      <c r="X139" s="79"/>
-      <c r="Y139" s="79"/>
-      <c r="Z139" s="79"/>
-      <c r="AA139" s="79"/>
-      <c r="AB139" s="79"/>
-      <c r="AC139" s="79"/>
-      <c r="AD139" s="79"/>
-      <c r="AE139" s="79"/>
-      <c r="AF139" s="79"/>
-      <c r="AG139" s="79"/>
-      <c r="AH139" s="79"/>
-      <c r="AI139" s="79"/>
-      <c r="AJ139" s="79"/>
-      <c r="AK139" s="79"/>
-      <c r="AL139" s="79"/>
-      <c r="AM139" s="79"/>
-      <c r="AN139" s="79"/>
-      <c r="AO139" s="79"/>
-      <c r="AP139" s="79"/>
-      <c r="AQ139" s="79"/>
-      <c r="AR139" s="79"/>
-      <c r="AS139" s="79"/>
-      <c r="AT139" s="79"/>
-      <c r="AU139" s="79"/>
-      <c r="AV139" s="79"/>
-      <c r="AW139" s="79"/>
-      <c r="AX139" s="79"/>
-      <c r="AY139" s="79"/>
-      <c r="AZ139" s="79"/>
-      <c r="BA139" s="79"/>
-      <c r="BB139" s="79"/>
-      <c r="BC139" s="79"/>
-      <c r="BD139" s="79"/>
-      <c r="BE139" s="79"/>
-      <c r="BF139" s="79"/>
-      <c r="BG139" s="79"/>
-      <c r="BH139" s="79"/>
-      <c r="BI139" s="79"/>
-      <c r="BJ139" s="79"/>
-      <c r="BK139" s="79"/>
-      <c r="BL139" s="79"/>
-      <c r="BM139" s="79"/>
-      <c r="BN139" s="79"/>
-    </row>
-    <row r="140" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B140" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="D140" s="99"/>
-      <c r="E140" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F140" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G140" s="58">
-        <v>12</v>
-      </c>
-      <c r="H140" s="59">
-        <v>0</v>
-      </c>
-      <c r="I140" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J140" s="73"/>
-      <c r="K140" s="79"/>
-      <c r="L140" s="79"/>
-      <c r="M140" s="79"/>
-      <c r="N140" s="79"/>
-      <c r="O140" s="79"/>
-      <c r="P140" s="79"/>
-      <c r="Q140" s="79"/>
-      <c r="R140" s="79"/>
-      <c r="S140" s="79"/>
-      <c r="T140" s="79"/>
-      <c r="U140" s="79"/>
-      <c r="V140" s="79"/>
-      <c r="W140" s="79"/>
-      <c r="X140" s="79"/>
-      <c r="Y140" s="79"/>
-      <c r="Z140" s="79"/>
-      <c r="AA140" s="79"/>
-      <c r="AB140" s="79"/>
-      <c r="AC140" s="79"/>
-      <c r="AD140" s="79"/>
-      <c r="AE140" s="79"/>
-      <c r="AF140" s="79"/>
-      <c r="AG140" s="79"/>
-      <c r="AH140" s="79"/>
-      <c r="AI140" s="79"/>
-      <c r="AJ140" s="79"/>
-      <c r="AK140" s="79"/>
-      <c r="AL140" s="79"/>
-      <c r="AM140" s="79"/>
-      <c r="AN140" s="79"/>
-      <c r="AO140" s="79"/>
-      <c r="AP140" s="79"/>
-      <c r="AQ140" s="79"/>
-      <c r="AR140" s="79"/>
-      <c r="AS140" s="79"/>
-      <c r="AT140" s="79"/>
-      <c r="AU140" s="79"/>
-      <c r="AV140" s="79"/>
-      <c r="AW140" s="79"/>
-      <c r="AX140" s="79"/>
-      <c r="AY140" s="79"/>
-      <c r="AZ140" s="79"/>
-      <c r="BA140" s="79"/>
-      <c r="BB140" s="79"/>
-      <c r="BC140" s="79"/>
-      <c r="BD140" s="79"/>
-      <c r="BE140" s="79"/>
-      <c r="BF140" s="79"/>
-      <c r="BG140" s="79"/>
-      <c r="BH140" s="79"/>
-      <c r="BI140" s="79"/>
-      <c r="BJ140" s="79"/>
-      <c r="BK140" s="79"/>
-      <c r="BL140" s="79"/>
-      <c r="BM140" s="79"/>
-      <c r="BN140" s="79"/>
-    </row>
-    <row r="141" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.2.1</v>
-      </c>
-      <c r="B141" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="D141" s="99"/>
-      <c r="E141" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F141" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G141" s="58">
-        <v>12</v>
-      </c>
-      <c r="H141" s="59">
-        <v>0</v>
-      </c>
-      <c r="I141" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J141" s="73"/>
-      <c r="K141" s="79"/>
-      <c r="L141" s="79"/>
-      <c r="M141" s="79"/>
-      <c r="N141" s="79"/>
-      <c r="O141" s="79"/>
-      <c r="P141" s="79"/>
-      <c r="Q141" s="79"/>
-      <c r="R141" s="79"/>
-      <c r="S141" s="79"/>
-      <c r="T141" s="79"/>
-      <c r="U141" s="79"/>
-      <c r="V141" s="79"/>
-      <c r="W141" s="79"/>
-      <c r="X141" s="79"/>
-      <c r="Y141" s="79"/>
-      <c r="Z141" s="79"/>
-      <c r="AA141" s="79"/>
-      <c r="AB141" s="79"/>
-      <c r="AC141" s="79"/>
-      <c r="AD141" s="79"/>
-      <c r="AE141" s="79"/>
-      <c r="AF141" s="79"/>
-      <c r="AG141" s="79"/>
-      <c r="AH141" s="79"/>
-      <c r="AI141" s="79"/>
-      <c r="AJ141" s="79"/>
-      <c r="AK141" s="79"/>
-      <c r="AL141" s="79"/>
-      <c r="AM141" s="79"/>
-      <c r="AN141" s="79"/>
-      <c r="AO141" s="79"/>
-      <c r="AP141" s="79"/>
-      <c r="AQ141" s="79"/>
-      <c r="AR141" s="79"/>
-      <c r="AS141" s="79"/>
-      <c r="AT141" s="79"/>
-      <c r="AU141" s="79"/>
-      <c r="AV141" s="79"/>
-      <c r="AW141" s="79"/>
-      <c r="AX141" s="79"/>
-      <c r="AY141" s="79"/>
-      <c r="AZ141" s="79"/>
-      <c r="BA141" s="79"/>
-      <c r="BB141" s="79"/>
-      <c r="BC141" s="79"/>
-      <c r="BD141" s="79"/>
-      <c r="BE141" s="79"/>
-      <c r="BF141" s="79"/>
-      <c r="BG141" s="79"/>
-      <c r="BH141" s="79"/>
-      <c r="BI141" s="79"/>
-      <c r="BJ141" s="79"/>
-      <c r="BK141" s="79"/>
-      <c r="BL141" s="79"/>
-      <c r="BM141" s="79"/>
-      <c r="BN141" s="79"/>
-    </row>
-    <row r="142" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.2.2</v>
-      </c>
-      <c r="B142" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="D142" s="99"/>
-      <c r="E142" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F142" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G142" s="58">
-        <v>12</v>
-      </c>
-      <c r="H142" s="59">
-        <v>0</v>
-      </c>
-      <c r="I142" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J142" s="73"/>
-      <c r="K142" s="79"/>
-      <c r="L142" s="79"/>
-      <c r="M142" s="79"/>
-      <c r="N142" s="79"/>
-      <c r="O142" s="79"/>
-      <c r="P142" s="79"/>
-      <c r="Q142" s="79"/>
-      <c r="R142" s="79"/>
-      <c r="S142" s="79"/>
-      <c r="T142" s="79"/>
-      <c r="U142" s="79"/>
-      <c r="V142" s="79"/>
-      <c r="W142" s="79"/>
-      <c r="X142" s="79"/>
-      <c r="Y142" s="79"/>
-      <c r="Z142" s="79"/>
-      <c r="AA142" s="79"/>
-      <c r="AB142" s="79"/>
-      <c r="AC142" s="79"/>
-      <c r="AD142" s="79"/>
-      <c r="AE142" s="79"/>
-      <c r="AF142" s="79"/>
-      <c r="AG142" s="79"/>
-      <c r="AH142" s="79"/>
-      <c r="AI142" s="79"/>
-      <c r="AJ142" s="79"/>
-      <c r="AK142" s="79"/>
-      <c r="AL142" s="79"/>
-      <c r="AM142" s="79"/>
-      <c r="AN142" s="79"/>
-      <c r="AO142" s="79"/>
-      <c r="AP142" s="79"/>
-      <c r="AQ142" s="79"/>
-      <c r="AR142" s="79"/>
-      <c r="AS142" s="79"/>
-      <c r="AT142" s="79"/>
-      <c r="AU142" s="79"/>
-      <c r="AV142" s="79"/>
-      <c r="AW142" s="79"/>
-      <c r="AX142" s="79"/>
-      <c r="AY142" s="79"/>
-      <c r="AZ142" s="79"/>
-      <c r="BA142" s="79"/>
-      <c r="BB142" s="79"/>
-      <c r="BC142" s="79"/>
-      <c r="BD142" s="79"/>
-      <c r="BE142" s="79"/>
-      <c r="BF142" s="79"/>
-      <c r="BG142" s="79"/>
-      <c r="BH142" s="79"/>
-      <c r="BI142" s="79"/>
-      <c r="BJ142" s="79"/>
-      <c r="BK142" s="79"/>
-      <c r="BL142" s="79"/>
-      <c r="BM142" s="79"/>
-      <c r="BN142" s="79"/>
-    </row>
-    <row r="143" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
-      </c>
-      <c r="B143" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="D143" s="99"/>
-      <c r="E143" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F143" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G143" s="58">
-        <v>12</v>
-      </c>
-      <c r="H143" s="59">
-        <v>0</v>
-      </c>
-      <c r="I143" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J143" s="73"/>
-      <c r="K143" s="79"/>
-      <c r="L143" s="79"/>
-      <c r="M143" s="79"/>
-      <c r="N143" s="79"/>
-      <c r="O143" s="79"/>
-      <c r="P143" s="79"/>
-      <c r="Q143" s="79"/>
-      <c r="R143" s="79"/>
-      <c r="S143" s="79"/>
-      <c r="T143" s="79"/>
-      <c r="U143" s="79"/>
-      <c r="V143" s="79"/>
-      <c r="W143" s="79"/>
-      <c r="X143" s="79"/>
-      <c r="Y143" s="79"/>
-      <c r="Z143" s="79"/>
-      <c r="AA143" s="79"/>
-      <c r="AB143" s="79"/>
-      <c r="AC143" s="79"/>
-      <c r="AD143" s="79"/>
-      <c r="AE143" s="79"/>
-      <c r="AF143" s="79"/>
-      <c r="AG143" s="79"/>
-      <c r="AH143" s="79"/>
-      <c r="AI143" s="79"/>
-      <c r="AJ143" s="79"/>
-      <c r="AK143" s="79"/>
-      <c r="AL143" s="79"/>
-      <c r="AM143" s="79"/>
-      <c r="AN143" s="79"/>
-      <c r="AO143" s="79"/>
-      <c r="AP143" s="79"/>
-      <c r="AQ143" s="79"/>
-      <c r="AR143" s="79"/>
-      <c r="AS143" s="79"/>
-      <c r="AT143" s="79"/>
-      <c r="AU143" s="79"/>
-      <c r="AV143" s="79"/>
-      <c r="AW143" s="79"/>
-      <c r="AX143" s="79"/>
-      <c r="AY143" s="79"/>
-      <c r="AZ143" s="79"/>
-      <c r="BA143" s="79"/>
-      <c r="BB143" s="79"/>
-      <c r="BC143" s="79"/>
-      <c r="BD143" s="79"/>
-      <c r="BE143" s="79"/>
-      <c r="BF143" s="79"/>
-      <c r="BG143" s="79"/>
-      <c r="BH143" s="79"/>
-      <c r="BI143" s="79"/>
-      <c r="BJ143" s="79"/>
-      <c r="BK143" s="79"/>
-      <c r="BL143" s="79"/>
-      <c r="BM143" s="79"/>
-      <c r="BN143" s="79"/>
-    </row>
-    <row r="144" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.3.1</v>
-      </c>
-      <c r="B144" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="D144" s="99"/>
-      <c r="E144" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F144" s="76">
-        <f t="shared" si="67"/>
-        <v>44512</v>
-      </c>
-      <c r="G144" s="58">
-        <v>12</v>
-      </c>
-      <c r="H144" s="59">
-        <v>0</v>
-      </c>
-      <c r="I144" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J144" s="73"/>
-      <c r="K144" s="79"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="79"/>
-      <c r="N144" s="79"/>
-      <c r="O144" s="79"/>
-      <c r="P144" s="79"/>
-      <c r="Q144" s="79"/>
-      <c r="R144" s="79"/>
-      <c r="S144" s="79"/>
-      <c r="T144" s="79"/>
-      <c r="U144" s="79"/>
-      <c r="V144" s="79"/>
-      <c r="W144" s="79"/>
-      <c r="X144" s="79"/>
-      <c r="Y144" s="79"/>
-      <c r="Z144" s="79"/>
-      <c r="AA144" s="79"/>
-      <c r="AB144" s="79"/>
-      <c r="AC144" s="79"/>
-      <c r="AD144" s="79"/>
-      <c r="AE144" s="79"/>
-      <c r="AF144" s="79"/>
-      <c r="AG144" s="79"/>
-      <c r="AH144" s="79"/>
-      <c r="AI144" s="79"/>
-      <c r="AJ144" s="79"/>
-      <c r="AK144" s="79"/>
-      <c r="AL144" s="79"/>
-      <c r="AM144" s="79"/>
-      <c r="AN144" s="79"/>
-      <c r="AO144" s="79"/>
-      <c r="AP144" s="79"/>
-      <c r="AQ144" s="79"/>
-      <c r="AR144" s="79"/>
-      <c r="AS144" s="79"/>
-      <c r="AT144" s="79"/>
-      <c r="AU144" s="79"/>
-      <c r="AV144" s="79"/>
-      <c r="AW144" s="79"/>
-      <c r="AX144" s="79"/>
-      <c r="AY144" s="79"/>
-      <c r="AZ144" s="79"/>
-      <c r="BA144" s="79"/>
-      <c r="BB144" s="79"/>
-      <c r="BC144" s="79"/>
-      <c r="BD144" s="79"/>
-      <c r="BE144" s="79"/>
-      <c r="BF144" s="79"/>
-      <c r="BG144" s="79"/>
-      <c r="BH144" s="79"/>
-      <c r="BI144" s="79"/>
-      <c r="BJ144" s="79"/>
-      <c r="BK144" s="79"/>
-      <c r="BL144" s="79"/>
-      <c r="BM144" s="79"/>
-      <c r="BN144" s="79"/>
-    </row>
-    <row r="145" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.4</v>
-      </c>
-      <c r="B145" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="D145" s="99"/>
-      <c r="E145" s="75">
-        <v>44515</v>
-      </c>
-      <c r="F145" s="76">
-        <f t="shared" si="67"/>
-        <v>44526</v>
-      </c>
-      <c r="G145" s="58">
-        <v>12</v>
-      </c>
-      <c r="H145" s="59">
-        <v>0</v>
-      </c>
-      <c r="I145" s="60">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="J145" s="73"/>
-      <c r="K145" s="79"/>
-      <c r="L145" s="79"/>
-      <c r="M145" s="79"/>
-      <c r="N145" s="79"/>
-      <c r="O145" s="79"/>
-      <c r="P145" s="79"/>
-      <c r="Q145" s="79"/>
-      <c r="R145" s="79"/>
-      <c r="S145" s="79"/>
-      <c r="T145" s="79"/>
-      <c r="U145" s="79"/>
-      <c r="V145" s="79"/>
-      <c r="W145" s="79"/>
-      <c r="X145" s="79"/>
-      <c r="Y145" s="79"/>
-      <c r="Z145" s="79"/>
-      <c r="AA145" s="79"/>
-      <c r="AB145" s="79"/>
-      <c r="AC145" s="79"/>
-      <c r="AD145" s="79"/>
-      <c r="AE145" s="79"/>
-      <c r="AF145" s="79"/>
-      <c r="AG145" s="79"/>
-      <c r="AH145" s="79"/>
-      <c r="AI145" s="79"/>
-      <c r="AJ145" s="79"/>
-      <c r="AK145" s="79"/>
-      <c r="AL145" s="79"/>
-      <c r="AM145" s="79"/>
-      <c r="AN145" s="79"/>
-      <c r="AO145" s="79"/>
-      <c r="AP145" s="79"/>
-      <c r="AQ145" s="79"/>
-      <c r="AR145" s="79"/>
-      <c r="AS145" s="79"/>
-      <c r="AT145" s="79"/>
-      <c r="AU145" s="79"/>
-      <c r="AV145" s="79"/>
-      <c r="AW145" s="79"/>
-      <c r="AX145" s="79"/>
-      <c r="AY145" s="79"/>
-      <c r="AZ145" s="79"/>
-      <c r="BA145" s="79"/>
-      <c r="BB145" s="79"/>
-      <c r="BC145" s="79"/>
-      <c r="BD145" s="79"/>
-      <c r="BE145" s="79"/>
-      <c r="BF145" s="79"/>
-      <c r="BG145" s="79"/>
-      <c r="BH145" s="79"/>
-      <c r="BI145" s="79"/>
-      <c r="BJ145" s="79"/>
-      <c r="BK145" s="79"/>
-      <c r="BL145" s="79"/>
-      <c r="BM145" s="79"/>
-      <c r="BN145" s="79"/>
-    </row>
-    <row r="146" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -17687,8 +16823,8 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H47 H57 H92 H68 H82 H97:H98 H78 H101:H102 H112 H131">
-    <cfRule type="dataBar" priority="460">
+  <conditionalFormatting sqref="H8:H9 H47 H49 H83 H60 H73 H88:H89 H70 H92:H93 H103 H122">
+    <cfRule type="dataBar" priority="464">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17702,25 +16838,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="123" priority="503">
+    <cfRule type="expression" dxfId="114" priority="507">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN145">
-    <cfRule type="expression" dxfId="122" priority="506">
+  <conditionalFormatting sqref="K8:BN136">
+    <cfRule type="expression" dxfId="113" priority="510">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="507">
+    <cfRule type="expression" dxfId="112" priority="511">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K47:BN47 K57:BN57 K92:BN92 K68:BN68 K82:BN82 K97:BN98 K78:BN78 K101:BN102 K112:BN112 K131:BN131">
-    <cfRule type="expression" dxfId="120" priority="466">
+  <conditionalFormatting sqref="K6:BN9 K47:BN47 K49:BN49 K83:BN83 K60:BN60 K73:BN73 K88:BN89 K70:BN70 K92:BN93 K103:BN103 K122:BN122">
+    <cfRule type="expression" dxfId="111" priority="470">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H135:H136 H140 H143">
-    <cfRule type="dataBar" priority="451">
+  <conditionalFormatting sqref="H126:H127 H131 H134">
+    <cfRule type="dataBar" priority="455">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17733,13 +16869,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K135:BN136 K140:BN140 K143:BN143">
-    <cfRule type="expression" dxfId="119" priority="452">
+  <conditionalFormatting sqref="K126:BN127 K131:BN131 K134:BN134">
+    <cfRule type="expression" dxfId="110" priority="456">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="447">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17753,12 +16889,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="118" priority="448">
+    <cfRule type="expression" dxfId="109" priority="452">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="443">
+    <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17772,12 +16908,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="117" priority="444">
+    <cfRule type="expression" dxfId="108" priority="448">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="439">
+    <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17791,12 +16927,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="116" priority="440">
+    <cfRule type="expression" dxfId="107" priority="444">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="435">
+    <cfRule type="dataBar" priority="439">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17810,12 +16946,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="115" priority="436">
+    <cfRule type="expression" dxfId="106" priority="440">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="431">
+    <cfRule type="dataBar" priority="435">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17829,12 +16965,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="114" priority="432">
+    <cfRule type="expression" dxfId="105" priority="436">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="423">
+    <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17848,12 +16984,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="113" priority="424">
+    <cfRule type="expression" dxfId="104" priority="428">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="419">
+    <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17867,12 +17003,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="112" priority="420">
+    <cfRule type="expression" dxfId="103" priority="424">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="411">
+    <cfRule type="dataBar" priority="415">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17886,12 +17022,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="111" priority="412">
+    <cfRule type="expression" dxfId="102" priority="416">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="403">
+    <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17905,12 +17041,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="110" priority="404">
+    <cfRule type="expression" dxfId="101" priority="408">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="399">
+    <cfRule type="dataBar" priority="403">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17924,12 +17060,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="109" priority="400">
+    <cfRule type="expression" dxfId="100" priority="404">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="391">
+    <cfRule type="dataBar" priority="395">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17943,12 +17079,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="108" priority="392">
+    <cfRule type="expression" dxfId="99" priority="396">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="383">
+    <cfRule type="dataBar" priority="387">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17962,12 +17098,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="107" priority="384">
+    <cfRule type="expression" dxfId="98" priority="388">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="381">
+    <cfRule type="dataBar" priority="385">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17981,12 +17117,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="106" priority="382">
+    <cfRule type="expression" dxfId="97" priority="386">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="379">
+    <cfRule type="dataBar" priority="383">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18000,12 +17136,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="105" priority="380">
+    <cfRule type="expression" dxfId="96" priority="384">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="377">
+    <cfRule type="dataBar" priority="381">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18019,12 +17155,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="104" priority="378">
+    <cfRule type="expression" dxfId="95" priority="382">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="375">
+    <cfRule type="dataBar" priority="379">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18038,12 +17174,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="103" priority="376">
+    <cfRule type="expression" dxfId="94" priority="380">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="373">
+    <cfRule type="dataBar" priority="377">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18057,12 +17193,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="102" priority="374">
+    <cfRule type="expression" dxfId="93" priority="378">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="371">
+    <cfRule type="dataBar" priority="375">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18076,12 +17212,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="101" priority="372">
+    <cfRule type="expression" dxfId="92" priority="376">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="369">
+    <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18095,164 +17231,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="100" priority="370">
+    <cfRule type="expression" dxfId="91" priority="374">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="365">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF3D1171-AAD9-4A81-9FF2-89BD092E8E78}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="99" priority="366">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="363">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{126184B3-9B8E-407D-9F7B-8F1560C94771}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="98" priority="364">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="361">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{442AAC86-D81C-4A8A-B32A-1AD72001A2B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="97" priority="362">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="359">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CBBA5DEE-74AB-4BBB-853B-4405E5B2C28E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="96" priority="360">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="357">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0CEA2835-D49E-41D7-94DF-D66E0462530B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="95" priority="358">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="355">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A4087353-1D8E-4BCA-A04D-7AD5B7A487BB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="94" priority="356">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="353">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4C46ECAF-E694-4D98-A140-DDAEB22687FA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="93" priority="354">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H16">
     <cfRule type="dataBar" priority="351">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{184CCE70-C594-4CE9-B753-B1553AF27871}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="92" priority="352">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="347">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18266,12 +17250,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="91" priority="348">
+    <cfRule type="expression" dxfId="90" priority="352">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="343">
+    <cfRule type="dataBar" priority="347">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18285,12 +17269,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="90" priority="344">
+    <cfRule type="expression" dxfId="89" priority="348">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="335">
+    <cfRule type="dataBar" priority="339">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18304,12 +17288,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="89" priority="336">
+    <cfRule type="expression" dxfId="88" priority="340">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="331">
+    <cfRule type="dataBar" priority="335">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18323,12 +17307,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="88" priority="332">
+    <cfRule type="expression" dxfId="87" priority="336">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="327">
+    <cfRule type="dataBar" priority="331">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18342,12 +17326,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="87" priority="328">
+    <cfRule type="expression" dxfId="86" priority="332">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="323">
+    <cfRule type="dataBar" priority="327">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18361,12 +17345,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="86" priority="324">
+    <cfRule type="expression" dxfId="85" priority="328">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="315">
+    <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18380,12 +17364,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="85" priority="316">
+    <cfRule type="expression" dxfId="84" priority="320">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="311">
+    <cfRule type="dataBar" priority="315">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18399,12 +17383,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="84" priority="312">
+    <cfRule type="expression" dxfId="83" priority="316">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="307">
+    <cfRule type="dataBar" priority="311">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18418,12 +17402,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="83" priority="308">
+    <cfRule type="expression" dxfId="82" priority="312">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="303">
+    <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18437,12 +17421,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="82" priority="304">
+    <cfRule type="expression" dxfId="81" priority="308">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="299">
+    <cfRule type="dataBar" priority="303">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18456,12 +17440,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="81" priority="300">
+    <cfRule type="expression" dxfId="80" priority="304">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="dataBar" priority="291">
+    <cfRule type="dataBar" priority="295">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18475,12 +17459,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="80" priority="292">
+    <cfRule type="expression" dxfId="79" priority="296">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="287">
+    <cfRule type="dataBar" priority="291">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18494,12 +17478,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="79" priority="288">
+    <cfRule type="expression" dxfId="78" priority="292">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="275">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="279">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18512,13 +17496,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="78" priority="276">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="77" priority="280">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="273">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18531,13 +17515,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="77" priority="274">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="76" priority="278">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="271">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="275">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18550,13 +17534,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="76" priority="272">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="75" priority="276">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="dataBar" priority="269">
+  <conditionalFormatting sqref="H66">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18569,13 +17553,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="75" priority="270">
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="74" priority="274">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="267">
+  <conditionalFormatting sqref="H67">
+    <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18588,13 +17572,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="74" priority="268">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="73" priority="272">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="dataBar" priority="265">
+  <conditionalFormatting sqref="H68">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18607,13 +17591,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="73" priority="266">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="72" priority="270">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="dataBar" priority="263">
+  <conditionalFormatting sqref="H69">
+    <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18626,13 +17610,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="72" priority="264">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="71" priority="268">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="dataBar" priority="261">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18645,13 +17629,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="71" priority="262">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="70" priority="266">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="dataBar" priority="257">
+  <conditionalFormatting sqref="H76">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18664,13 +17648,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="70" priority="258">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="69" priority="262">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="dataBar" priority="255">
+  <conditionalFormatting sqref="H77">
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18683,13 +17667,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="69" priority="256">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="68" priority="260">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="dataBar" priority="253">
+  <conditionalFormatting sqref="H78">
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18702,13 +17686,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="68" priority="254">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="67" priority="258">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="dataBar" priority="251">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18721,13 +17705,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="67" priority="252">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="66" priority="256">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="dataBar" priority="249">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18740,13 +17724,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="66" priority="250">
+  <conditionalFormatting sqref="K80:BN80">
+    <cfRule type="expression" dxfId="65" priority="254">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="dataBar" priority="247">
+  <conditionalFormatting sqref="H81">
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18759,13 +17743,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="65" priority="248">
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="64" priority="252">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="dataBar" priority="245">
+  <conditionalFormatting sqref="H82">
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18778,13 +17762,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="64" priority="246">
+  <conditionalFormatting sqref="K82:BN82">
+    <cfRule type="expression" dxfId="63" priority="250">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="dataBar" priority="243">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18797,13 +17781,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="63" priority="244">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="62" priority="248">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="239">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18816,13 +17800,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="62" priority="240">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="61" priority="244">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="235">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18835,13 +17819,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="61" priority="236">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="60" priority="240">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="233">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18854,13 +17838,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="60" priority="234">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="59" priority="238">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="231">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18873,13 +17857,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="59" priority="232">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="58" priority="236">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="229">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18892,13 +17876,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="58" priority="230">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="57" priority="234">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="227">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18911,13 +17895,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="57" priority="228">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="56" priority="232">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="225">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18930,13 +17914,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="56" priority="226">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="55" priority="230">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="223">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18949,13 +17933,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="55" priority="224">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="54" priority="228">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="221">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18968,13 +17952,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="54" priority="222">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="53" priority="226">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="dataBar" priority="217">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18987,13 +17971,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="53" priority="218">
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="52" priority="222">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="213">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19006,13 +17990,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="52" priority="214">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="51" priority="218">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="209">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19026,7 +18010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="205">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19040,31 +18024,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="51" priority="210">
+    <cfRule type="expression" dxfId="50" priority="214">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="49" priority="210">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
     <cfRule type="dataBar" priority="201">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6FBEF61E-D90D-4077-9900-9463C9965A58}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="50" priority="206">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19077,18 +18047,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="49" priority="202">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="48" priority="202">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="48" priority="198">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="dataBar" priority="193">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19101,13 +18066,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="47" priority="194">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="47" priority="198">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="dataBar" priority="185">
+  <conditionalFormatting sqref="H86">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19120,13 +18085,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="46" priority="186">
+  <conditionalFormatting sqref="K86:BN86">
+    <cfRule type="expression" dxfId="46" priority="190">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="dataBar" priority="177">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19139,13 +18104,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="45" priority="178">
+  <conditionalFormatting sqref="K87:BN87">
+    <cfRule type="expression" dxfId="45" priority="182">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="dataBar" priority="173">
+  <conditionalFormatting sqref="H90">
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19158,13 +18123,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="44" priority="174">
+  <conditionalFormatting sqref="K90:BN90">
+    <cfRule type="expression" dxfId="44" priority="178">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="dataBar" priority="169">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19177,13 +18142,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="43" priority="170">
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="43" priority="174">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
-    <cfRule type="dataBar" priority="167">
+  <conditionalFormatting sqref="H97">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19196,13 +18161,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="42" priority="168">
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="42" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="dataBar" priority="165">
+  <conditionalFormatting sqref="H98">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19215,13 +18180,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="41" priority="166">
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="41" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
-    <cfRule type="dataBar" priority="163">
+  <conditionalFormatting sqref="H99">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19234,13 +18199,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="40" priority="164">
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="40" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="dataBar" priority="161">
+  <conditionalFormatting sqref="H100">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19253,13 +18218,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
-    <cfRule type="expression" dxfId="39" priority="162">
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="39" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="dataBar" priority="159">
+  <conditionalFormatting sqref="H101">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19272,13 +18237,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
-    <cfRule type="expression" dxfId="38" priority="160">
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="38" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
-    <cfRule type="dataBar" priority="157">
+  <conditionalFormatting sqref="H102">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19291,13 +18256,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
-    <cfRule type="expression" dxfId="37" priority="158">
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="37" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="dataBar" priority="155">
+  <conditionalFormatting sqref="H95">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19310,13 +18275,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="36" priority="156">
+  <conditionalFormatting sqref="K95:BN95">
+    <cfRule type="expression" dxfId="36" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="dataBar" priority="153">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19329,13 +18294,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="35" priority="154">
+  <conditionalFormatting sqref="K94:BN94">
+    <cfRule type="expression" dxfId="35" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
-    <cfRule type="dataBar" priority="149">
+  <conditionalFormatting sqref="H108">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19348,13 +18313,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
-    <cfRule type="expression" dxfId="34" priority="150">
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="34" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
-    <cfRule type="dataBar" priority="147">
+  <conditionalFormatting sqref="H110">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19367,13 +18332,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
-    <cfRule type="expression" dxfId="33" priority="148">
+  <conditionalFormatting sqref="K110:BN110">
+    <cfRule type="expression" dxfId="33" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="dataBar" priority="145">
+  <conditionalFormatting sqref="H112">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19386,13 +18351,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K121:BN121">
-    <cfRule type="expression" dxfId="32" priority="146">
+  <conditionalFormatting sqref="K112:BN112">
+    <cfRule type="expression" dxfId="32" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
-    <cfRule type="dataBar" priority="143">
+  <conditionalFormatting sqref="H114">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19405,13 +18370,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K123:BN123">
-    <cfRule type="expression" dxfId="31" priority="144">
+  <conditionalFormatting sqref="K114:BN114">
+    <cfRule type="expression" dxfId="31" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="dataBar" priority="141">
+  <conditionalFormatting sqref="H116">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19424,13 +18389,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125:BN125">
-    <cfRule type="expression" dxfId="30" priority="142">
+  <conditionalFormatting sqref="K116:BN116">
+    <cfRule type="expression" dxfId="30" priority="146">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H127">
-    <cfRule type="dataBar" priority="139">
+  <conditionalFormatting sqref="H118">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19443,13 +18408,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K127:BN127">
-    <cfRule type="expression" dxfId="29" priority="140">
+  <conditionalFormatting sqref="K118:BN118">
+    <cfRule type="expression" dxfId="29" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="dataBar" priority="137">
+  <conditionalFormatting sqref="H120">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19462,13 +18427,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K129:BN129">
-    <cfRule type="expression" dxfId="28" priority="138">
+  <conditionalFormatting sqref="K120:BN120">
+    <cfRule type="expression" dxfId="28" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="dataBar" priority="135">
+  <conditionalFormatting sqref="H106">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19481,13 +18446,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
-    <cfRule type="expression" dxfId="27" priority="136">
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="27" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
-    <cfRule type="dataBar" priority="133">
+  <conditionalFormatting sqref="H104">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19500,13 +18465,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
-    <cfRule type="expression" dxfId="26" priority="134">
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="26" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="H105">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19519,13 +18484,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
-    <cfRule type="expression" dxfId="25" priority="130">
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="25" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="dataBar" priority="125">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19538,13 +18503,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
-    <cfRule type="expression" dxfId="24" priority="126">
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="24" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="dataBar" priority="121">
+  <conditionalFormatting sqref="H109">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19557,13 +18522,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
-    <cfRule type="expression" dxfId="23" priority="122">
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="23" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
-    <cfRule type="dataBar" priority="117">
+  <conditionalFormatting sqref="H111">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19576,13 +18541,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
-    <cfRule type="expression" dxfId="22" priority="118">
+  <conditionalFormatting sqref="K111:BN111">
+    <cfRule type="expression" dxfId="22" priority="122">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
-    <cfRule type="dataBar" priority="113">
+  <conditionalFormatting sqref="H113">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19595,13 +18560,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K122:BN122">
-    <cfRule type="expression" dxfId="21" priority="114">
+  <conditionalFormatting sqref="K113:BN113">
+    <cfRule type="expression" dxfId="21" priority="118">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="H115">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19614,13 +18579,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K124:BN124">
-    <cfRule type="expression" dxfId="20" priority="110">
+  <conditionalFormatting sqref="K115:BN115">
+    <cfRule type="expression" dxfId="20" priority="114">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
-    <cfRule type="dataBar" priority="105">
+  <conditionalFormatting sqref="H117">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19633,13 +18598,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K126:BN126">
-    <cfRule type="expression" dxfId="19" priority="106">
+  <conditionalFormatting sqref="K117:BN117">
+    <cfRule type="expression" dxfId="19" priority="110">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128">
-    <cfRule type="dataBar" priority="101">
+  <conditionalFormatting sqref="H119">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19652,13 +18617,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128:BN128">
-    <cfRule type="expression" dxfId="18" priority="102">
+  <conditionalFormatting sqref="K119:BN119">
+    <cfRule type="expression" dxfId="18" priority="106">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="dataBar" priority="97">
+  <conditionalFormatting sqref="H121">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19671,13 +18636,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K130:BN130">
-    <cfRule type="expression" dxfId="17" priority="98">
+  <conditionalFormatting sqref="K121:BN121">
+    <cfRule type="expression" dxfId="17" priority="102">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
-    <cfRule type="dataBar" priority="93">
+  <conditionalFormatting sqref="H123">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19690,13 +18655,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K132:BN132">
-    <cfRule type="expression" dxfId="16" priority="94">
+  <conditionalFormatting sqref="K123:BN123">
+    <cfRule type="expression" dxfId="16" priority="98">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="H124">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19709,13 +18674,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K133:BN133">
-    <cfRule type="expression" dxfId="15" priority="90">
+  <conditionalFormatting sqref="K124:BN124">
+    <cfRule type="expression" dxfId="15" priority="94">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="H125">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19728,13 +18693,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K134:BN134">
-    <cfRule type="expression" dxfId="14" priority="86">
+  <conditionalFormatting sqref="K125:BN125">
+    <cfRule type="expression" dxfId="14" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H139">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="H130">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19747,13 +18712,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K139:BN139">
-    <cfRule type="expression" dxfId="13" priority="66">
+  <conditionalFormatting sqref="K130:BN130">
+    <cfRule type="expression" dxfId="13" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H137:H138">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="H128:H129">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19766,13 +18731,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K137:BN138">
-    <cfRule type="expression" dxfId="12" priority="70">
+  <conditionalFormatting sqref="K128:BN129">
+    <cfRule type="expression" dxfId="12" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H142">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="H133">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19785,13 +18750,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K142:BN142">
-    <cfRule type="expression" dxfId="11" priority="62">
+  <conditionalFormatting sqref="K133:BN133">
+    <cfRule type="expression" dxfId="11" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H141">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="H132">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19804,13 +18769,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K141:BN141">
-    <cfRule type="expression" dxfId="10" priority="54">
+  <conditionalFormatting sqref="K132:BN132">
+    <cfRule type="expression" dxfId="10" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H144">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="H135">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19823,13 +18788,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K144:BN144">
-    <cfRule type="expression" dxfId="9" priority="50">
+  <conditionalFormatting sqref="K135:BN135">
+    <cfRule type="expression" dxfId="9" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19843,12 +18808,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="8" priority="46">
+    <cfRule type="expression" dxfId="8" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19862,12 +18827,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="7" priority="38">
+    <cfRule type="expression" dxfId="7" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19881,12 +18846,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="6" priority="34">
+    <cfRule type="expression" dxfId="6" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19899,13 +18864,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="5" priority="26">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="5" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19918,13 +18883,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="4" priority="18">
+  <conditionalFormatting sqref="K91:BN91">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="H84">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19937,13 +18902,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="3" priority="14">
+  <conditionalFormatting sqref="K84:BN84">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H85">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19956,32 +18921,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="2" priority="10">
+  <conditionalFormatting sqref="K85:BN85">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H136">
     <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D27DF644-2022-46DF-A183-9CAC94101067}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H145">
-    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19994,7 +18940,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K145:BN145">
+  <conditionalFormatting sqref="K136:BN136">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6958FB69-6ED8-4018-9699-8A7BDC8E2C44}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -20009,8 +18974,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E57 E97 G57:H57 H112 H82 H68 H78 H98 H101:H102 H97" unlockedFormula="1"/>
-    <ignoredError sqref="A97 A57" formula="1"/>
+    <ignoredError sqref="E49 E88 G49:H49 H103 H73 H60 H70 H89 H92:H93 H88" unlockedFormula="1"/>
+    <ignoredError sqref="A88 A49" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -20058,7 +19023,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H47 H57 H92 H68 H82 H97:H98 H78 H101:H102 H112 H131</xm:sqref>
+          <xm:sqref>H8:H9 H47 H49 H83 H60 H73 H88:H89 H70 H92:H93 H103 H122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B2163715-8EBF-4ECA-9D50-501563E55A4B}">
@@ -20073,7 +19038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H135:H136 H140 H143</xm:sqref>
+          <xm:sqref>H126:H127 H131 H134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A17471B-557C-4E65-A854-27EC1402D477}">
@@ -20361,126 +19326,6 @@
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF3D1171-AAD9-4A81-9FF2-89BD092E8E78}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{126184B3-9B8E-407D-9F7B-8F1560C94771}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{442AAC86-D81C-4A8A-B32A-1AD72001A2B8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CBBA5DEE-74AB-4BBB-853B-4405E5B2C28E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0CEA2835-D49E-41D7-94DF-D66E0462530B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A4087353-1D8E-4BCA-A04D-7AD5B7A487BB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C46ECAF-E694-4D98-A140-DDAEB22687FA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{184CCE70-C594-4CE9-B753-B1553AF27871}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18FFBC65-A763-4D92-855F-AD1F36E9DDA2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -20688,7 +19533,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{19A2DD6D-3382-4E99-B082-A344F1D3A5D1}">
@@ -20703,7 +19548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3DAA9D83-48CE-43ED-B23F-B4B89679CD08}">
@@ -20718,10 +19563,340 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{449F95BD-8E29-4B42-98B4-4EE4D65984D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{51ABC9FB-C76A-4FFC-9865-873CA68FC741}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AE739472-CCEB-4ABA-84C2-D0C115E8B6F0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{226BE6C4-41CA-48A5-9C8B-46FE2627052E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD5ED029-0247-42C7-9376-E4AA96220959}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{80C7B214-E503-446F-AACC-ABC2A9C1AE3A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75C89A18-54AB-4F9C-A423-3153F07F081E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{685C0734-E1B8-4DB5-8876-3F2AB007A51D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B390B206-6C04-4484-8DEC-679892B47F0A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H79</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0291B26D-894E-4558-B409-F9D342525F58}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3860D0ED-25E8-4D67-9AC5-B90B1DBDF216}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H81</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3C32A98C-3B3E-4280-945A-2FFDF9045C02}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{841FAB04-B424-4D46-B949-9E23F58B7811}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15F8BCAE-DB3E-4CD2-AF98-8DEAA41E1CAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42035E71-B9B1-4461-8DE9-4CDA45C0C830}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{099EA4DC-B274-49EF-8BB9-EAAF168E7252}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DC2A762-F1D9-4614-9B29-53E40ECDAA8E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7DCCBE09-6DBB-4127-8CA6-BEEFC13B36DE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{835C87DE-EB0C-4AD9-BC8B-29FCC0885A25}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E65C0C62-B910-4D5E-8A17-86112DC96FAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0A6DE3F-732F-49A1-8768-CF61992E416A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1FE7B33-3301-4023-9F63-6C6B252B55B8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{13EDA942-BC51-4DE4-9510-7A9712676C3F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20736,7 +19911,7 @@
           <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51ABC9FB-C76A-4FFC-9865-873CA68FC741}">
+          <x14:cfRule type="dataBar" id="{4C7E1B42-A117-497E-A2A1-1C8B926D7B63}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20748,337 +19923,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AE739472-CCEB-4ABA-84C2-D0C115E8B6F0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{226BE6C4-41CA-48A5-9C8B-46FE2627052E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD5ED029-0247-42C7-9376-E4AA96220959}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80C7B214-E503-446F-AACC-ABC2A9C1AE3A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75C89A18-54AB-4F9C-A423-3153F07F081E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{685C0734-E1B8-4DB5-8876-3F2AB007A51D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B390B206-6C04-4484-8DEC-679892B47F0A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0291B26D-894E-4558-B409-F9D342525F58}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3860D0ED-25E8-4D67-9AC5-B90B1DBDF216}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C32A98C-3B3E-4280-945A-2FFDF9045C02}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{841FAB04-B424-4D46-B949-9E23F58B7811}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15F8BCAE-DB3E-4CD2-AF98-8DEAA41E1CAC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42035E71-B9B1-4461-8DE9-4CDA45C0C830}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{099EA4DC-B274-49EF-8BB9-EAAF168E7252}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DC2A762-F1D9-4614-9B29-53E40ECDAA8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7DCCBE09-6DBB-4127-8CA6-BEEFC13B36DE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{835C87DE-EB0C-4AD9-BC8B-29FCC0885A25}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E65C0C62-B910-4D5E-8A17-86112DC96FAC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0A6DE3F-732F-49A1-8768-CF61992E416A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1FE7B33-3301-4023-9F63-6C6B252B55B8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13EDA942-BC51-4DE4-9510-7A9712676C3F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C7E1B42-A117-497E-A2A1-1C8B926D7B63}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5750202C-E296-4F19-837B-1B18AB94C415}">
@@ -21111,7 +19956,7 @@
           <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6FBEF61E-D90D-4077-9900-9463C9965A58}">
+          <x14:cfRule type="dataBar" id="{3A762629-57A0-49BD-8BDF-1DF721832E28}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21123,10 +19968,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A762629-57A0-49BD-8BDF-1DF721832E28}">
+          <x14:cfRule type="dataBar" id="{6B44860F-7284-4C2B-82F1-20A024AD3D70}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21138,10 +19983,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6B44860F-7284-4C2B-82F1-20A024AD3D70}">
+          <x14:cfRule type="dataBar" id="{AB69090D-E280-4658-AEB8-6B4DA27C51A1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21153,10 +19998,145 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
+          <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB69090D-E280-4658-AEB8-6B4DA27C51A1}">
+          <x14:cfRule type="dataBar" id="{4C266898-06C6-44DA-8359-67AA8067CA6D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF3736C1-0FBD-4475-AF41-6265F6F40B9D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A56701B1-A0CD-47F2-B15A-719050781909}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{501D9318-0652-4972-9321-6A1A271008A3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H97</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C440867F-0D20-4607-8CA3-A46E7308D699}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H98</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF933B2B-34E4-4BC2-9025-E8C268A9A736}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H99</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FADD3EA2-3227-42CC-A058-DDEF0EEF6E7E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F67F867B-BCA4-43D4-955F-DFA642AD8663}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B6E178CC-D4E8-4000-9263-D5FA810DE6FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H102</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07294A54-9EE1-4C72-8F09-8E954F24127B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21171,7 +20151,7 @@
           <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C266898-06C6-44DA-8359-67AA8067CA6D}">
+          <x14:cfRule type="dataBar" id="{C40F8D2A-9E4A-42D8-B0B7-3F9E448078A6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21183,10 +20163,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF3736C1-0FBD-4475-AF41-6265F6F40B9D}">
+          <x14:cfRule type="dataBar" id="{A2CEE0E9-EFB0-4976-82D0-AACEE83165E6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21198,10 +20178,130 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
+          <xm:sqref>H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A56701B1-A0CD-47F2-B15A-719050781909}">
+          <x14:cfRule type="dataBar" id="{AE7DCA60-AB8B-4004-AC23-51C80D7C4AD9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A630620F-D47D-43F1-8D1E-E73189DE4D5D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H112</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4CB62942-71C5-42BC-91E6-9E018E99AF52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9AEBE713-85B2-4F0D-9D91-D7777BC5EA49}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09C81860-2826-498E-842F-74131CF94BCD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H118</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1B4B95D-5672-4252-ADC2-738702B5D71B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H120</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1678B17A-E03B-4DE4-A738-FD5C4B362F97}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{64E01FD5-A9A6-4690-AEFE-9638888937C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7E24DB83-EC9C-4EC0-B0EB-BED2123D9D98}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21216,22 +20316,7 @@
           <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{501D9318-0652-4972-9321-6A1A271008A3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C440867F-0D20-4607-8CA3-A46E7308D699}">
+          <x14:cfRule type="dataBar" id="{6CFF17CD-3DC6-4792-BC26-4C59955E92AA}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21246,22 +20331,7 @@
           <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF933B2B-34E4-4BC2-9025-E8C268A9A736}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FADD3EA2-3227-42CC-A058-DDEF0EEF6E7E}">
+          <x14:cfRule type="dataBar" id="{697A1C6E-F654-4059-8CB0-495C5A850982}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21276,22 +20346,7 @@
           <xm:sqref>H109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F67F867B-BCA4-43D4-955F-DFA642AD8663}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H110</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6E178CC-D4E8-4000-9263-D5FA810DE6FE}">
+          <x14:cfRule type="dataBar" id="{84A71BC0-6639-4E23-BBFE-B8AE13ABDFA9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21306,7 +20361,7 @@
           <xm:sqref>H111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{07294A54-9EE1-4C72-8F09-8E954F24127B}">
+          <x14:cfRule type="dataBar" id="{49124A96-F6F8-4ADE-A591-784C88182E41}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21318,10 +20373,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
+          <xm:sqref>H113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C40F8D2A-9E4A-42D8-B0B7-3F9E448078A6}">
+          <x14:cfRule type="dataBar" id="{18BA52E5-B553-46E1-A0B8-DEBD1186DA8E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21333,10 +20388,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H103</xm:sqref>
+          <xm:sqref>H115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2CEE0E9-EFB0-4976-82D0-AACEE83165E6}">
+          <x14:cfRule type="dataBar" id="{DEB30DF3-D251-4E6D-A733-C0B469B7215E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21351,7 +20406,7 @@
           <xm:sqref>H117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AE7DCA60-AB8B-4004-AC23-51C80D7C4AD9}">
+          <x14:cfRule type="dataBar" id="{3A95CEAC-51BE-4753-ADBA-EDCDCC042E0D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21366,7 +20421,7 @@
           <xm:sqref>H119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A630620F-D47D-43F1-8D1E-E73189DE4D5D}">
+          <x14:cfRule type="dataBar" id="{DAA9E4AA-1424-4CB5-B893-FE3BFEF5F846}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21381,7 +20436,7 @@
           <xm:sqref>H121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4CB62942-71C5-42BC-91E6-9E018E99AF52}">
+          <x14:cfRule type="dataBar" id="{ABFABFE9-AD74-4534-AB9F-B240CE24B317}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21396,7 +20451,22 @@
           <xm:sqref>H123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9AEBE713-85B2-4F0D-9D91-D7777BC5EA49}">
+          <x14:cfRule type="dataBar" id="{96F6C1B6-C953-41B2-B796-3B21133EE235}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H124</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F9F0CC17-E959-446D-BADB-B3D8762306A6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21411,187 +20481,7 @@
           <xm:sqref>H125</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{09C81860-2826-498E-842F-74131CF94BCD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H127</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1B4B95D-5672-4252-ADC2-738702B5D71B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H129</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1678B17A-E03B-4DE4-A738-FD5C4B362F97}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64E01FD5-A9A6-4690-AEFE-9638888937C5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E24DB83-EC9C-4EC0-B0EB-BED2123D9D98}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6CFF17CD-3DC6-4792-BC26-4C59955E92AA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{697A1C6E-F654-4059-8CB0-495C5A850982}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H118</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84A71BC0-6639-4E23-BBFE-B8AE13ABDFA9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H120</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49124A96-F6F8-4ADE-A591-784C88182E41}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H122</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18BA52E5-B553-46E1-A0B8-DEBD1186DA8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DEB30DF3-D251-4E6D-A733-C0B469B7215E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H126</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A95CEAC-51BE-4753-ADBA-EDCDCC042E0D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H128</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAA9E4AA-1424-4CB5-B893-FE3BFEF5F846}">
+          <x14:cfRule type="dataBar" id="{107CE8E3-1C76-498B-AC05-D52F04A4E749}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21606,7 +20496,37 @@
           <xm:sqref>H130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABFABFE9-AD74-4534-AB9F-B240CE24B317}">
+          <x14:cfRule type="dataBar" id="{0EA6EB24-3A3A-4DC0-9523-AA0EA5D6BD37}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H128:H129</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{213007D5-B229-4D63-82AB-A5E8D3DB9021}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H133</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA0FBEAC-E070-4FEE-A486-8434701F9C3D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21621,7 +20541,7 @@
           <xm:sqref>H132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96F6C1B6-C953-41B2-B796-3B21133EE235}">
+          <x14:cfRule type="dataBar" id="{ECE9105D-AFF4-479D-BCA2-328CF70580A2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21633,97 +20553,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H133</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F9F0CC17-E959-446D-BADB-B3D8762306A6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H134</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{107CE8E3-1C76-498B-AC05-D52F04A4E749}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H139</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0EA6EB24-3A3A-4DC0-9523-AA0EA5D6BD37}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H137:H138</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{213007D5-B229-4D63-82AB-A5E8D3DB9021}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H142</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA0FBEAC-E070-4FEE-A486-8434701F9C3D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H141</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ECE9105D-AFF4-479D-BCA2-328CF70580A2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H144</xm:sqref>
+          <xm:sqref>H135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C89024CD-84DC-4471-9609-167084AE8F0E}">
@@ -21783,7 +20613,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9126A156-0AFB-400A-A726-62DDE7C4DB26}">
@@ -21798,7 +20628,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H100</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8DBF7D6-CE8D-4AFA-B141-B28C3E900945}">
@@ -21813,7 +20643,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
+          <xm:sqref>H84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2883FA23-26DA-45E3-AB06-63646B2B8604}">
@@ -21828,10 +20658,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D27DF644-2022-46DF-A183-9CAC94101067}">
+          <x14:cfRule type="dataBar" id="{F0E4E7F1-E777-4F7C-9E55-B3A6471A7711}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21843,10 +20673,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H136</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F0E4E7F1-E777-4F7C-9E55-B3A6471A7711}">
+          <x14:cfRule type="dataBar" id="{6958FB69-6ED8-4018-9699-8A7BDC8E2C44}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -21858,7 +20688,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H145</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/HTCS5607 - Gantt Chart.xlsx
+++ b/HTCS5607 - Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharish\Documents\unitec\HTCS5607 IS Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5528A1-46A3-4C01-822E-925DE36AE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1742E-92E3-4C66-9898-9BB4C237F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$127</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$126</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="235">
   <si>
     <t>WBS</t>
   </si>
@@ -3022,13 +3022,6 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3038,10 +3031,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3050,6 +3039,17 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3101,19 +3101,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="115">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="114">
     <dxf>
       <border>
         <left style="thin">
@@ -5214,11 +5202,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN137"/>
+  <dimension ref="A1:BN136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5246,29 +5234,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="102"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -5313,11 +5301,11 @@
       <c r="B4" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="141">
         <v>44459</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="83"/>
       <c r="G4" s="86" t="s">
         <v>68</v>
@@ -5327,182 +5315,182 @@
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="135" t="str">
+      <c r="K4" s="133" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="135" t="str">
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="133" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135" t="str">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="133" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="135" t="str">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="135" t="str">
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="133" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="135" t="str">
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="133" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="135" t="str">
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="133" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="137"/>
-      <c r="BH4" s="135" t="str">
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="135"/>
+      <c r="BH4" s="133" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="137"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="135"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82"/>
       <c r="B5" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="85"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="139">
+      <c r="K5" s="136">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="139">
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="136">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="139">
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="136">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="139">
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="139">
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="136">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="140"/>
-      <c r="AO5" s="140"/>
-      <c r="AP5" s="140"/>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="139">
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="136">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="140"/>
-      <c r="AV5" s="140"/>
-      <c r="AW5" s="140"/>
-      <c r="AX5" s="140"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="139">
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="136">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="140"/>
-      <c r="BC5" s="140"/>
-      <c r="BD5" s="140"/>
-      <c r="BE5" s="140"/>
-      <c r="BF5" s="140"/>
-      <c r="BG5" s="141"/>
-      <c r="BH5" s="139">
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="136">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="140"/>
-      <c r="BJ5" s="140"/>
-      <c r="BK5" s="140"/>
-      <c r="BL5" s="140"/>
-      <c r="BM5" s="140"/>
-      <c r="BN5" s="141"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="138"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -6012,7 +6000,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I122" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I121" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -6075,7 +6063,7 @@
     </row>
     <row r="9" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="str">
-        <f t="shared" ref="A9:A47" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A46" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="98" t="s">
@@ -7589,7 +7577,7 @@
         <v>44466</v>
       </c>
       <c r="F27" s="76">
-        <f t="shared" ref="F27:F28" si="16">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <f t="shared" ref="F27" si="16">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
         <v>44470</v>
       </c>
       <c r="G27" s="58">
@@ -7599,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="60">
-        <f t="shared" ref="I27:I28" si="17">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
+        <f t="shared" ref="I27" si="17">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
         <v>5</v>
       </c>
       <c r="J27" s="73"/>
@@ -7662,18 +7650,18 @@
     </row>
     <row r="28" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="str">
-        <f t="shared" ref="A28:A36" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A28:A35" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="75">
         <v>44466</v>
       </c>
       <c r="F28" s="76">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F28:F121" si="19">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
         <v>44470</v>
       </c>
       <c r="G28" s="58">
@@ -7683,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J28" s="73"/>
@@ -7750,14 +7738,14 @@
         <v>3.2.2</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="75">
         <v>44466</v>
       </c>
       <c r="F29" s="76">
-        <f t="shared" ref="F29:F122" si="19">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <f t="shared" si="19"/>
         <v>44470</v>
       </c>
       <c r="G29" s="58">
@@ -7834,7 +7822,7 @@
         <v>3.2.3</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="75">
@@ -7918,7 +7906,7 @@
         <v>3.2.4</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="75">
@@ -8002,7 +7990,7 @@
         <v>3.2.5</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="75">
@@ -8086,7 +8074,7 @@
         <v>3.2.6</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="75">
@@ -8170,7 +8158,7 @@
         <v>3.2.7</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="75">
@@ -8254,7 +8242,7 @@
         <v>3.2.8</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="75">
@@ -8334,18 +8322,18 @@
     </row>
     <row r="36" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.9</v>
-      </c>
-      <c r="B36" s="100" t="s">
-        <v>166</v>
+        <f t="shared" si="5"/>
+        <v>3.3</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>138</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="75">
         <v>44466</v>
       </c>
       <c r="F36" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F36:F45" si="20">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v>44470</v>
       </c>
       <c r="G36" s="58">
@@ -8355,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I36:I45" si="21">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>5</v>
       </c>
       <c r="J36" s="73"/>
@@ -8418,18 +8406,18 @@
     </row>
     <row r="37" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>138</v>
+        <f t="shared" ref="A37:A45" si="22">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>188</v>
       </c>
       <c r="D37" s="99"/>
       <c r="E37" s="75">
         <v>44466</v>
       </c>
       <c r="F37" s="76">
-        <f t="shared" ref="F37:F46" si="20">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <f t="shared" si="20"/>
         <v>44470</v>
       </c>
       <c r="G37" s="58">
@@ -8439,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="60">
-        <f t="shared" ref="I37:I46" si="21">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="J37" s="73"/>
@@ -8502,11 +8490,11 @@
     </row>
     <row r="38" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="str">
-        <f t="shared" ref="A38:A46" si="22">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.1</v>
+        <f t="shared" si="22"/>
+        <v>3.3.2</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D38" s="99"/>
       <c r="E38" s="75">
@@ -8587,10 +8575,10 @@
     <row r="39" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.2</v>
+        <v>3.3.3</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D39" s="99"/>
       <c r="E39" s="75">
@@ -8671,10 +8659,10 @@
     <row r="40" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.3</v>
+        <v>3.3.4</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" s="99"/>
       <c r="E40" s="75">
@@ -8755,10 +8743,10 @@
     <row r="41" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.4</v>
+        <v>3.3.5</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="75">
@@ -8839,10 +8827,10 @@
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.5</v>
+        <v>3.3.6</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D42" s="99"/>
       <c r="E42" s="75">
@@ -8923,10 +8911,10 @@
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.6</v>
+        <v>3.3.7</v>
       </c>
       <c r="B43" s="100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="75">
@@ -9007,10 +8995,10 @@
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.7</v>
+        <v>3.3.8</v>
       </c>
       <c r="B44" s="100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D44" s="99"/>
       <c r="E44" s="75">
@@ -9091,10 +9079,10 @@
     <row r="45" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>3.3.8</v>
+        <v>3.3.9</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="75">
@@ -9174,18 +9162,18 @@
     </row>
     <row r="46" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.9</v>
-      </c>
-      <c r="B46" s="100" t="s">
-        <v>174</v>
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="B46" s="98" t="s">
+        <v>234</v>
       </c>
       <c r="D46" s="99"/>
       <c r="E46" s="75">
         <v>44466</v>
       </c>
       <c r="F46" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>44470</v>
       </c>
       <c r="G46" s="58">
@@ -9195,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J46" s="73"/>
@@ -9258,34 +9246,34 @@
     </row>
     <row r="47" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="str">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
+        <f t="shared" ref="A47" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
       </c>
       <c r="B47" s="98" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="D47" s="99"/>
       <c r="E47" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F47" s="76">
-        <f t="shared" si="19"/>
-        <v>44470</v>
+        <f>IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>44498</v>
       </c>
       <c r="G47" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H47" s="59">
         <v>0</v>
       </c>
       <c r="I47" s="60">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
+        <v>10</v>
       </c>
       <c r="J47" s="73"/>
       <c r="K47" s="79"/>
       <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
+      <c r="M47" s="80"/>
       <c r="N47" s="79"/>
       <c r="O47" s="79"/>
       <c r="P47" s="79"/>
@@ -9340,182 +9328,182 @@
       <c r="BM47" s="79"/>
       <c r="BN47" s="79"/>
     </row>
-    <row r="48" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="str">
-        <f t="shared" ref="A48" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B48" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="75">
-        <v>44487</v>
-      </c>
-      <c r="F48" s="76">
-        <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44498</v>
-      </c>
-      <c r="G48" s="58">
-        <v>12</v>
-      </c>
-      <c r="H48" s="59">
-        <v>0</v>
-      </c>
-      <c r="I48" s="60">
-        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
-        <v>10</v>
-      </c>
-      <c r="J48" s="73"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="79"/>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="79"/>
-      <c r="AF48" s="79"/>
-      <c r="AG48" s="79"/>
-      <c r="AH48" s="79"/>
-      <c r="AI48" s="79"/>
-      <c r="AJ48" s="79"/>
-      <c r="AK48" s="79"/>
-      <c r="AL48" s="79"/>
-      <c r="AM48" s="79"/>
-      <c r="AN48" s="79"/>
-      <c r="AO48" s="79"/>
-      <c r="AP48" s="79"/>
-      <c r="AQ48" s="79"/>
-      <c r="AR48" s="79"/>
-      <c r="AS48" s="79"/>
-      <c r="AT48" s="79"/>
-      <c r="AU48" s="79"/>
-      <c r="AV48" s="79"/>
-      <c r="AW48" s="79"/>
-      <c r="AX48" s="79"/>
-      <c r="AY48" s="79"/>
-      <c r="AZ48" s="79"/>
-      <c r="BA48" s="79"/>
-      <c r="BB48" s="79"/>
-      <c r="BC48" s="79"/>
-      <c r="BD48" s="79"/>
-      <c r="BE48" s="79"/>
-      <c r="BF48" s="79"/>
-      <c r="BG48" s="79"/>
-      <c r="BH48" s="79"/>
-      <c r="BI48" s="79"/>
-      <c r="BJ48" s="79"/>
-      <c r="BK48" s="79"/>
-      <c r="BL48" s="79"/>
-      <c r="BM48" s="79"/>
-      <c r="BN48" s="79"/>
-    </row>
-    <row r="49" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="str">
+    <row r="48" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B48" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77" t="str">
+      <c r="D48" s="52"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55" t="str">
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J49" s="74"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
-      <c r="AA49" s="81"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="81"/>
-      <c r="AE49" s="81"/>
-      <c r="AF49" s="81"/>
-      <c r="AG49" s="81"/>
-      <c r="AH49" s="81"/>
-      <c r="AI49" s="81"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="81"/>
-      <c r="AL49" s="81"/>
-      <c r="AM49" s="81"/>
-      <c r="AN49" s="81"/>
-      <c r="AO49" s="81"/>
-      <c r="AP49" s="81"/>
-      <c r="AQ49" s="81"/>
-      <c r="AR49" s="81"/>
-      <c r="AS49" s="81"/>
-      <c r="AT49" s="81"/>
-      <c r="AU49" s="81"/>
-      <c r="AV49" s="81"/>
-      <c r="AW49" s="81"/>
-      <c r="AX49" s="81"/>
-      <c r="AY49" s="81"/>
-      <c r="AZ49" s="81"/>
-      <c r="BA49" s="81"/>
-      <c r="BB49" s="81"/>
-      <c r="BC49" s="81"/>
-      <c r="BD49" s="81"/>
-      <c r="BE49" s="81"/>
-      <c r="BF49" s="81"/>
-      <c r="BG49" s="81"/>
-      <c r="BH49" s="81"/>
-      <c r="BI49" s="81"/>
-      <c r="BJ49" s="81"/>
-      <c r="BK49" s="81"/>
-      <c r="BL49" s="81"/>
-      <c r="BM49" s="81"/>
-      <c r="BN49" s="81"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="81"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+      <c r="Z48" s="81"/>
+      <c r="AA48" s="81"/>
+      <c r="AB48" s="81"/>
+      <c r="AC48" s="81"/>
+      <c r="AD48" s="81"/>
+      <c r="AE48" s="81"/>
+      <c r="AF48" s="81"/>
+      <c r="AG48" s="81"/>
+      <c r="AH48" s="81"/>
+      <c r="AI48" s="81"/>
+      <c r="AJ48" s="81"/>
+      <c r="AK48" s="81"/>
+      <c r="AL48" s="81"/>
+      <c r="AM48" s="81"/>
+      <c r="AN48" s="81"/>
+      <c r="AO48" s="81"/>
+      <c r="AP48" s="81"/>
+      <c r="AQ48" s="81"/>
+      <c r="AR48" s="81"/>
+      <c r="AS48" s="81"/>
+      <c r="AT48" s="81"/>
+      <c r="AU48" s="81"/>
+      <c r="AV48" s="81"/>
+      <c r="AW48" s="81"/>
+      <c r="AX48" s="81"/>
+      <c r="AY48" s="81"/>
+      <c r="AZ48" s="81"/>
+      <c r="BA48" s="81"/>
+      <c r="BB48" s="81"/>
+      <c r="BC48" s="81"/>
+      <c r="BD48" s="81"/>
+      <c r="BE48" s="81"/>
+      <c r="BF48" s="81"/>
+      <c r="BG48" s="81"/>
+      <c r="BH48" s="81"/>
+      <c r="BI48" s="81"/>
+      <c r="BJ48" s="81"/>
+      <c r="BK48" s="81"/>
+      <c r="BL48" s="81"/>
+      <c r="BM48" s="81"/>
+      <c r="BN48" s="81"/>
+    </row>
+    <row r="49" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="99"/>
+      <c r="E49" s="75">
+        <v>44487</v>
+      </c>
+      <c r="F49" s="76">
+        <f t="shared" ref="F49:F58" si="24">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>44498</v>
+      </c>
+      <c r="G49" s="58">
+        <v>12</v>
+      </c>
+      <c r="H49" s="59">
+        <v>0</v>
+      </c>
+      <c r="I49" s="60">
+        <f t="shared" ref="I49:I58" si="25">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <v>10</v>
+      </c>
+      <c r="J49" s="73"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="79"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="79"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
+      <c r="AD49" s="79"/>
+      <c r="AE49" s="79"/>
+      <c r="AF49" s="79"/>
+      <c r="AG49" s="79"/>
+      <c r="AH49" s="79"/>
+      <c r="AI49" s="79"/>
+      <c r="AJ49" s="79"/>
+      <c r="AK49" s="79"/>
+      <c r="AL49" s="79"/>
+      <c r="AM49" s="79"/>
+      <c r="AN49" s="79"/>
+      <c r="AO49" s="79"/>
+      <c r="AP49" s="79"/>
+      <c r="AQ49" s="79"/>
+      <c r="AR49" s="79"/>
+      <c r="AS49" s="79"/>
+      <c r="AT49" s="79"/>
+      <c r="AU49" s="79"/>
+      <c r="AV49" s="79"/>
+      <c r="AW49" s="79"/>
+      <c r="AX49" s="79"/>
+      <c r="AY49" s="79"/>
+      <c r="AZ49" s="79"/>
+      <c r="BA49" s="79"/>
+      <c r="BB49" s="79"/>
+      <c r="BC49" s="79"/>
+      <c r="BD49" s="79"/>
+      <c r="BE49" s="79"/>
+      <c r="BF49" s="79"/>
+      <c r="BG49" s="79"/>
+      <c r="BH49" s="79"/>
+      <c r="BI49" s="79"/>
+      <c r="BJ49" s="79"/>
+      <c r="BK49" s="79"/>
+      <c r="BL49" s="79"/>
+      <c r="BM49" s="79"/>
+      <c r="BN49" s="79"/>
     </row>
     <row r="50" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B50" s="98" t="s">
-        <v>183</v>
+        <f t="shared" ref="A50:A58" si="26">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.1</v>
+      </c>
+      <c r="B50" s="100" t="s">
+        <v>186</v>
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="75">
         <v>44487</v>
       </c>
       <c r="F50" s="76">
-        <f t="shared" ref="F50:F59" si="24">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
+        <f t="shared" si="24"/>
         <v>44498</v>
       </c>
       <c r="G50" s="58">
@@ -9525,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="60">
-        <f t="shared" ref="I50:I59" si="25">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="J50" s="73"/>
@@ -9588,11 +9576,11 @@
     </row>
     <row r="51" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="str">
-        <f t="shared" ref="A51:A59" si="26">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.1</v>
+        <f t="shared" si="26"/>
+        <v>4.1.2</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D51" s="99"/>
       <c r="E51" s="75">
@@ -9673,10 +9661,10 @@
     <row r="52" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.2</v>
+        <v>4.1.3</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="75">
@@ -9757,10 +9745,10 @@
     <row r="53" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.3</v>
+        <v>4.1.4</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="99"/>
       <c r="E53" s="75">
@@ -9841,10 +9829,10 @@
     <row r="54" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.4</v>
+        <v>4.1.5</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="99"/>
       <c r="E54" s="75">
@@ -9925,10 +9913,10 @@
     <row r="55" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.5</v>
+        <v>4.1.6</v>
       </c>
       <c r="B55" s="100" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="99"/>
       <c r="E55" s="75">
@@ -10009,10 +9997,10 @@
     <row r="56" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.6</v>
+        <v>4.1.7</v>
       </c>
       <c r="B56" s="100" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="99"/>
       <c r="E56" s="75">
@@ -10093,10 +10081,10 @@
     <row r="57" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.7</v>
+        <v>4.1.8</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="99"/>
       <c r="E57" s="75">
@@ -10177,10 +10165,10 @@
     <row r="58" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>4.1.8</v>
+        <v>4.1.9</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="99"/>
       <c r="E58" s="75">
@@ -10260,18 +10248,18 @@
     </row>
     <row r="59" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.9</v>
-      </c>
-      <c r="B59" s="100" t="s">
-        <v>166</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B59" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="D59" s="99"/>
       <c r="E59" s="75">
         <v>44487</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G59" s="58">
@@ -10281,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J59" s="73"/>
@@ -10344,18 +10332,18 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B60" s="98" t="s">
-        <v>155</v>
+        <f t="shared" ref="A60:A68" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
+      </c>
+      <c r="B60" s="100" t="s">
+        <v>188</v>
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="75">
         <v>44487</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F60" si="28">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
         <v>44498</v>
       </c>
       <c r="G60" s="58">
@@ -10365,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I60" si="29">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
         <v>10</v>
       </c>
       <c r="J60" s="73"/>
@@ -10428,18 +10416,18 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" ref="A61:A69" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
+        <f t="shared" si="27"/>
+        <v>4.2.2</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="75">
         <v>44487</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" ref="F61" si="28">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G61" s="58">
@@ -10449,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="60">
-        <f t="shared" ref="I61" si="29">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J61" s="73"/>
@@ -10513,10 +10501,10 @@
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.2</v>
+        <v>4.2.3</v>
       </c>
       <c r="B62" s="100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="75">
@@ -10597,10 +10585,10 @@
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.3</v>
+        <v>4.2.4</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D63" s="99"/>
       <c r="E63" s="75">
@@ -10681,10 +10669,10 @@
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.4</v>
+        <v>4.2.5</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D64" s="99"/>
       <c r="E64" s="75">
@@ -10765,10 +10753,10 @@
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.5</v>
+        <v>4.2.6</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D65" s="99"/>
       <c r="E65" s="75">
@@ -10849,10 +10837,10 @@
     <row r="66" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.6</v>
+        <v>4.2.7</v>
       </c>
       <c r="B66" s="100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D66" s="99"/>
       <c r="E66" s="75">
@@ -10933,10 +10921,10 @@
     <row r="67" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.7</v>
+        <v>4.2.8</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D67" s="99"/>
       <c r="E67" s="75">
@@ -11017,10 +11005,10 @@
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
         <f t="shared" si="27"/>
-        <v>4.2.8</v>
+        <v>4.2.9</v>
       </c>
       <c r="B68" s="100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D68" s="99"/>
       <c r="E68" s="75">
@@ -11100,11 +11088,11 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.9</v>
-      </c>
-      <c r="B69" s="100" t="s">
-        <v>174</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B69" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="75">
@@ -11184,11 +11172,11 @@
     </row>
     <row r="70" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B70" s="98" t="s">
-        <v>156</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.1</v>
+      </c>
+      <c r="B70" s="100" t="s">
+        <v>189</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="75">
@@ -11269,17 +11257,17 @@
     <row r="71" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.3.1</v>
+        <v>4.3.2</v>
       </c>
       <c r="B71" s="100" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="D71" s="99"/>
       <c r="E71" s="75">
         <v>44487</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F71" si="30">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
         <v>44498</v>
       </c>
       <c r="G71" s="58">
@@ -11289,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I71" si="31">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
         <v>10</v>
       </c>
       <c r="J71" s="73"/>
@@ -11352,18 +11340,18 @@
     </row>
     <row r="72" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.3.2</v>
-      </c>
-      <c r="B72" s="100" t="s">
-        <v>229</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B72" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="D72" s="99"/>
       <c r="E72" s="75">
         <v>44487</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" ref="F72" si="30">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G72" s="58">
@@ -11373,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="60">
-        <f t="shared" ref="I72" si="31">IF(OR(F72=0,E72=0)," - ",NETWORKDAYS(E72,F72))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J72" s="73"/>
@@ -11436,11 +11424,11 @@
     </row>
     <row r="73" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B73" s="98" t="s">
-        <v>157</v>
+        <f t="shared" ref="A73:A81" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.4.1</v>
+      </c>
+      <c r="B73" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="75">
@@ -11520,18 +11508,18 @@
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f t="shared" ref="A74:A82" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.4.1</v>
+        <f t="shared" si="32"/>
+        <v>4.4.2</v>
       </c>
       <c r="B74" s="100" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D74" s="99"/>
       <c r="E74" s="75">
         <v>44487</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F74:F81" si="33">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
         <v>44498</v>
       </c>
       <c r="G74" s="58">
@@ -11541,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I74:I81" si="34">IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
         <v>10</v>
       </c>
       <c r="J74" s="73"/>
@@ -11605,17 +11593,17 @@
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.2</v>
+        <v>4.4.3</v>
       </c>
       <c r="B75" s="100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D75" s="99"/>
       <c r="E75" s="75">
         <v>44487</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" ref="F75:F82" si="33">IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G75" s="58">
@@ -11625,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="60">
-        <f t="shared" ref="I75:I82" si="34">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J75" s="73"/>
@@ -11689,10 +11677,10 @@
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.3</v>
+        <v>4.4.4</v>
       </c>
       <c r="B76" s="100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D76" s="99"/>
       <c r="E76" s="75">
@@ -11773,10 +11761,10 @@
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.4</v>
+        <v>4.4.5</v>
       </c>
       <c r="B77" s="100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D77" s="99"/>
       <c r="E77" s="75">
@@ -11857,10 +11845,10 @@
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.5</v>
+        <v>4.4.6</v>
       </c>
       <c r="B78" s="100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D78" s="99"/>
       <c r="E78" s="75">
@@ -11941,10 +11929,10 @@
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.6</v>
+        <v>4.4.7</v>
       </c>
       <c r="B79" s="100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="75">
@@ -12025,10 +12013,10 @@
     <row r="80" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.7</v>
+        <v>4.4.8</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D80" s="99"/>
       <c r="E80" s="75">
@@ -12109,10 +12097,10 @@
     <row r="81" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
         <f t="shared" si="32"/>
-        <v>4.4.8</v>
+        <v>4.4.9</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D81" s="99"/>
       <c r="E81" s="75">
@@ -12192,18 +12180,18 @@
     </row>
     <row r="82" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.9</v>
-      </c>
-      <c r="B82" s="100" t="s">
-        <v>182</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B82" s="98" t="s">
+        <v>158</v>
       </c>
       <c r="D82" s="99"/>
       <c r="E82" s="75">
         <v>44487</v>
       </c>
       <c r="F82" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>44498</v>
       </c>
       <c r="G82" s="58">
@@ -12213,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J82" s="73"/>
@@ -12276,18 +12264,18 @@
     </row>
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B83" s="98" t="s">
-        <v>158</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.5.1</v>
+      </c>
+      <c r="B83" s="100" t="s">
+        <v>231</v>
       </c>
       <c r="D83" s="99"/>
       <c r="E83" s="75">
         <v>44487</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F83:F84" si="35">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
         <v>44498</v>
       </c>
       <c r="G83" s="58">
@@ -12297,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I83:I84" si="36">IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
         <v>10</v>
       </c>
       <c r="J83" s="73"/>
@@ -12361,17 +12349,17 @@
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.5.1</v>
+        <v>4.5.2</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="99"/>
       <c r="E84" s="75">
         <v>44487</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" ref="F84:F85" si="35">IF(ISBLANK(E84)," - ",IF(G84=0,E84,E84+G84-1))</f>
+        <f t="shared" si="35"/>
         <v>44498</v>
       </c>
       <c r="G84" s="58">
@@ -12381,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="60">
-        <f t="shared" ref="I84:I85" si="36">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="J84" s="73"/>
@@ -12444,18 +12432,18 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.5.2</v>
-      </c>
-      <c r="B85" s="100" t="s">
-        <v>232</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.6</v>
+      </c>
+      <c r="B85" s="98" t="s">
+        <v>194</v>
       </c>
       <c r="D85" s="99"/>
       <c r="E85" s="75">
         <v>44487</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="F85:F86" si="37">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
         <v>44498</v>
       </c>
       <c r="G85" s="58">
@@ -12465,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I85:I86" si="38">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
         <v>10</v>
       </c>
       <c r="J85" s="73"/>
@@ -12528,18 +12516,18 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.6</v>
-      </c>
-      <c r="B86" s="98" t="s">
-        <v>194</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.6.1</v>
+      </c>
+      <c r="B86" s="100" t="s">
+        <v>195</v>
       </c>
       <c r="D86" s="99"/>
       <c r="E86" s="75">
         <v>44487</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" ref="F86:F87" si="37">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
+        <f t="shared" si="37"/>
         <v>44498</v>
       </c>
       <c r="G86" s="58">
@@ -12549,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="60">
-        <f t="shared" ref="I86:I87" si="38">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="J86" s="73"/>
@@ -12610,175 +12598,175 @@
       <c r="BM86" s="79"/>
       <c r="BN86" s="79"/>
     </row>
-    <row r="87" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.6.1</v>
-      </c>
-      <c r="B87" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="99"/>
-      <c r="E87" s="75">
-        <v>44487</v>
-      </c>
-      <c r="F87" s="76">
-        <f t="shared" si="37"/>
-        <v>44498</v>
-      </c>
-      <c r="G87" s="58">
-        <v>12</v>
-      </c>
-      <c r="H87" s="59">
-        <v>0</v>
-      </c>
-      <c r="I87" s="60">
-        <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="J87" s="73"/>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="79"/>
-      <c r="N87" s="79"/>
-      <c r="O87" s="79"/>
-      <c r="P87" s="79"/>
-      <c r="Q87" s="79"/>
-      <c r="R87" s="79"/>
-      <c r="S87" s="79"/>
-      <c r="T87" s="79"/>
-      <c r="U87" s="79"/>
-      <c r="V87" s="79"/>
-      <c r="W87" s="79"/>
-      <c r="X87" s="79"/>
-      <c r="Y87" s="79"/>
-      <c r="Z87" s="79"/>
-      <c r="AA87" s="79"/>
-      <c r="AB87" s="79"/>
-      <c r="AC87" s="79"/>
-      <c r="AD87" s="79"/>
-      <c r="AE87" s="79"/>
-      <c r="AF87" s="79"/>
-      <c r="AG87" s="79"/>
-      <c r="AH87" s="79"/>
-      <c r="AI87" s="79"/>
-      <c r="AJ87" s="79"/>
-      <c r="AK87" s="79"/>
-      <c r="AL87" s="79"/>
-      <c r="AM87" s="79"/>
-      <c r="AN87" s="79"/>
-      <c r="AO87" s="79"/>
-      <c r="AP87" s="79"/>
-      <c r="AQ87" s="79"/>
-      <c r="AR87" s="79"/>
-      <c r="AS87" s="79"/>
-      <c r="AT87" s="79"/>
-      <c r="AU87" s="79"/>
-      <c r="AV87" s="79"/>
-      <c r="AW87" s="79"/>
-      <c r="AX87" s="79"/>
-      <c r="AY87" s="79"/>
-      <c r="AZ87" s="79"/>
-      <c r="BA87" s="79"/>
-      <c r="BB87" s="79"/>
-      <c r="BC87" s="79"/>
-      <c r="BD87" s="79"/>
-      <c r="BE87" s="79"/>
-      <c r="BF87" s="79"/>
-      <c r="BG87" s="79"/>
-      <c r="BH87" s="79"/>
-      <c r="BI87" s="79"/>
-      <c r="BJ87" s="79"/>
-      <c r="BK87" s="79"/>
-      <c r="BL87" s="79"/>
-      <c r="BM87" s="79"/>
-      <c r="BN87" s="79"/>
-    </row>
-    <row r="88" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="str">
+    <row r="87" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B87" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77" t="str">
+      <c r="D87" s="52"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G88" s="53"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="55" t="str">
+      <c r="G87" s="53"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J88" s="74"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="81"/>
-      <c r="M88" s="81"/>
-      <c r="N88" s="81"/>
-      <c r="O88" s="81"/>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="V88" s="81"/>
-      <c r="W88" s="81"/>
-      <c r="X88" s="81"/>
-      <c r="Y88" s="81"/>
-      <c r="Z88" s="81"/>
-      <c r="AA88" s="81"/>
-      <c r="AB88" s="81"/>
-      <c r="AC88" s="81"/>
-      <c r="AD88" s="81"/>
-      <c r="AE88" s="81"/>
-      <c r="AF88" s="81"/>
-      <c r="AG88" s="81"/>
-      <c r="AH88" s="81"/>
-      <c r="AI88" s="81"/>
-      <c r="AJ88" s="81"/>
-      <c r="AK88" s="81"/>
-      <c r="AL88" s="81"/>
-      <c r="AM88" s="81"/>
-      <c r="AN88" s="81"/>
-      <c r="AO88" s="81"/>
-      <c r="AP88" s="81"/>
-      <c r="AQ88" s="81"/>
-      <c r="AR88" s="81"/>
-      <c r="AS88" s="81"/>
-      <c r="AT88" s="81"/>
-      <c r="AU88" s="81"/>
-      <c r="AV88" s="81"/>
-      <c r="AW88" s="81"/>
-      <c r="AX88" s="81"/>
-      <c r="AY88" s="81"/>
-      <c r="AZ88" s="81"/>
-      <c r="BA88" s="81"/>
-      <c r="BB88" s="81"/>
-      <c r="BC88" s="81"/>
-      <c r="BD88" s="81"/>
-      <c r="BE88" s="81"/>
-      <c r="BF88" s="81"/>
-      <c r="BG88" s="81"/>
-      <c r="BH88" s="81"/>
-      <c r="BI88" s="81"/>
-      <c r="BJ88" s="81"/>
-      <c r="BK88" s="81"/>
-      <c r="BL88" s="81"/>
-      <c r="BM88" s="81"/>
-      <c r="BN88" s="81"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="81"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="81"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="81"/>
+      <c r="AB87" s="81"/>
+      <c r="AC87" s="81"/>
+      <c r="AD87" s="81"/>
+      <c r="AE87" s="81"/>
+      <c r="AF87" s="81"/>
+      <c r="AG87" s="81"/>
+      <c r="AH87" s="81"/>
+      <c r="AI87" s="81"/>
+      <c r="AJ87" s="81"/>
+      <c r="AK87" s="81"/>
+      <c r="AL87" s="81"/>
+      <c r="AM87" s="81"/>
+      <c r="AN87" s="81"/>
+      <c r="AO87" s="81"/>
+      <c r="AP87" s="81"/>
+      <c r="AQ87" s="81"/>
+      <c r="AR87" s="81"/>
+      <c r="AS87" s="81"/>
+      <c r="AT87" s="81"/>
+      <c r="AU87" s="81"/>
+      <c r="AV87" s="81"/>
+      <c r="AW87" s="81"/>
+      <c r="AX87" s="81"/>
+      <c r="AY87" s="81"/>
+      <c r="AZ87" s="81"/>
+      <c r="BA87" s="81"/>
+      <c r="BB87" s="81"/>
+      <c r="BC87" s="81"/>
+      <c r="BD87" s="81"/>
+      <c r="BE87" s="81"/>
+      <c r="BF87" s="81"/>
+      <c r="BG87" s="81"/>
+      <c r="BH87" s="81"/>
+      <c r="BI87" s="81"/>
+      <c r="BJ87" s="81"/>
+      <c r="BK87" s="81"/>
+      <c r="BL87" s="81"/>
+      <c r="BM87" s="81"/>
+      <c r="BN87" s="81"/>
+    </row>
+    <row r="88" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B88" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="99"/>
+      <c r="E88" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F88" s="76">
+        <f t="shared" si="19"/>
+        <v>44512</v>
+      </c>
+      <c r="G88" s="58">
+        <v>12</v>
+      </c>
+      <c r="H88" s="59">
+        <v>0</v>
+      </c>
+      <c r="I88" s="60">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J88" s="73"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="79"/>
+      <c r="P88" s="79"/>
+      <c r="Q88" s="79"/>
+      <c r="R88" s="79"/>
+      <c r="S88" s="79"/>
+      <c r="T88" s="79"/>
+      <c r="U88" s="79"/>
+      <c r="V88" s="79"/>
+      <c r="W88" s="79"/>
+      <c r="X88" s="79"/>
+      <c r="Y88" s="79"/>
+      <c r="Z88" s="79"/>
+      <c r="AA88" s="79"/>
+      <c r="AB88" s="79"/>
+      <c r="AC88" s="79"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="79"/>
+      <c r="AF88" s="79"/>
+      <c r="AG88" s="79"/>
+      <c r="AH88" s="79"/>
+      <c r="AI88" s="79"/>
+      <c r="AJ88" s="79"/>
+      <c r="AK88" s="79"/>
+      <c r="AL88" s="79"/>
+      <c r="AM88" s="79"/>
+      <c r="AN88" s="79"/>
+      <c r="AO88" s="79"/>
+      <c r="AP88" s="79"/>
+      <c r="AQ88" s="79"/>
+      <c r="AR88" s="79"/>
+      <c r="AS88" s="79"/>
+      <c r="AT88" s="79"/>
+      <c r="AU88" s="79"/>
+      <c r="AV88" s="79"/>
+      <c r="AW88" s="79"/>
+      <c r="AX88" s="79"/>
+      <c r="AY88" s="79"/>
+      <c r="AZ88" s="79"/>
+      <c r="BA88" s="79"/>
+      <c r="BB88" s="79"/>
+      <c r="BC88" s="79"/>
+      <c r="BD88" s="79"/>
+      <c r="BE88" s="79"/>
+      <c r="BF88" s="79"/>
+      <c r="BG88" s="79"/>
+      <c r="BH88" s="79"/>
+      <c r="BI88" s="79"/>
+      <c r="BJ88" s="79"/>
+      <c r="BK88" s="79"/>
+      <c r="BL88" s="79"/>
+      <c r="BM88" s="79"/>
+      <c r="BN88" s="79"/>
     </row>
     <row r="89" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B89" s="98" t="s">
-        <v>184</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.1.1</v>
+      </c>
+      <c r="B89" s="100" t="s">
+        <v>197</v>
       </c>
       <c r="D89" s="99"/>
       <c r="E89" s="75">
@@ -12859,17 +12847,17 @@
     <row r="90" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.1</v>
+        <v>5.1.2</v>
       </c>
       <c r="B90" s="100" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="D90" s="99"/>
       <c r="E90" s="75">
         <v>44501</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F90" si="39">IF(ISBLANK(E90)," - ",IF(G90=0,E90,E90+G90-1))</f>
         <v>44512</v>
       </c>
       <c r="G90" s="58">
@@ -12879,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I90" si="40">IF(OR(F90=0,E90=0)," - ",NETWORKDAYS(E90,F90))</f>
         <v>10</v>
       </c>
       <c r="J90" s="73"/>
@@ -12942,18 +12930,18 @@
     </row>
     <row r="91" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.2</v>
-      </c>
-      <c r="B91" s="100" t="s">
-        <v>230</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B91" s="98" t="s">
+        <v>185</v>
       </c>
       <c r="D91" s="99"/>
       <c r="E91" s="75">
         <v>44501</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" ref="F91" si="39">IF(ISBLANK(E91)," - ",IF(G91=0,E91,E91+G91-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G91" s="58">
@@ -12963,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="60">
-        <f t="shared" ref="I91" si="40">IF(OR(F91=0,E91=0)," - ",NETWORKDAYS(E91,F91))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J91" s="73"/>
@@ -13027,10 +13015,10 @@
     <row r="92" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D92" s="99"/>
       <c r="E92" s="75">
@@ -13110,18 +13098,18 @@
     </row>
     <row r="93" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B93" s="98" t="s">
-        <v>190</v>
+        <f t="shared" ref="A93:A120" si="41">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.3.1</v>
+      </c>
+      <c r="B93" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="D93" s="99"/>
       <c r="E93" s="75">
         <v>44501</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F93:F101" si="42">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
         <v>44512</v>
       </c>
       <c r="G93" s="58">
@@ -13131,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I93:I101" si="43">IF(OR(F93=0,E93=0)," - ",NETWORKDAYS(E93,F93))</f>
         <v>10</v>
       </c>
       <c r="J93" s="73"/>
@@ -13194,18 +13182,18 @@
     </row>
     <row r="94" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
-        <f t="shared" ref="A94:A121" si="41">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.3.1</v>
+        <f t="shared" si="41"/>
+        <v>5.3.2</v>
       </c>
       <c r="B94" s="100" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D94" s="99"/>
       <c r="E94" s="75">
         <v>44501</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" ref="F94:F102" si="42">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
+        <f t="shared" si="42"/>
         <v>44512</v>
       </c>
       <c r="G94" s="58">
@@ -13215,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="60">
-        <f t="shared" ref="I94:I102" si="43">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="J94" s="73"/>
@@ -13279,10 +13267,10 @@
     <row r="95" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.2</v>
+        <v>5.3.3</v>
       </c>
       <c r="B95" s="100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D95" s="99"/>
       <c r="E95" s="75">
@@ -13363,10 +13351,10 @@
     <row r="96" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.3</v>
+        <v>5.3.4</v>
       </c>
       <c r="B96" s="100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D96" s="99"/>
       <c r="E96" s="75">
@@ -13447,10 +13435,10 @@
     <row r="97" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.4</v>
+        <v>5.3.5</v>
       </c>
       <c r="B97" s="100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D97" s="99"/>
       <c r="E97" s="75">
@@ -13531,10 +13519,10 @@
     <row r="98" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.5</v>
+        <v>5.3.6</v>
       </c>
       <c r="B98" s="100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D98" s="99"/>
       <c r="E98" s="75">
@@ -13615,10 +13603,10 @@
     <row r="99" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.6</v>
+        <v>5.3.7</v>
       </c>
       <c r="B99" s="100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D99" s="99"/>
       <c r="E99" s="75">
@@ -13699,10 +13687,10 @@
     <row r="100" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.7</v>
+        <v>5.3.8</v>
       </c>
       <c r="B100" s="100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D100" s="99"/>
       <c r="E100" s="75">
@@ -13783,10 +13771,10 @@
     <row r="101" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.3.8</v>
+        <v>5.3.9</v>
       </c>
       <c r="B101" s="100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D101" s="99"/>
       <c r="E101" s="75">
@@ -13866,18 +13854,18 @@
     </row>
     <row r="102" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.9</v>
-      </c>
-      <c r="B102" s="100" t="s">
-        <v>182</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
+      </c>
+      <c r="B102" s="98" t="s">
+        <v>198</v>
       </c>
       <c r="D102" s="99"/>
       <c r="E102" s="75">
         <v>44501</v>
       </c>
       <c r="F102" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G102" s="58">
@@ -13887,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J102" s="73"/>
@@ -13950,11 +13938,11 @@
     </row>
     <row r="103" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
-      </c>
-      <c r="B103" s="98" t="s">
-        <v>198</v>
+        <f t="shared" si="41"/>
+        <v>5.4.1</v>
+      </c>
+      <c r="B103" s="100" t="s">
+        <v>199</v>
       </c>
       <c r="D103" s="99"/>
       <c r="E103" s="75">
@@ -14035,17 +14023,17 @@
     <row r="104" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.1</v>
+        <v>5.4.2</v>
       </c>
       <c r="B104" s="100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D104" s="99"/>
       <c r="E104" s="75">
         <v>44501</v>
       </c>
       <c r="F104" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F104" si="44">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
         <v>44512</v>
       </c>
       <c r="G104" s="58">
@@ -14055,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I104" si="45">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
         <v>10</v>
       </c>
       <c r="J104" s="73"/>
@@ -14119,17 +14107,17 @@
     <row r="105" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.2</v>
+        <v>5.4.3</v>
       </c>
       <c r="B105" s="100" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D105" s="99"/>
       <c r="E105" s="75">
         <v>44501</v>
       </c>
       <c r="F105" s="76">
-        <f t="shared" ref="F105" si="44">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G105" s="58">
@@ -14139,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="60">
-        <f t="shared" ref="I105" si="45">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J105" s="73"/>
@@ -14203,17 +14191,17 @@
     <row r="106" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.3</v>
+        <v>5.4.4</v>
       </c>
       <c r="B106" s="100" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="75">
         <v>44501</v>
       </c>
       <c r="F106" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F106" si="46">IF(ISBLANK(E106)," - ",IF(G106=0,E106,E106+G106-1))</f>
         <v>44512</v>
       </c>
       <c r="G106" s="58">
@@ -14223,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I106" si="47">IF(OR(F106=0,E106=0)," - ",NETWORKDAYS(E106,F106))</f>
         <v>10</v>
       </c>
       <c r="J106" s="73"/>
@@ -14287,17 +14275,17 @@
     <row r="107" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.4</v>
+        <v>5.4.5</v>
       </c>
       <c r="B107" s="100" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D107" s="99"/>
       <c r="E107" s="75">
         <v>44501</v>
       </c>
       <c r="F107" s="76">
-        <f t="shared" ref="F107" si="46">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G107" s="58">
@@ -14307,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="60">
-        <f t="shared" ref="I107" si="47">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J107" s="73"/>
@@ -14371,17 +14359,17 @@
     <row r="108" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.5</v>
+        <v>5.4.6</v>
       </c>
       <c r="B108" s="100" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D108" s="99"/>
       <c r="E108" s="75">
         <v>44501</v>
       </c>
       <c r="F108" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F108" si="48">IF(ISBLANK(E108)," - ",IF(G108=0,E108,E108+G108-1))</f>
         <v>44512</v>
       </c>
       <c r="G108" s="58">
@@ -14391,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I108" si="49">IF(OR(F108=0,E108=0)," - ",NETWORKDAYS(E108,F108))</f>
         <v>10</v>
       </c>
       <c r="J108" s="73"/>
@@ -14455,17 +14443,17 @@
     <row r="109" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.6</v>
+        <v>5.4.7</v>
       </c>
       <c r="B109" s="100" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D109" s="99"/>
       <c r="E109" s="75">
         <v>44501</v>
       </c>
       <c r="F109" s="76">
-        <f t="shared" ref="F109" si="48">IF(ISBLANK(E109)," - ",IF(G109=0,E109,E109+G109-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G109" s="58">
@@ -14475,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="60">
-        <f t="shared" ref="I109" si="49">IF(OR(F109=0,E109=0)," - ",NETWORKDAYS(E109,F109))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J109" s="73"/>
@@ -14539,17 +14527,17 @@
     <row r="110" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.7</v>
+        <v>5.4.8</v>
       </c>
       <c r="B110" s="100" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D110" s="99"/>
       <c r="E110" s="75">
         <v>44501</v>
       </c>
       <c r="F110" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F110" si="50">IF(ISBLANK(E110)," - ",IF(G110=0,E110,E110+G110-1))</f>
         <v>44512</v>
       </c>
       <c r="G110" s="58">
@@ -14559,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I110" si="51">IF(OR(F110=0,E110=0)," - ",NETWORKDAYS(E110,F110))</f>
         <v>10</v>
       </c>
       <c r="J110" s="73"/>
@@ -14623,17 +14611,17 @@
     <row r="111" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.8</v>
+        <v>5.4.9</v>
       </c>
       <c r="B111" s="100" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D111" s="99"/>
       <c r="E111" s="75">
         <v>44501</v>
       </c>
       <c r="F111" s="76">
-        <f t="shared" ref="F111" si="50">IF(ISBLANK(E111)," - ",IF(G111=0,E111,E111+G111-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G111" s="58">
@@ -14643,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="60">
-        <f t="shared" ref="I111" si="51">IF(OR(F111=0,E111=0)," - ",NETWORKDAYS(E111,F111))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J111" s="73"/>
@@ -14707,17 +14695,17 @@
     <row r="112" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.9</v>
+        <v>5.4.10</v>
       </c>
       <c r="B112" s="100" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D112" s="99"/>
       <c r="E112" s="75">
         <v>44501</v>
       </c>
       <c r="F112" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F112" si="52">IF(ISBLANK(E112)," - ",IF(G112=0,E112,E112+G112-1))</f>
         <v>44512</v>
       </c>
       <c r="G112" s="58">
@@ -14727,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I112" si="53">IF(OR(F112=0,E112=0)," - ",NETWORKDAYS(E112,F112))</f>
         <v>10</v>
       </c>
       <c r="J112" s="73"/>
@@ -14791,17 +14779,17 @@
     <row r="113" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.10</v>
+        <v>5.4.11</v>
       </c>
       <c r="B113" s="100" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D113" s="99"/>
       <c r="E113" s="75">
         <v>44501</v>
       </c>
       <c r="F113" s="76">
-        <f t="shared" ref="F113" si="52">IF(ISBLANK(E113)," - ",IF(G113=0,E113,E113+G113-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G113" s="58">
@@ -14811,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="60">
-        <f t="shared" ref="I113" si="53">IF(OR(F113=0,E113=0)," - ",NETWORKDAYS(E113,F113))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J113" s="73"/>
@@ -14875,17 +14863,17 @@
     <row r="114" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.11</v>
+        <v>5.4.12</v>
       </c>
       <c r="B114" s="100" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D114" s="99"/>
       <c r="E114" s="75">
         <v>44501</v>
       </c>
       <c r="F114" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F114" si="54">IF(ISBLANK(E114)," - ",IF(G114=0,E114,E114+G114-1))</f>
         <v>44512</v>
       </c>
       <c r="G114" s="58">
@@ -14895,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I114" si="55">IF(OR(F114=0,E114=0)," - ",NETWORKDAYS(E114,F114))</f>
         <v>10</v>
       </c>
       <c r="J114" s="73"/>
@@ -14959,17 +14947,17 @@
     <row r="115" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.12</v>
+        <v>5.4.13</v>
       </c>
       <c r="B115" s="100" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="75">
         <v>44501</v>
       </c>
       <c r="F115" s="76">
-        <f t="shared" ref="F115" si="54">IF(ISBLANK(E115)," - ",IF(G115=0,E115,E115+G115-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G115" s="58">
@@ -14979,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="60">
-        <f t="shared" ref="I115" si="55">IF(OR(F115=0,E115=0)," - ",NETWORKDAYS(E115,F115))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J115" s="73"/>
@@ -15043,17 +15031,17 @@
     <row r="116" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.13</v>
+        <v>5.4.14</v>
       </c>
       <c r="B116" s="100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D116" s="99"/>
       <c r="E116" s="75">
         <v>44501</v>
       </c>
       <c r="F116" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F116" si="56">IF(ISBLANK(E116)," - ",IF(G116=0,E116,E116+G116-1))</f>
         <v>44512</v>
       </c>
       <c r="G116" s="58">
@@ -15063,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I116" si="57">IF(OR(F116=0,E116=0)," - ",NETWORKDAYS(E116,F116))</f>
         <v>10</v>
       </c>
       <c r="J116" s="73"/>
@@ -15127,17 +15115,17 @@
     <row r="117" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.14</v>
+        <v>5.4.15</v>
       </c>
       <c r="B117" s="100" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D117" s="99"/>
       <c r="E117" s="75">
         <v>44501</v>
       </c>
       <c r="F117" s="76">
-        <f t="shared" ref="F117" si="56">IF(ISBLANK(E117)," - ",IF(G117=0,E117,E117+G117-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G117" s="58">
@@ -15147,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="60">
-        <f t="shared" ref="I117" si="57">IF(OR(F117=0,E117=0)," - ",NETWORKDAYS(E117,F117))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J117" s="73"/>
@@ -15211,17 +15199,17 @@
     <row r="118" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.15</v>
+        <v>5.4.16</v>
       </c>
       <c r="B118" s="100" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D118" s="99"/>
       <c r="E118" s="75">
         <v>44501</v>
       </c>
       <c r="F118" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F118" si="58">IF(ISBLANK(E118)," - ",IF(G118=0,E118,E118+G118-1))</f>
         <v>44512</v>
       </c>
       <c r="G118" s="58">
@@ -15231,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I118" si="59">IF(OR(F118=0,E118=0)," - ",NETWORKDAYS(E118,F118))</f>
         <v>10</v>
       </c>
       <c r="J118" s="73"/>
@@ -15295,17 +15283,17 @@
     <row r="119" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.16</v>
+        <v>5.4.17</v>
       </c>
       <c r="B119" s="100" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D119" s="99"/>
       <c r="E119" s="75">
         <v>44501</v>
       </c>
       <c r="F119" s="76">
-        <f t="shared" ref="F119" si="58">IF(ISBLANK(E119)," - ",IF(G119=0,E119,E119+G119-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G119" s="58">
@@ -15315,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="60">
-        <f t="shared" ref="I119" si="59">IF(OR(F119=0,E119=0)," - ",NETWORKDAYS(E119,F119))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J119" s="73"/>
@@ -15379,17 +15367,17 @@
     <row r="120" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="56" t="str">
         <f t="shared" si="41"/>
-        <v>5.4.17</v>
+        <v>5.4.18</v>
       </c>
       <c r="B120" s="100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D120" s="99"/>
       <c r="E120" s="75">
         <v>44501</v>
       </c>
       <c r="F120" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F120" si="60">IF(ISBLANK(E120)," - ",IF(G120=0,E120,E120+G120-1))</f>
         <v>44512</v>
       </c>
       <c r="G120" s="58">
@@ -15399,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I120" si="61">IF(OR(F120=0,E120=0)," - ",NETWORKDAYS(E120,F120))</f>
         <v>10</v>
       </c>
       <c r="J120" s="73"/>
@@ -15462,18 +15450,18 @@
     </row>
     <row r="121" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.18</v>
-      </c>
-      <c r="B121" s="100" t="s">
-        <v>208</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.5</v>
+      </c>
+      <c r="B121" s="98" t="s">
+        <v>192</v>
       </c>
       <c r="D121" s="99"/>
       <c r="E121" s="75">
         <v>44501</v>
       </c>
       <c r="F121" s="76">
-        <f t="shared" ref="F121" si="60">IF(ISBLANK(E121)," - ",IF(G121=0,E121,E121+G121-1))</f>
+        <f t="shared" si="19"/>
         <v>44512</v>
       </c>
       <c r="G121" s="58">
@@ -15483,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="60">
-        <f t="shared" ref="I121" si="61">IF(OR(F121=0,E121=0)," - ",NETWORKDAYS(E121,F121))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J121" s="73"/>
@@ -15546,18 +15534,18 @@
     </row>
     <row r="122" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.5</v>
-      </c>
-      <c r="B122" s="98" t="s">
-        <v>192</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.5.1</v>
+      </c>
+      <c r="B122" s="100" t="s">
+        <v>217</v>
       </c>
       <c r="D122" s="99"/>
       <c r="E122" s="75">
         <v>44501</v>
       </c>
       <c r="F122" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F122:F124" si="62">IF(ISBLANK(E122)," - ",IF(G122=0,E122,E122+G122-1))</f>
         <v>44512</v>
       </c>
       <c r="G122" s="58">
@@ -15567,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I122:I124" si="63">IF(OR(F122=0,E122=0)," - ",NETWORKDAYS(E122,F122))</f>
         <v>10</v>
       </c>
       <c r="J122" s="73"/>
@@ -15631,17 +15619,17 @@
     <row r="123" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.1</v>
+        <v>5.5.2</v>
       </c>
       <c r="B123" s="100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D123" s="99"/>
       <c r="E123" s="75">
         <v>44501</v>
       </c>
       <c r="F123" s="76">
-        <f t="shared" ref="F123:F125" si="62">IF(ISBLANK(E123)," - ",IF(G123=0,E123,E123+G123-1))</f>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G123" s="58">
@@ -15651,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="60">
-        <f t="shared" ref="I123:I125" si="63">IF(OR(F123=0,E123=0)," - ",NETWORKDAYS(E123,F123))</f>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J123" s="73"/>
@@ -15715,10 +15703,10 @@
     <row r="124" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.2</v>
+        <v>5.5.3</v>
       </c>
       <c r="B124" s="100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="75">
@@ -15796,175 +15784,175 @@
       <c r="BM124" s="79"/>
       <c r="BN124" s="79"/>
     </row>
-    <row r="125" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.3</v>
-      </c>
-      <c r="B125" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="D125" s="99"/>
-      <c r="E125" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F125" s="76">
-        <f t="shared" si="62"/>
-        <v>44512</v>
-      </c>
-      <c r="G125" s="58">
-        <v>12</v>
-      </c>
-      <c r="H125" s="59">
-        <v>0</v>
-      </c>
-      <c r="I125" s="60">
-        <f t="shared" si="63"/>
-        <v>10</v>
-      </c>
-      <c r="J125" s="73"/>
-      <c r="K125" s="79"/>
-      <c r="L125" s="79"/>
-      <c r="M125" s="79"/>
-      <c r="N125" s="79"/>
-      <c r="O125" s="79"/>
-      <c r="P125" s="79"/>
-      <c r="Q125" s="79"/>
-      <c r="R125" s="79"/>
-      <c r="S125" s="79"/>
-      <c r="T125" s="79"/>
-      <c r="U125" s="79"/>
-      <c r="V125" s="79"/>
-      <c r="W125" s="79"/>
-      <c r="X125" s="79"/>
-      <c r="Y125" s="79"/>
-      <c r="Z125" s="79"/>
-      <c r="AA125" s="79"/>
-      <c r="AB125" s="79"/>
-      <c r="AC125" s="79"/>
-      <c r="AD125" s="79"/>
-      <c r="AE125" s="79"/>
-      <c r="AF125" s="79"/>
-      <c r="AG125" s="79"/>
-      <c r="AH125" s="79"/>
-      <c r="AI125" s="79"/>
-      <c r="AJ125" s="79"/>
-      <c r="AK125" s="79"/>
-      <c r="AL125" s="79"/>
-      <c r="AM125" s="79"/>
-      <c r="AN125" s="79"/>
-      <c r="AO125" s="79"/>
-      <c r="AP125" s="79"/>
-      <c r="AQ125" s="79"/>
-      <c r="AR125" s="79"/>
-      <c r="AS125" s="79"/>
-      <c r="AT125" s="79"/>
-      <c r="AU125" s="79"/>
-      <c r="AV125" s="79"/>
-      <c r="AW125" s="79"/>
-      <c r="AX125" s="79"/>
-      <c r="AY125" s="79"/>
-      <c r="AZ125" s="79"/>
-      <c r="BA125" s="79"/>
-      <c r="BB125" s="79"/>
-      <c r="BC125" s="79"/>
-      <c r="BD125" s="79"/>
-      <c r="BE125" s="79"/>
-      <c r="BF125" s="79"/>
-      <c r="BG125" s="79"/>
-      <c r="BH125" s="79"/>
-      <c r="BI125" s="79"/>
-      <c r="BJ125" s="79"/>
-      <c r="BK125" s="79"/>
-      <c r="BL125" s="79"/>
-      <c r="BM125" s="79"/>
-      <c r="BN125" s="79"/>
-    </row>
-    <row r="126" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="49" t="str">
+    <row r="125" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B125" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D126" s="52"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77" t="str">
-        <f t="shared" ref="F126:F136" si="64">IF(ISBLANK(E126)," - ",IF(G126=0,E126,E126+G126-1))</f>
+      <c r="D125" s="52"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77" t="str">
+        <f t="shared" ref="F125:F135" si="64">IF(ISBLANK(E125)," - ",IF(G125=0,E125,E125+G125-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G126" s="53"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="55" t="str">
-        <f t="shared" ref="I126:I136" si="65">IF(OR(F126=0,E126=0)," - ",NETWORKDAYS(E126,F126))</f>
+      <c r="G125" s="53"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="55" t="str">
+        <f t="shared" ref="I125:I135" si="65">IF(OR(F125=0,E125=0)," - ",NETWORKDAYS(E125,F125))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J126" s="74"/>
-      <c r="K126" s="81"/>
-      <c r="L126" s="81"/>
-      <c r="M126" s="81"/>
-      <c r="N126" s="81"/>
-      <c r="O126" s="81"/>
-      <c r="P126" s="81"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="81"/>
-      <c r="S126" s="81"/>
-      <c r="T126" s="81"/>
-      <c r="U126" s="81"/>
-      <c r="V126" s="81"/>
-      <c r="W126" s="81"/>
-      <c r="X126" s="81"/>
-      <c r="Y126" s="81"/>
-      <c r="Z126" s="81"/>
-      <c r="AA126" s="81"/>
-      <c r="AB126" s="81"/>
-      <c r="AC126" s="81"/>
-      <c r="AD126" s="81"/>
-      <c r="AE126" s="81"/>
-      <c r="AF126" s="81"/>
-      <c r="AG126" s="81"/>
-      <c r="AH126" s="81"/>
-      <c r="AI126" s="81"/>
-      <c r="AJ126" s="81"/>
-      <c r="AK126" s="81"/>
-      <c r="AL126" s="81"/>
-      <c r="AM126" s="81"/>
-      <c r="AN126" s="81"/>
-      <c r="AO126" s="81"/>
-      <c r="AP126" s="81"/>
-      <c r="AQ126" s="81"/>
-      <c r="AR126" s="81"/>
-      <c r="AS126" s="81"/>
-      <c r="AT126" s="81"/>
-      <c r="AU126" s="81"/>
-      <c r="AV126" s="81"/>
-      <c r="AW126" s="81"/>
-      <c r="AX126" s="81"/>
-      <c r="AY126" s="81"/>
-      <c r="AZ126" s="81"/>
-      <c r="BA126" s="81"/>
-      <c r="BB126" s="81"/>
-      <c r="BC126" s="81"/>
-      <c r="BD126" s="81"/>
-      <c r="BE126" s="81"/>
-      <c r="BF126" s="81"/>
-      <c r="BG126" s="81"/>
-      <c r="BH126" s="81"/>
-      <c r="BI126" s="81"/>
-      <c r="BJ126" s="81"/>
-      <c r="BK126" s="81"/>
-      <c r="BL126" s="81"/>
-      <c r="BM126" s="81"/>
-      <c r="BN126" s="81"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="81"/>
+      <c r="L125" s="81"/>
+      <c r="M125" s="81"/>
+      <c r="N125" s="81"/>
+      <c r="O125" s="81"/>
+      <c r="P125" s="81"/>
+      <c r="Q125" s="81"/>
+      <c r="R125" s="81"/>
+      <c r="S125" s="81"/>
+      <c r="T125" s="81"/>
+      <c r="U125" s="81"/>
+      <c r="V125" s="81"/>
+      <c r="W125" s="81"/>
+      <c r="X125" s="81"/>
+      <c r="Y125" s="81"/>
+      <c r="Z125" s="81"/>
+      <c r="AA125" s="81"/>
+      <c r="AB125" s="81"/>
+      <c r="AC125" s="81"/>
+      <c r="AD125" s="81"/>
+      <c r="AE125" s="81"/>
+      <c r="AF125" s="81"/>
+      <c r="AG125" s="81"/>
+      <c r="AH125" s="81"/>
+      <c r="AI125" s="81"/>
+      <c r="AJ125" s="81"/>
+      <c r="AK125" s="81"/>
+      <c r="AL125" s="81"/>
+      <c r="AM125" s="81"/>
+      <c r="AN125" s="81"/>
+      <c r="AO125" s="81"/>
+      <c r="AP125" s="81"/>
+      <c r="AQ125" s="81"/>
+      <c r="AR125" s="81"/>
+      <c r="AS125" s="81"/>
+      <c r="AT125" s="81"/>
+      <c r="AU125" s="81"/>
+      <c r="AV125" s="81"/>
+      <c r="AW125" s="81"/>
+      <c r="AX125" s="81"/>
+      <c r="AY125" s="81"/>
+      <c r="AZ125" s="81"/>
+      <c r="BA125" s="81"/>
+      <c r="BB125" s="81"/>
+      <c r="BC125" s="81"/>
+      <c r="BD125" s="81"/>
+      <c r="BE125" s="81"/>
+      <c r="BF125" s="81"/>
+      <c r="BG125" s="81"/>
+      <c r="BH125" s="81"/>
+      <c r="BI125" s="81"/>
+      <c r="BJ125" s="81"/>
+      <c r="BK125" s="81"/>
+      <c r="BL125" s="81"/>
+      <c r="BM125" s="81"/>
+      <c r="BN125" s="81"/>
+    </row>
+    <row r="126" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B126" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="99"/>
+      <c r="E126" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F126" s="76">
+        <f t="shared" si="64"/>
+        <v>44512</v>
+      </c>
+      <c r="G126" s="58">
+        <v>12</v>
+      </c>
+      <c r="H126" s="59">
+        <v>0</v>
+      </c>
+      <c r="I126" s="60">
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="J126" s="73"/>
+      <c r="K126" s="79"/>
+      <c r="L126" s="79"/>
+      <c r="M126" s="79"/>
+      <c r="N126" s="79"/>
+      <c r="O126" s="79"/>
+      <c r="P126" s="79"/>
+      <c r="Q126" s="79"/>
+      <c r="R126" s="79"/>
+      <c r="S126" s="79"/>
+      <c r="T126" s="79"/>
+      <c r="U126" s="79"/>
+      <c r="V126" s="79"/>
+      <c r="W126" s="79"/>
+      <c r="X126" s="79"/>
+      <c r="Y126" s="79"/>
+      <c r="Z126" s="79"/>
+      <c r="AA126" s="79"/>
+      <c r="AB126" s="79"/>
+      <c r="AC126" s="79"/>
+      <c r="AD126" s="79"/>
+      <c r="AE126" s="79"/>
+      <c r="AF126" s="79"/>
+      <c r="AG126" s="79"/>
+      <c r="AH126" s="79"/>
+      <c r="AI126" s="79"/>
+      <c r="AJ126" s="79"/>
+      <c r="AK126" s="79"/>
+      <c r="AL126" s="79"/>
+      <c r="AM126" s="79"/>
+      <c r="AN126" s="79"/>
+      <c r="AO126" s="79"/>
+      <c r="AP126" s="79"/>
+      <c r="AQ126" s="79"/>
+      <c r="AR126" s="79"/>
+      <c r="AS126" s="79"/>
+      <c r="AT126" s="79"/>
+      <c r="AU126" s="79"/>
+      <c r="AV126" s="79"/>
+      <c r="AW126" s="79"/>
+      <c r="AX126" s="79"/>
+      <c r="AY126" s="79"/>
+      <c r="AZ126" s="79"/>
+      <c r="BA126" s="79"/>
+      <c r="BB126" s="79"/>
+      <c r="BC126" s="79"/>
+      <c r="BD126" s="79"/>
+      <c r="BE126" s="79"/>
+      <c r="BF126" s="79"/>
+      <c r="BG126" s="79"/>
+      <c r="BH126" s="79"/>
+      <c r="BI126" s="79"/>
+      <c r="BJ126" s="79"/>
+      <c r="BK126" s="79"/>
+      <c r="BL126" s="79"/>
+      <c r="BM126" s="79"/>
+      <c r="BN126" s="79"/>
     </row>
     <row r="127" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B127" s="98" t="s">
-        <v>191</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.1</v>
+      </c>
+      <c r="B127" s="100" t="s">
+        <v>220</v>
       </c>
       <c r="D127" s="99"/>
       <c r="E127" s="75">
@@ -16045,10 +16033,10 @@
     <row r="128" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.1</v>
+        <v>6.1.2</v>
       </c>
       <c r="B128" s="100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D128" s="99"/>
       <c r="E128" s="75">
@@ -16129,10 +16117,10 @@
     <row r="129" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.2</v>
+        <v>6.1.3</v>
       </c>
       <c r="B129" s="100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D129" s="99"/>
       <c r="E129" s="75">
@@ -16212,11 +16200,11 @@
     </row>
     <row r="130" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.3</v>
-      </c>
-      <c r="B130" s="100" t="s">
-        <v>222</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B130" s="98" t="s">
+        <v>193</v>
       </c>
       <c r="D130" s="99"/>
       <c r="E130" s="75">
@@ -16296,11 +16284,11 @@
     </row>
     <row r="131" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B131" s="98" t="s">
-        <v>193</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.2.1</v>
+      </c>
+      <c r="B131" s="100" t="s">
+        <v>224</v>
       </c>
       <c r="D131" s="99"/>
       <c r="E131" s="75">
@@ -16381,10 +16369,10 @@
     <row r="132" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.2.1</v>
+        <v>6.2.2</v>
       </c>
       <c r="B132" s="100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D132" s="99"/>
       <c r="E132" s="75">
@@ -16464,11 +16452,11 @@
     </row>
     <row r="133" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.2.2</v>
-      </c>
-      <c r="B133" s="100" t="s">
-        <v>223</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.3</v>
+      </c>
+      <c r="B133" s="98" t="s">
+        <v>196</v>
       </c>
       <c r="D133" s="99"/>
       <c r="E133" s="75">
@@ -16548,11 +16536,11 @@
     </row>
     <row r="134" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
-      </c>
-      <c r="B134" s="98" t="s">
-        <v>196</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.3.1</v>
+      </c>
+      <c r="B134" s="100" t="s">
+        <v>225</v>
       </c>
       <c r="D134" s="99"/>
       <c r="E134" s="75">
@@ -16632,19 +16620,19 @@
     </row>
     <row r="135" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.3.1</v>
-      </c>
-      <c r="B135" s="100" t="s">
-        <v>225</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.4</v>
+      </c>
+      <c r="B135" s="98" t="s">
+        <v>233</v>
       </c>
       <c r="D135" s="99"/>
       <c r="E135" s="75">
-        <v>44501</v>
+        <v>44515</v>
       </c>
       <c r="F135" s="76">
         <f t="shared" si="64"/>
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="G135" s="58">
         <v>12</v>
@@ -16714,94 +16702,19 @@
       <c r="BM135" s="79"/>
       <c r="BN135" s="79"/>
     </row>
-    <row r="136" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.4</v>
-      </c>
-      <c r="B136" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="D136" s="99"/>
-      <c r="E136" s="75">
-        <v>44515</v>
-      </c>
-      <c r="F136" s="76">
-        <f t="shared" si="64"/>
-        <v>44526</v>
-      </c>
-      <c r="G136" s="58">
-        <v>12</v>
-      </c>
-      <c r="H136" s="59">
-        <v>0</v>
-      </c>
-      <c r="I136" s="60">
-        <f t="shared" si="65"/>
-        <v>10</v>
-      </c>
-      <c r="J136" s="73"/>
-      <c r="K136" s="79"/>
-      <c r="L136" s="79"/>
-      <c r="M136" s="79"/>
-      <c r="N136" s="79"/>
-      <c r="O136" s="79"/>
-      <c r="P136" s="79"/>
-      <c r="Q136" s="79"/>
-      <c r="R136" s="79"/>
-      <c r="S136" s="79"/>
-      <c r="T136" s="79"/>
-      <c r="U136" s="79"/>
-      <c r="V136" s="79"/>
-      <c r="W136" s="79"/>
-      <c r="X136" s="79"/>
-      <c r="Y136" s="79"/>
-      <c r="Z136" s="79"/>
-      <c r="AA136" s="79"/>
-      <c r="AB136" s="79"/>
-      <c r="AC136" s="79"/>
-      <c r="AD136" s="79"/>
-      <c r="AE136" s="79"/>
-      <c r="AF136" s="79"/>
-      <c r="AG136" s="79"/>
-      <c r="AH136" s="79"/>
-      <c r="AI136" s="79"/>
-      <c r="AJ136" s="79"/>
-      <c r="AK136" s="79"/>
-      <c r="AL136" s="79"/>
-      <c r="AM136" s="79"/>
-      <c r="AN136" s="79"/>
-      <c r="AO136" s="79"/>
-      <c r="AP136" s="79"/>
-      <c r="AQ136" s="79"/>
-      <c r="AR136" s="79"/>
-      <c r="AS136" s="79"/>
-      <c r="AT136" s="79"/>
-      <c r="AU136" s="79"/>
-      <c r="AV136" s="79"/>
-      <c r="AW136" s="79"/>
-      <c r="AX136" s="79"/>
-      <c r="AY136" s="79"/>
-      <c r="AZ136" s="79"/>
-      <c r="BA136" s="79"/>
-      <c r="BB136" s="79"/>
-      <c r="BC136" s="79"/>
-      <c r="BD136" s="79"/>
-      <c r="BE136" s="79"/>
-      <c r="BF136" s="79"/>
-      <c r="BG136" s="79"/>
-      <c r="BH136" s="79"/>
-      <c r="BI136" s="79"/>
-      <c r="BJ136" s="79"/>
-      <c r="BK136" s="79"/>
-      <c r="BL136" s="79"/>
-      <c r="BM136" s="79"/>
-      <c r="BN136" s="79"/>
-    </row>
-    <row r="137" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -16812,18 +16725,9 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H47 H49 H83 H60 H73 H88:H89 H70 H92:H93 H103 H122">
+  <conditionalFormatting sqref="H8:H9 H46 H48 H82 H59 H72 H87:H88 H69 H91:H92 H102 H121">
     <cfRule type="dataBar" priority="464">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16838,24 +16742,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="114" priority="507">
+    <cfRule type="expression" dxfId="113" priority="507">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN136">
-    <cfRule type="expression" dxfId="113" priority="510">
+  <conditionalFormatting sqref="K8:BN135">
+    <cfRule type="expression" dxfId="112" priority="510">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="511">
+    <cfRule type="expression" dxfId="111" priority="511">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K47:BN47 K49:BN49 K83:BN83 K60:BN60 K73:BN73 K88:BN89 K70:BN70 K92:BN93 K103:BN103 K122:BN122">
-    <cfRule type="expression" dxfId="111" priority="470">
+  <conditionalFormatting sqref="K6:BN9 K46:BN46 K48:BN48 K82:BN82 K59:BN59 K72:BN72 K87:BN88 K69:BN69 K91:BN92 K102:BN102 K121:BN121">
+    <cfRule type="expression" dxfId="110" priority="470">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126:H127 H131 H134">
+  <conditionalFormatting sqref="H125:H126 H130 H133">
     <cfRule type="dataBar" priority="455">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16869,12 +16773,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K126:BN127 K131:BN131 K134:BN134">
-    <cfRule type="expression" dxfId="110" priority="456">
+  <conditionalFormatting sqref="K125:BN126 K130:BN130 K133:BN133">
+    <cfRule type="expression" dxfId="109" priority="456">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H29">
     <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16888,12 +16792,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="109" priority="452">
+  <conditionalFormatting sqref="K29:BN29">
+    <cfRule type="expression" dxfId="108" priority="452">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H30">
     <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16907,12 +16811,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="108" priority="448">
+  <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="107" priority="448">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H31">
     <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16926,12 +16830,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="107" priority="444">
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="106" priority="444">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H32">
     <cfRule type="dataBar" priority="439">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16945,12 +16849,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="106" priority="440">
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="105" priority="440">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H33">
     <cfRule type="dataBar" priority="435">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16964,12 +16868,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="105" priority="436">
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="104" priority="436">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H34">
     <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16983,12 +16887,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="104" priority="428">
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="103" priority="428">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H35">
     <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17002,12 +16906,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="103" priority="424">
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="102" priority="424">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H28">
     <cfRule type="dataBar" priority="415">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17021,8 +16925,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="102" priority="416">
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="101" priority="416">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17041,7 +16945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="101" priority="408">
+    <cfRule type="expression" dxfId="100" priority="408">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17060,11 +16964,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="100" priority="404">
+    <cfRule type="expression" dxfId="99" priority="404">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H36">
     <cfRule type="dataBar" priority="395">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17078,12 +16982,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="99" priority="396">
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="98" priority="396">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H39">
     <cfRule type="dataBar" priority="387">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17097,12 +17001,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="98" priority="388">
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="97" priority="388">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H40">
     <cfRule type="dataBar" priority="385">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17116,12 +17020,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="97" priority="386">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="96" priority="386">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H41">
     <cfRule type="dataBar" priority="383">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17135,12 +17039,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="96" priority="384">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="95" priority="384">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H42">
     <cfRule type="dataBar" priority="381">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17154,12 +17058,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="95" priority="382">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="94" priority="382">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H43">
     <cfRule type="dataBar" priority="379">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17173,12 +17077,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="94" priority="380">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="93" priority="380">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H44">
     <cfRule type="dataBar" priority="377">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17192,12 +17096,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="93" priority="378">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="92" priority="378">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H45">
     <cfRule type="dataBar" priority="375">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17211,12 +17115,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="92" priority="376">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="91" priority="376">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H38">
     <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17230,8 +17134,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="91" priority="374">
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="90" priority="374">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17250,7 +17154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="90" priority="352">
+    <cfRule type="expression" dxfId="89" priority="352">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17269,7 +17173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="89" priority="348">
+    <cfRule type="expression" dxfId="88" priority="348">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17288,7 +17192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="88" priority="340">
+    <cfRule type="expression" dxfId="87" priority="340">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17307,7 +17211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="87" priority="336">
+    <cfRule type="expression" dxfId="86" priority="336">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17326,7 +17230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="86" priority="332">
+    <cfRule type="expression" dxfId="85" priority="332">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17345,7 +17249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="85" priority="328">
+    <cfRule type="expression" dxfId="84" priority="328">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17364,7 +17268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="84" priority="320">
+    <cfRule type="expression" dxfId="83" priority="320">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17383,7 +17287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="83" priority="316">
+    <cfRule type="expression" dxfId="82" priority="316">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17402,7 +17306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="82" priority="312">
+    <cfRule type="expression" dxfId="81" priority="312">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17421,7 +17325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="81" priority="308">
+    <cfRule type="expression" dxfId="80" priority="308">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17440,7 +17344,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="80" priority="304">
+    <cfRule type="expression" dxfId="79" priority="304">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17459,7 +17363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="79" priority="296">
+    <cfRule type="expression" dxfId="78" priority="296">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17478,11 +17382,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="78" priority="292">
+    <cfRule type="expression" dxfId="77" priority="292">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H62">
     <cfRule type="dataBar" priority="279">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17496,12 +17400,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="77" priority="280">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="76" priority="280">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H63">
     <cfRule type="dataBar" priority="277">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17515,12 +17419,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="76" priority="278">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="75" priority="278">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H64">
     <cfRule type="dataBar" priority="275">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17534,12 +17438,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="75" priority="276">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="74" priority="276">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H65">
     <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17553,12 +17457,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="74" priority="274">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="73" priority="274">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H66">
     <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17572,12 +17476,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="73" priority="272">
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="72" priority="272">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H67">
     <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17591,12 +17495,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="72" priority="270">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="71" priority="270">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H68">
     <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17610,12 +17514,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="71" priority="268">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="70" priority="268">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H61">
     <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17629,12 +17533,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="70" priority="266">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="69" priority="266">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H75">
     <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17648,12 +17552,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="69" priority="262">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="68" priority="262">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H76">
     <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17667,12 +17571,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="68" priority="260">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="67" priority="260">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H77">
     <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17686,12 +17590,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="67" priority="258">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="66" priority="258">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H78">
     <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17705,12 +17609,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="66" priority="256">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="65" priority="256">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H79">
     <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17724,12 +17628,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="65" priority="254">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="64" priority="254">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H80">
     <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17743,12 +17647,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="64" priority="252">
+  <conditionalFormatting sqref="K80:BN80">
+    <cfRule type="expression" dxfId="63" priority="252">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H81">
     <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17762,12 +17666,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:BN82">
-    <cfRule type="expression" dxfId="63" priority="250">
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="62" priority="250">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H74">
     <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17781,12 +17685,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="62" priority="248">
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="61" priority="248">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="H49">
     <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17800,12 +17704,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="61" priority="244">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="60" priority="244">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H52">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17819,12 +17723,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="60" priority="240">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="59" priority="240">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H53">
     <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17838,12 +17742,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="59" priority="238">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="58" priority="238">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H54">
     <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17857,12 +17761,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="58" priority="236">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="57" priority="236">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H55">
     <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17876,12 +17780,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="57" priority="234">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="56" priority="234">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H56">
     <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17895,12 +17799,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="56" priority="232">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="55" priority="232">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H57">
     <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17914,12 +17818,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="55" priority="230">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="54" priority="230">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H58">
     <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17933,12 +17837,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="54" priority="228">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="53" priority="228">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H51">
     <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17952,12 +17856,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="53" priority="226">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="52" priority="226">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H73">
     <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17971,12 +17875,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="52" priority="222">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="51" priority="222">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H50">
     <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17990,26 +17894,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="51" priority="218">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="50" priority="218">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="213">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5750202C-E296-4F19-837B-1B18AB94C415}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H37">
     <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18023,17 +17913,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="50" priority="214">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
+  <conditionalFormatting sqref="K37:BN37">
     <cfRule type="expression" dxfId="49" priority="210">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H60">
     <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18047,12 +17932,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
+  <conditionalFormatting sqref="K60:BN60">
     <cfRule type="expression" dxfId="48" priority="202">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H70">
     <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18066,12 +17951,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
+  <conditionalFormatting sqref="K70:BN70">
     <cfRule type="expression" dxfId="47" priority="198">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H85">
     <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18085,12 +17970,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
+  <conditionalFormatting sqref="K85:BN85">
     <cfRule type="expression" dxfId="46" priority="190">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H86">
     <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18104,12 +17989,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
+  <conditionalFormatting sqref="K86:BN86">
     <cfRule type="expression" dxfId="45" priority="182">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H89">
     <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18123,12 +18008,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
+  <conditionalFormatting sqref="K89:BN89">
     <cfRule type="expression" dxfId="44" priority="178">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H95">
     <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18142,12 +18027,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
+  <conditionalFormatting sqref="K95:BN95">
     <cfRule type="expression" dxfId="43" priority="174">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H96">
     <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18161,12 +18046,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
+  <conditionalFormatting sqref="K96:BN96">
     <cfRule type="expression" dxfId="42" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H97">
     <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18180,12 +18065,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
+  <conditionalFormatting sqref="K97:BN97">
     <cfRule type="expression" dxfId="41" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
+  <conditionalFormatting sqref="H98">
     <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18199,12 +18084,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
+  <conditionalFormatting sqref="K98:BN98">
     <cfRule type="expression" dxfId="40" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
+  <conditionalFormatting sqref="H99">
     <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18218,12 +18103,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
+  <conditionalFormatting sqref="K99:BN99">
     <cfRule type="expression" dxfId="39" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
+  <conditionalFormatting sqref="H100">
     <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18237,12 +18122,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
+  <conditionalFormatting sqref="K100:BN100">
     <cfRule type="expression" dxfId="38" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H101">
     <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18256,12 +18141,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K102:BN102">
+  <conditionalFormatting sqref="K101:BN101">
     <cfRule type="expression" dxfId="37" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H94">
     <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18275,12 +18160,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
+  <conditionalFormatting sqref="K94:BN94">
     <cfRule type="expression" dxfId="36" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H93">
     <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18294,12 +18179,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
+  <conditionalFormatting sqref="K93:BN93">
     <cfRule type="expression" dxfId="35" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="H107">
     <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18313,12 +18198,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
+  <conditionalFormatting sqref="K107:BN107">
     <cfRule type="expression" dxfId="34" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
+  <conditionalFormatting sqref="H109">
     <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18332,12 +18217,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
+  <conditionalFormatting sqref="K109:BN109">
     <cfRule type="expression" dxfId="33" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
+  <conditionalFormatting sqref="H111">
     <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18351,12 +18236,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K112:BN112">
+  <conditionalFormatting sqref="K111:BN111">
     <cfRule type="expression" dxfId="32" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H113">
     <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18370,12 +18255,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
+  <conditionalFormatting sqref="K113:BN113">
     <cfRule type="expression" dxfId="31" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
+  <conditionalFormatting sqref="H115">
     <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18389,12 +18274,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
+  <conditionalFormatting sqref="K115:BN115">
     <cfRule type="expression" dxfId="30" priority="146">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
+  <conditionalFormatting sqref="H117">
     <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18408,12 +18293,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
+  <conditionalFormatting sqref="K117:BN117">
     <cfRule type="expression" dxfId="29" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
+  <conditionalFormatting sqref="H119">
     <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18427,12 +18312,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
+  <conditionalFormatting sqref="K119:BN119">
     <cfRule type="expression" dxfId="28" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
+  <conditionalFormatting sqref="H105">
     <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18446,12 +18331,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
+  <conditionalFormatting sqref="K105:BN105">
     <cfRule type="expression" dxfId="27" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
+  <conditionalFormatting sqref="H103">
     <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18465,12 +18350,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
+  <conditionalFormatting sqref="K103:BN103">
     <cfRule type="expression" dxfId="26" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H104">
     <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18484,12 +18369,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
+  <conditionalFormatting sqref="K104:BN104">
     <cfRule type="expression" dxfId="25" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
+  <conditionalFormatting sqref="H106">
     <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18503,12 +18388,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
+  <conditionalFormatting sqref="K106:BN106">
     <cfRule type="expression" dxfId="24" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
+  <conditionalFormatting sqref="H108">
     <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18522,12 +18407,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
+  <conditionalFormatting sqref="K108:BN108">
     <cfRule type="expression" dxfId="23" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
+  <conditionalFormatting sqref="H110">
     <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18541,12 +18426,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
+  <conditionalFormatting sqref="K110:BN110">
     <cfRule type="expression" dxfId="22" priority="122">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
+  <conditionalFormatting sqref="H112">
     <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18560,12 +18445,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
+  <conditionalFormatting sqref="K112:BN112">
     <cfRule type="expression" dxfId="21" priority="118">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="H114">
     <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18579,12 +18464,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
+  <conditionalFormatting sqref="K114:BN114">
     <cfRule type="expression" dxfId="20" priority="114">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
+  <conditionalFormatting sqref="H116">
     <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18598,12 +18483,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
+  <conditionalFormatting sqref="K116:BN116">
     <cfRule type="expression" dxfId="19" priority="110">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
+  <conditionalFormatting sqref="H118">
     <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18617,12 +18502,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
+  <conditionalFormatting sqref="K118:BN118">
     <cfRule type="expression" dxfId="18" priority="106">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
+  <conditionalFormatting sqref="H120">
     <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18636,12 +18521,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K121:BN121">
+  <conditionalFormatting sqref="K120:BN120">
     <cfRule type="expression" dxfId="17" priority="102">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
+  <conditionalFormatting sqref="H122">
     <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18655,12 +18540,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K123:BN123">
+  <conditionalFormatting sqref="K122:BN122">
     <cfRule type="expression" dxfId="16" priority="98">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
+  <conditionalFormatting sqref="H123">
     <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18674,12 +18559,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K124:BN124">
+  <conditionalFormatting sqref="K123:BN123">
     <cfRule type="expression" dxfId="15" priority="94">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
+  <conditionalFormatting sqref="H124">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18693,12 +18578,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125:BN125">
+  <conditionalFormatting sqref="K124:BN124">
     <cfRule type="expression" dxfId="14" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
+  <conditionalFormatting sqref="H129">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18712,12 +18597,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K130:BN130">
+  <conditionalFormatting sqref="K129:BN129">
     <cfRule type="expression" dxfId="13" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H128:H129">
+  <conditionalFormatting sqref="H127:H128">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18731,12 +18616,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K128:BN129">
+  <conditionalFormatting sqref="K127:BN128">
     <cfRule type="expression" dxfId="12" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H133">
+  <conditionalFormatting sqref="H132">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18750,12 +18635,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K133:BN133">
+  <conditionalFormatting sqref="K132:BN132">
     <cfRule type="expression" dxfId="11" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
+  <conditionalFormatting sqref="H131">
     <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18769,12 +18654,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K132:BN132">
+  <conditionalFormatting sqref="K131:BN131">
     <cfRule type="expression" dxfId="10" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
+  <conditionalFormatting sqref="H134">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18788,7 +18673,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K135:BN135">
+  <conditionalFormatting sqref="K134:BN134">
     <cfRule type="expression" dxfId="9" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -18850,7 +18735,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H71">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18864,12 +18749,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
+  <conditionalFormatting sqref="K71:BN71">
     <cfRule type="expression" dxfId="5" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H90">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18883,12 +18768,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN91">
+  <conditionalFormatting sqref="K90:BN90">
     <cfRule type="expression" dxfId="4" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H83">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18902,12 +18787,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
+  <conditionalFormatting sqref="K83:BN83">
     <cfRule type="expression" dxfId="3" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H84">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18921,12 +18806,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
+  <conditionalFormatting sqref="K84:BN84">
     <cfRule type="expression" dxfId="2" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H135">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18940,12 +18825,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K136:BN136">
+  <conditionalFormatting sqref="K135:BN135">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H47">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18959,7 +18844,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
+  <conditionalFormatting sqref="K47:BN47">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -18974,8 +18859,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E49 E88 G49:H49 H103 H73 H60 H70 H89 H92:H93 H88" unlockedFormula="1"/>
-    <ignoredError sqref="A88 A49" formula="1"/>
+    <ignoredError sqref="E48 E87 G48:H48 H102 H72 H59 H69 H88 H91:H92 H87" unlockedFormula="1"/>
+    <ignoredError sqref="A87 A48" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -19023,7 +18908,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H47 H49 H83 H60 H73 H88:H89 H70 H92:H93 H103 H122</xm:sqref>
+          <xm:sqref>H8:H9 H46 H48 H82 H59 H72 H87:H88 H69 H91:H92 H102 H121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B2163715-8EBF-4ECA-9D50-501563E55A4B}">
@@ -19038,10 +18923,25 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H126:H127 H131 H134</xm:sqref>
+          <xm:sqref>H125:H126 H130 H133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A17471B-557C-4E65-A854-27EC1402D477}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A95D734C-6EB4-4EBE-8214-0D2DC7D93497}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19056,7 +18956,7 @@
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A95D734C-6EB4-4EBE-8214-0D2DC7D93497}">
+          <x14:cfRule type="dataBar" id="{9813636B-4F0E-48C1-9655-FF713A116EDF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19071,7 +18971,7 @@
           <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9813636B-4F0E-48C1-9655-FF713A116EDF}">
+          <x14:cfRule type="dataBar" id="{774D44FC-5846-4374-A9F1-1179C1D016C6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19086,7 +18986,7 @@
           <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{774D44FC-5846-4374-A9F1-1179C1D016C6}">
+          <x14:cfRule type="dataBar" id="{E232DA9A-BF25-49F0-AC07-38715E03ECA9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19101,7 +19001,7 @@
           <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E232DA9A-BF25-49F0-AC07-38715E03ECA9}">
+          <x14:cfRule type="dataBar" id="{E5E5450F-D45D-4716-B9EE-C8BCADEABF4B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19116,7 +19016,7 @@
           <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5E5450F-D45D-4716-B9EE-C8BCADEABF4B}">
+          <x14:cfRule type="dataBar" id="{1068551E-16AC-459E-8BE4-D195A5C62F35}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19131,7 +19031,7 @@
           <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1068551E-16AC-459E-8BE4-D195A5C62F35}">
+          <x14:cfRule type="dataBar" id="{35FFA150-2212-46AA-B542-72E06B5774DE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19143,22 +19043,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35FFA150-2212-46AA-B542-72E06B5774DE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{25E539A1-8BEC-4C40-AAA0-0C64BA871BA5}">
@@ -19203,10 +19088,25 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
+          <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B696BCA4-5CFD-48C6-BB60-538AE0CE40C2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C49B6A5-30BA-4E07-BC0F-A9DAE6BD8698}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19221,7 +19121,7 @@
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0C49B6A5-30BA-4E07-BC0F-A9DAE6BD8698}">
+          <x14:cfRule type="dataBar" id="{E17CFE8A-21C8-4D8B-91F7-4868C91731BD}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19236,7 +19136,7 @@
           <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E17CFE8A-21C8-4D8B-91F7-4868C91731BD}">
+          <x14:cfRule type="dataBar" id="{68C64920-8702-4997-9EDE-0C7EA6C1BC4C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19251,7 +19151,7 @@
           <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68C64920-8702-4997-9EDE-0C7EA6C1BC4C}">
+          <x14:cfRule type="dataBar" id="{8386B425-7FC9-417B-9FEE-4E866F319198}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19266,7 +19166,7 @@
           <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8386B425-7FC9-417B-9FEE-4E866F319198}">
+          <x14:cfRule type="dataBar" id="{EF4006A7-8C7F-4B9D-A27D-C90DC78E4242}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19281,7 +19181,7 @@
           <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF4006A7-8C7F-4B9D-A27D-C90DC78E4242}">
+          <x14:cfRule type="dataBar" id="{B6307B45-BD90-4358-8AFE-AAB6AB1E83E5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19296,7 +19196,7 @@
           <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6307B45-BD90-4358-8AFE-AAB6AB1E83E5}">
+          <x14:cfRule type="dataBar" id="{ED91C897-5804-4DA6-91D4-7D5FC0BEFB7D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19308,22 +19208,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED91C897-5804-4DA6-91D4-7D5FC0BEFB7D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18FFBC65-A763-4D92-855F-AD1F36E9DDA2}">
@@ -19533,10 +19418,25 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{19A2DD6D-3382-4E99-B082-A344F1D3A5D1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19A2DD6D-3382-4E99-B082-A344F1D3A5D1}">
+          <x14:cfRule type="dataBar" id="{3DAA9D83-48CE-43ED-B23F-B4B89679CD08}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19551,7 +19451,7 @@
           <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3DAA9D83-48CE-43ED-B23F-B4B89679CD08}">
+          <x14:cfRule type="dataBar" id="{449F95BD-8E29-4B42-98B4-4EE4D65984D3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19566,7 +19466,7 @@
           <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{449F95BD-8E29-4B42-98B4-4EE4D65984D3}">
+          <x14:cfRule type="dataBar" id="{51ABC9FB-C76A-4FFC-9865-873CA68FC741}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19581,7 +19481,7 @@
           <xm:sqref>H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51ABC9FB-C76A-4FFC-9865-873CA68FC741}">
+          <x14:cfRule type="dataBar" id="{AE739472-CCEB-4ABA-84C2-D0C115E8B6F0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19596,7 +19496,7 @@
           <xm:sqref>H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AE739472-CCEB-4ABA-84C2-D0C115E8B6F0}">
+          <x14:cfRule type="dataBar" id="{226BE6C4-41CA-48A5-9C8B-46FE2627052E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19611,7 +19511,7 @@
           <xm:sqref>H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{226BE6C4-41CA-48A5-9C8B-46FE2627052E}">
+          <x14:cfRule type="dataBar" id="{DD5ED029-0247-42C7-9376-E4AA96220959}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19623,10 +19523,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD5ED029-0247-42C7-9376-E4AA96220959}">
+          <x14:cfRule type="dataBar" id="{80C7B214-E503-446F-AACC-ABC2A9C1AE3A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19638,10 +19538,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80C7B214-E503-446F-AACC-ABC2A9C1AE3A}">
+          <x14:cfRule type="dataBar" id="{75C89A18-54AB-4F9C-A423-3153F07F081E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19656,7 +19556,7 @@
           <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75C89A18-54AB-4F9C-A423-3153F07F081E}">
+          <x14:cfRule type="dataBar" id="{685C0734-E1B8-4DB5-8876-3F2AB007A51D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19671,7 +19571,7 @@
           <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{685C0734-E1B8-4DB5-8876-3F2AB007A51D}">
+          <x14:cfRule type="dataBar" id="{B390B206-6C04-4484-8DEC-679892B47F0A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19686,7 +19586,7 @@
           <xm:sqref>H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B390B206-6C04-4484-8DEC-679892B47F0A}">
+          <x14:cfRule type="dataBar" id="{0291B26D-894E-4558-B409-F9D342525F58}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19701,7 +19601,7 @@
           <xm:sqref>H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0291B26D-894E-4558-B409-F9D342525F58}">
+          <x14:cfRule type="dataBar" id="{3860D0ED-25E8-4D67-9AC5-B90B1DBDF216}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19716,7 +19616,7 @@
           <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3860D0ED-25E8-4D67-9AC5-B90B1DBDF216}">
+          <x14:cfRule type="dataBar" id="{3C32A98C-3B3E-4280-945A-2FFDF9045C02}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19731,7 +19631,7 @@
           <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C32A98C-3B3E-4280-945A-2FFDF9045C02}">
+          <x14:cfRule type="dataBar" id="{841FAB04-B424-4D46-B949-9E23F58B7811}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19743,10 +19643,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{841FAB04-B424-4D46-B949-9E23F58B7811}">
+          <x14:cfRule type="dataBar" id="{15F8BCAE-DB3E-4CD2-AF98-8DEAA41E1CAC}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19758,10 +19658,145 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15F8BCAE-DB3E-4CD2-AF98-8DEAA41E1CAC}">
+          <x14:cfRule type="dataBar" id="{42035E71-B9B1-4461-8DE9-4CDA45C0C830}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{099EA4DC-B274-49EF-8BB9-EAAF168E7252}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DC2A762-F1D9-4614-9B29-53E40ECDAA8E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7DCCBE09-6DBB-4127-8CA6-BEEFC13B36DE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{835C87DE-EB0C-4AD9-BC8B-29FCC0885A25}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E65C0C62-B910-4D5E-8A17-86112DC96FAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0A6DE3F-732F-49A1-8768-CF61992E416A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1FE7B33-3301-4023-9F63-6C6B252B55B8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{13EDA942-BC51-4DE4-9510-7A9712676C3F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4C7E1B42-A117-497E-A2A1-1C8B926D7B63}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19776,7 +19811,7 @@
           <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42035E71-B9B1-4461-8DE9-4CDA45C0C830}">
+          <x14:cfRule type="dataBar" id="{EC64EC7F-37F4-4903-9C17-C6873EA1F9DB}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19788,10 +19823,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{099EA4DC-B274-49EF-8BB9-EAAF168E7252}">
+          <x14:cfRule type="dataBar" id="{3A762629-57A0-49BD-8BDF-1DF721832E28}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19803,10 +19838,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DC2A762-F1D9-4614-9B29-53E40ECDAA8E}">
+          <x14:cfRule type="dataBar" id="{6B44860F-7284-4C2B-82F1-20A024AD3D70}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19818,10 +19853,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7DCCBE09-6DBB-4127-8CA6-BEEFC13B36DE}">
+          <x14:cfRule type="dataBar" id="{AB69090D-E280-4658-AEB8-6B4DA27C51A1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19833,160 +19868,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{835C87DE-EB0C-4AD9-BC8B-29FCC0885A25}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E65C0C62-B910-4D5E-8A17-86112DC96FAC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0A6DE3F-732F-49A1-8768-CF61992E416A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1FE7B33-3301-4023-9F63-6C6B252B55B8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13EDA942-BC51-4DE4-9510-7A9712676C3F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C7E1B42-A117-497E-A2A1-1C8B926D7B63}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5750202C-E296-4F19-837B-1B18AB94C415}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC64EC7F-37F4-4903-9C17-C6873EA1F9DB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A762629-57A0-49BD-8BDF-1DF721832E28}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6B44860F-7284-4C2B-82F1-20A024AD3D70}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB69090D-E280-4658-AEB8-6B4DA27C51A1}">
+          <x14:cfRule type="dataBar" id="{4C266898-06C6-44DA-8359-67AA8067CA6D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20001,7 +19886,7 @@
           <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C266898-06C6-44DA-8359-67AA8067CA6D}">
+          <x14:cfRule type="dataBar" id="{FF3736C1-0FBD-4475-AF41-6265F6F40B9D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20013,10 +19898,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF3736C1-0FBD-4475-AF41-6265F6F40B9D}">
+          <x14:cfRule type="dataBar" id="{A56701B1-A0CD-47F2-B15A-719050781909}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20028,10 +19913,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A56701B1-A0CD-47F2-B15A-719050781909}">
+          <x14:cfRule type="dataBar" id="{501D9318-0652-4972-9321-6A1A271008A3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20046,7 +19931,7 @@
           <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{501D9318-0652-4972-9321-6A1A271008A3}">
+          <x14:cfRule type="dataBar" id="{C440867F-0D20-4607-8CA3-A46E7308D699}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20061,7 +19946,7 @@
           <xm:sqref>H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C440867F-0D20-4607-8CA3-A46E7308D699}">
+          <x14:cfRule type="dataBar" id="{AF933B2B-34E4-4BC2-9025-E8C268A9A736}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20076,7 +19961,7 @@
           <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF933B2B-34E4-4BC2-9025-E8C268A9A736}">
+          <x14:cfRule type="dataBar" id="{FADD3EA2-3227-42CC-A058-DDEF0EEF6E7E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20091,7 +19976,7 @@
           <xm:sqref>H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FADD3EA2-3227-42CC-A058-DDEF0EEF6E7E}">
+          <x14:cfRule type="dataBar" id="{F67F867B-BCA4-43D4-955F-DFA642AD8663}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20106,7 +19991,7 @@
           <xm:sqref>H100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F67F867B-BCA4-43D4-955F-DFA642AD8663}">
+          <x14:cfRule type="dataBar" id="{B6E178CC-D4E8-4000-9263-D5FA810DE6FE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20121,37 +20006,7 @@
           <xm:sqref>H101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6E178CC-D4E8-4000-9263-D5FA810DE6FE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H102</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07294A54-9EE1-4C72-8F09-8E954F24127B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C40F8D2A-9E4A-42D8-B0B7-3F9E448078A6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20166,7 +20021,187 @@
           <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C40F8D2A-9E4A-42D8-B0B7-3F9E448078A6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H93</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2CEE0E9-EFB0-4976-82D0-AACEE83165E6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AE7DCA60-AB8B-4004-AC23-51C80D7C4AD9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H109</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A630620F-D47D-43F1-8D1E-E73189DE4D5D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H111</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4CB62942-71C5-42BC-91E6-9E018E99AF52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9AEBE713-85B2-4F0D-9D91-D7777BC5EA49}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09C81860-2826-498E-842F-74131CF94BCD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H117</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1B4B95D-5672-4252-ADC2-738702B5D71B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H119</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1678B17A-E03B-4DE4-A738-FD5C4B362F97}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H105</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{64E01FD5-A9A6-4690-AEFE-9638888937C5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7E24DB83-EC9C-4EC0-B0EB-BED2123D9D98}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H104</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6CFF17CD-3DC6-4792-BC26-4C59955E92AA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H106</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{697A1C6E-F654-4059-8CB0-495C5A850982}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20181,7 +20216,7 @@
           <xm:sqref>H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AE7DCA60-AB8B-4004-AC23-51C80D7C4AD9}">
+          <x14:cfRule type="dataBar" id="{84A71BC0-6639-4E23-BBFE-B8AE13ABDFA9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20196,7 +20231,7 @@
           <xm:sqref>H110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A630620F-D47D-43F1-8D1E-E73189DE4D5D}">
+          <x14:cfRule type="dataBar" id="{49124A96-F6F8-4ADE-A591-784C88182E41}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20211,7 +20246,7 @@
           <xm:sqref>H112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4CB62942-71C5-42BC-91E6-9E018E99AF52}">
+          <x14:cfRule type="dataBar" id="{18BA52E5-B553-46E1-A0B8-DEBD1186DA8E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20226,7 +20261,7 @@
           <xm:sqref>H114</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9AEBE713-85B2-4F0D-9D91-D7777BC5EA49}">
+          <x14:cfRule type="dataBar" id="{DEB30DF3-D251-4E6D-A733-C0B469B7215E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20241,7 +20276,7 @@
           <xm:sqref>H116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{09C81860-2826-498E-842F-74131CF94BCD}">
+          <x14:cfRule type="dataBar" id="{3A95CEAC-51BE-4753-ADBA-EDCDCC042E0D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20256,7 +20291,7 @@
           <xm:sqref>H118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1B4B95D-5672-4252-ADC2-738702B5D71B}">
+          <x14:cfRule type="dataBar" id="{DAA9E4AA-1424-4CB5-B893-FE3BFEF5F846}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20271,7 +20306,7 @@
           <xm:sqref>H120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1678B17A-E03B-4DE4-A738-FD5C4B362F97}">
+          <x14:cfRule type="dataBar" id="{ABFABFE9-AD74-4534-AB9F-B240CE24B317}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20283,160 +20318,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
+          <xm:sqref>H122</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64E01FD5-A9A6-4690-AEFE-9638888937C5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E24DB83-EC9C-4EC0-B0EB-BED2123D9D98}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6CFF17CD-3DC6-4792-BC26-4C59955E92AA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{697A1C6E-F654-4059-8CB0-495C5A850982}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84A71BC0-6639-4E23-BBFE-B8AE13ABDFA9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H111</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49124A96-F6F8-4ADE-A591-784C88182E41}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18BA52E5-B553-46E1-A0B8-DEBD1186DA8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DEB30DF3-D251-4E6D-A733-C0B469B7215E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A95CEAC-51BE-4753-ADBA-EDCDCC042E0D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H119</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAA9E4AA-1424-4CB5-B893-FE3BFEF5F846}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H121</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABFABFE9-AD74-4534-AB9F-B240CE24B317}">
+          <x14:cfRule type="dataBar" id="{96F6C1B6-C953-41B2-B796-3B21133EE235}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20451,7 +20336,7 @@
           <xm:sqref>H123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96F6C1B6-C953-41B2-B796-3B21133EE235}">
+          <x14:cfRule type="dataBar" id="{F9F0CC17-E959-446D-BADB-B3D8762306A6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20466,7 +20351,7 @@
           <xm:sqref>H124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F9F0CC17-E959-446D-BADB-B3D8762306A6}">
+          <x14:cfRule type="dataBar" id="{107CE8E3-1C76-498B-AC05-D52F04A4E749}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20478,10 +20363,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H125</xm:sqref>
+          <xm:sqref>H129</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{107CE8E3-1C76-498B-AC05-D52F04A4E749}">
+          <x14:cfRule type="dataBar" id="{0EA6EB24-3A3A-4DC0-9523-AA0EA5D6BD37}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20493,40 +20378,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H130</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0EA6EB24-3A3A-4DC0-9523-AA0EA5D6BD37}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H128:H129</xm:sqref>
+          <xm:sqref>H127:H128</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{213007D5-B229-4D63-82AB-A5E8D3DB9021}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H133</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA0FBEAC-E070-4FEE-A486-8434701F9C3D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20541,7 +20396,7 @@
           <xm:sqref>H132</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ECE9105D-AFF4-479D-BCA2-328CF70580A2}">
+          <x14:cfRule type="dataBar" id="{FA0FBEAC-E070-4FEE-A486-8434701F9C3D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20553,7 +20408,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H135</xm:sqref>
+          <xm:sqref>H131</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ECE9105D-AFF4-479D-BCA2-328CF70580A2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C89024CD-84DC-4471-9609-167084AE8F0E}">
@@ -20613,7 +20483,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9126A156-0AFB-400A-A726-62DDE7C4DB26}">
@@ -20628,10 +20498,25 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
+          <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8DBF7D6-CE8D-4AFA-B141-B28C3E900945}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2883FA23-26DA-45E3-AB06-63646B2B8604}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20646,7 +20531,7 @@
           <xm:sqref>H84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2883FA23-26DA-45E3-AB06-63646B2B8604}">
+          <x14:cfRule type="dataBar" id="{F0E4E7F1-E777-4F7C-9E55-B3A6471A7711}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20658,10 +20543,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
+          <xm:sqref>H135</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F0E4E7F1-E777-4F7C-9E55-B3A6471A7711}">
+          <x14:cfRule type="dataBar" id="{6958FB69-6ED8-4018-9699-8A7BDC8E2C44}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20673,22 +20558,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H136</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6958FB69-6ED8-4018-9699-8A7BDC8E2C44}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/HTCS5607 - Gantt Chart.xlsx
+++ b/HTCS5607 - Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharish\Documents\unitec\HTCS5607 IS Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1742E-92E3-4C66-9898-9BB4C237F1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711DD1A9-8567-40EC-95D7-F62CCC0C2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$125</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="235">
   <si>
     <t>WBS</t>
   </si>
@@ -1572,9 +1572,6 @@
     <t xml:space="preserve">Information Gathering </t>
   </si>
   <si>
-    <t>Project Initalization</t>
-  </si>
-  <si>
     <t>Information Analysis</t>
   </si>
   <si>
@@ -1816,6 +1813,9 @@
   </si>
   <si>
     <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Project  Initialization</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3101,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="115">
     <dxf>
       <border>
         <left style="thin">
@@ -3139,16 +3139,18 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -5202,11 +5204,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN136"/>
+  <dimension ref="A1:BN135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6000,7 +6002,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I121" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I120" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -6063,7 +6065,7 @@
     </row>
     <row r="9" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="str">
-        <f t="shared" ref="A9:A46" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A45" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="98" t="s">
@@ -6154,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="77"/>
@@ -6659,7 +6661,7 @@
         <v>44459</v>
       </c>
       <c r="F16" s="76">
-        <f t="shared" ref="F16:F23" si="11">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <f t="shared" ref="F16:F26" si="11">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>44459</v>
       </c>
       <c r="G16" s="58">
@@ -6669,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="60">
-        <f t="shared" ref="I16:I23" si="12">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+        <f t="shared" ref="I16:I26" si="12">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
         <v>1</v>
       </c>
       <c r="J16" s="73"/>
@@ -7234,98 +7236,104 @@
       <c r="BM22" s="79"/>
       <c r="BN22" s="79"/>
     </row>
-    <row r="23" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="str">
+    <row r="23" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.4</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="75">
+        <v>44460</v>
+      </c>
+      <c r="F23" s="76">
         <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55" t="str">
+        <v>44460</v>
+      </c>
+      <c r="G23" s="58">
+        <v>1</v>
+      </c>
+      <c r="H23" s="59">
+        <v>1</v>
+      </c>
+      <c r="I23" s="60">
         <f t="shared" si="12"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="81"/>
-      <c r="AT23" s="81"/>
-      <c r="AU23" s="81"/>
-      <c r="AV23" s="81"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="81"/>
-      <c r="BF23" s="81"/>
-      <c r="BG23" s="81"/>
-      <c r="BH23" s="81"/>
-      <c r="BI23" s="81"/>
-      <c r="BJ23" s="81"/>
-      <c r="BK23" s="81"/>
-      <c r="BL23" s="81"/>
-      <c r="BM23" s="81"/>
-      <c r="BN23" s="81"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="79"/>
+      <c r="AS23" s="79"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
+      <c r="BD23" s="79"/>
+      <c r="BE23" s="79"/>
+      <c r="BF23" s="79"/>
+      <c r="BG23" s="79"/>
+      <c r="BH23" s="79"/>
+      <c r="BI23" s="79"/>
+      <c r="BJ23" s="79"/>
+      <c r="BK23" s="79"/>
+      <c r="BL23" s="79"/>
+      <c r="BM23" s="79"/>
+      <c r="BN23" s="79"/>
     </row>
     <row r="24" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B24" s="98" t="s">
-        <v>226</v>
+        <f t="shared" ref="A24:A25" si="13">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.4.1</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>227</v>
       </c>
       <c r="D24" s="99"/>
       <c r="E24" s="75">
         <v>44460</v>
       </c>
       <c r="F24" s="76">
-        <f t="shared" ref="F24:F26" si="13">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <f t="shared" si="11"/>
         <v>44460</v>
       </c>
       <c r="G24" s="58">
@@ -7335,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="60">
-        <f t="shared" ref="I24:I26" si="14">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J24" s="73"/>
@@ -7398,28 +7406,28 @@
     </row>
     <row r="25" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="str">
-        <f t="shared" ref="A25:A26" si="15">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
+        <f t="shared" si="13"/>
+        <v>2.4.2</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="75">
         <v>44460</v>
       </c>
       <c r="F25" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>44460</v>
       </c>
       <c r="G25" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="59">
         <v>1</v>
       </c>
       <c r="I25" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J25" s="73"/>
@@ -7480,94 +7488,88 @@
       <c r="BM25" s="79"/>
       <c r="BN25" s="79"/>
     </row>
-    <row r="26" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="str">
-        <f t="shared" si="15"/>
-        <v>3.1.2</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="75">
-        <v>44460</v>
-      </c>
-      <c r="F26" s="76">
-        <f t="shared" si="13"/>
-        <v>44460</v>
-      </c>
-      <c r="G26" s="58">
-        <v>0</v>
-      </c>
-      <c r="H26" s="59">
-        <v>0</v>
-      </c>
-      <c r="I26" s="60">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="79"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="79"/>
-      <c r="BD26" s="79"/>
-      <c r="BE26" s="79"/>
-      <c r="BF26" s="79"/>
-      <c r="BG26" s="79"/>
-      <c r="BH26" s="79"/>
-      <c r="BI26" s="79"/>
-      <c r="BJ26" s="79"/>
-      <c r="BK26" s="79"/>
-      <c r="BL26" s="79"/>
-      <c r="BM26" s="79"/>
-      <c r="BN26" s="79"/>
+    <row r="26" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J26" s="74"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="81"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="81"/>
+      <c r="AR26" s="81"/>
+      <c r="AS26" s="81"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="81"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="81"/>
+      <c r="AZ26" s="81"/>
+      <c r="BA26" s="81"/>
+      <c r="BB26" s="81"/>
+      <c r="BC26" s="81"/>
+      <c r="BD26" s="81"/>
+      <c r="BE26" s="81"/>
+      <c r="BF26" s="81"/>
+      <c r="BG26" s="81"/>
+      <c r="BH26" s="81"/>
+      <c r="BI26" s="81"/>
+      <c r="BJ26" s="81"/>
+      <c r="BK26" s="81"/>
+      <c r="BL26" s="81"/>
+      <c r="BM26" s="81"/>
+      <c r="BN26" s="81"/>
     </row>
     <row r="27" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>139</v>
@@ -7577,17 +7579,17 @@
         <v>44466</v>
       </c>
       <c r="F27" s="76">
-        <f t="shared" ref="F27" si="16">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <f t="shared" ref="F27" si="14">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
         <v>44470</v>
       </c>
       <c r="G27" s="58">
         <v>5</v>
       </c>
       <c r="H27" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="60">
-        <f t="shared" ref="I27" si="17">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
+        <f t="shared" ref="I27" si="15">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
         <v>5</v>
       </c>
       <c r="J27" s="73"/>
@@ -7650,25 +7652,25 @@
     </row>
     <row r="28" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="str">
-        <f t="shared" ref="A28:A35" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
+        <f t="shared" ref="A28:A35" si="16">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="75">
         <v>44466</v>
       </c>
       <c r="F28" s="76">
-        <f t="shared" ref="F28:F121" si="19">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <f t="shared" ref="F28:F120" si="17">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
         <v>44470</v>
       </c>
       <c r="G28" s="58">
         <v>5</v>
       </c>
       <c r="H28" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="60">
         <f t="shared" si="4"/>
@@ -7734,25 +7736,25 @@
     </row>
     <row r="29" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.2</v>
+        <f t="shared" si="16"/>
+        <v>3.1.2</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="75">
         <v>44466</v>
       </c>
       <c r="F29" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G29" s="58">
         <v>5</v>
       </c>
       <c r="H29" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="60">
         <f t="shared" si="4"/>
@@ -7818,25 +7820,25 @@
     </row>
     <row r="30" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.3</v>
+        <f t="shared" si="16"/>
+        <v>3.1.3</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="75">
         <v>44466</v>
       </c>
       <c r="F30" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G30" s="58">
         <v>5</v>
       </c>
       <c r="H30" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="60">
         <f t="shared" si="4"/>
@@ -7902,25 +7904,25 @@
     </row>
     <row r="31" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.4</v>
+        <f t="shared" si="16"/>
+        <v>3.1.4</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="99"/>
       <c r="E31" s="75">
         <v>44466</v>
       </c>
       <c r="F31" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G31" s="58">
         <v>5</v>
       </c>
       <c r="H31" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="60">
         <f t="shared" si="4"/>
@@ -7986,25 +7988,25 @@
     </row>
     <row r="32" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.5</v>
+        <f t="shared" si="16"/>
+        <v>3.1.5</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="75">
         <v>44466</v>
       </c>
       <c r="F32" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G32" s="58">
         <v>5</v>
       </c>
       <c r="H32" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="60">
         <f t="shared" si="4"/>
@@ -8070,25 +8072,25 @@
     </row>
     <row r="33" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.6</v>
+        <f t="shared" si="16"/>
+        <v>3.1.6</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="75">
         <v>44466</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G33" s="58">
         <v>5</v>
       </c>
       <c r="H33" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="60">
         <f t="shared" si="4"/>
@@ -8154,25 +8156,25 @@
     </row>
     <row r="34" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.7</v>
+        <f t="shared" si="16"/>
+        <v>3.1.7</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="75">
         <v>44466</v>
       </c>
       <c r="F34" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G34" s="58">
         <v>5</v>
       </c>
       <c r="H34" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="60">
         <f t="shared" si="4"/>
@@ -8238,25 +8240,25 @@
     </row>
     <row r="35" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.2.8</v>
+        <f t="shared" si="16"/>
+        <v>3.1.8</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="75">
         <v>44466</v>
       </c>
       <c r="F35" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G35" s="58">
         <v>5</v>
       </c>
       <c r="H35" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="60">
         <f t="shared" si="4"/>
@@ -8323,7 +8325,7 @@
     <row r="36" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B36" s="98" t="s">
         <v>138</v>
@@ -8333,17 +8335,17 @@
         <v>44466</v>
       </c>
       <c r="F36" s="76">
-        <f t="shared" ref="F36:F45" si="20">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <f t="shared" ref="F36:F44" si="18">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v>44470</v>
       </c>
       <c r="G36" s="58">
         <v>5</v>
       </c>
       <c r="H36" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="60">
-        <f t="shared" ref="I36:I45" si="21">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <f t="shared" ref="I36:I44" si="19">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>5</v>
       </c>
       <c r="J36" s="73"/>
@@ -8406,28 +8408,28 @@
     </row>
     <row r="37" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="str">
-        <f t="shared" ref="A37:A45" si="22">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.1</v>
+        <f t="shared" ref="A37:A44" si="20">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D37" s="99"/>
       <c r="E37" s="75">
         <v>44466</v>
       </c>
       <c r="F37" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G37" s="58">
         <v>5</v>
       </c>
       <c r="H37" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J37" s="73"/>
@@ -8490,8 +8492,8 @@
     </row>
     <row r="38" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.2</v>
+        <f t="shared" si="20"/>
+        <v>3.2.2</v>
       </c>
       <c r="B38" s="100" t="s">
         <v>167</v>
@@ -8501,17 +8503,17 @@
         <v>44466</v>
       </c>
       <c r="F38" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G38" s="58">
         <v>5</v>
       </c>
       <c r="H38" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J38" s="73"/>
@@ -8574,8 +8576,8 @@
     </row>
     <row r="39" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.3</v>
+        <f t="shared" si="20"/>
+        <v>3.2.3</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>168</v>
@@ -8585,17 +8587,17 @@
         <v>44466</v>
       </c>
       <c r="F39" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G39" s="58">
         <v>5</v>
       </c>
       <c r="H39" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J39" s="73"/>
@@ -8658,8 +8660,8 @@
     </row>
     <row r="40" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.4</v>
+        <f t="shared" si="20"/>
+        <v>3.2.4</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>169</v>
@@ -8669,17 +8671,17 @@
         <v>44466</v>
       </c>
       <c r="F40" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G40" s="58">
         <v>5</v>
       </c>
       <c r="H40" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J40" s="73"/>
@@ -8742,8 +8744,8 @@
     </row>
     <row r="41" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.5</v>
+        <f t="shared" si="20"/>
+        <v>3.2.5</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>170</v>
@@ -8753,17 +8755,17 @@
         <v>44466</v>
       </c>
       <c r="F41" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G41" s="58">
         <v>5</v>
       </c>
       <c r="H41" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J41" s="73"/>
@@ -8826,8 +8828,8 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.6</v>
+        <f t="shared" si="20"/>
+        <v>3.2.6</v>
       </c>
       <c r="B42" s="100" t="s">
         <v>171</v>
@@ -8837,17 +8839,17 @@
         <v>44466</v>
       </c>
       <c r="F42" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G42" s="58">
         <v>5</v>
       </c>
       <c r="H42" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J42" s="73"/>
@@ -8910,8 +8912,8 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.7</v>
+        <f t="shared" si="20"/>
+        <v>3.2.7</v>
       </c>
       <c r="B43" s="100" t="s">
         <v>172</v>
@@ -8921,17 +8923,17 @@
         <v>44466</v>
       </c>
       <c r="F43" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G43" s="58">
         <v>5</v>
       </c>
       <c r="H43" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J43" s="73"/>
@@ -8994,8 +8996,8 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.8</v>
+        <f t="shared" si="20"/>
+        <v>3.2.8</v>
       </c>
       <c r="B44" s="100" t="s">
         <v>173</v>
@@ -9005,17 +9007,17 @@
         <v>44466</v>
       </c>
       <c r="F44" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>44470</v>
       </c>
       <c r="G44" s="58">
         <v>5</v>
       </c>
       <c r="H44" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J44" s="73"/>
@@ -9078,28 +9080,28 @@
     </row>
     <row r="45" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.3.9</v>
-      </c>
-      <c r="B45" s="100" t="s">
-        <v>174</v>
+        <f t="shared" si="5"/>
+        <v>3.3</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>233</v>
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="75">
         <v>44466</v>
       </c>
       <c r="F45" s="76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>44470</v>
       </c>
       <c r="G45" s="58">
         <v>5</v>
       </c>
       <c r="H45" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J45" s="73"/>
@@ -9162,34 +9164,34 @@
     </row>
     <row r="46" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A46" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
       <c r="B46" s="98" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="D46" s="99"/>
       <c r="E46" s="75">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="F46" s="76">
-        <f t="shared" si="19"/>
-        <v>44470</v>
+        <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <v>44498</v>
       </c>
       <c r="G46" s="58">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H46" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="60">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
+        <v>10</v>
       </c>
       <c r="J46" s="73"/>
       <c r="K46" s="79"/>
       <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
+      <c r="M46" s="80"/>
       <c r="N46" s="79"/>
       <c r="O46" s="79"/>
       <c r="P46" s="79"/>
@@ -9244,192 +9246,192 @@
       <c r="BM46" s="79"/>
       <c r="BN46" s="79"/>
     </row>
-    <row r="47" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="str">
-        <f t="shared" ref="A47" si="23">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B47" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="75">
-        <v>44487</v>
-      </c>
-      <c r="F47" s="76">
-        <f>IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v>44498</v>
-      </c>
-      <c r="G47" s="58">
-        <v>12</v>
-      </c>
-      <c r="H47" s="59">
-        <v>0</v>
-      </c>
-      <c r="I47" s="60">
-        <f>IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
-        <v>10</v>
-      </c>
-      <c r="J47" s="73"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="79"/>
-      <c r="Z47" s="79"/>
-      <c r="AA47" s="79"/>
-      <c r="AB47" s="79"/>
-      <c r="AC47" s="79"/>
-      <c r="AD47" s="79"/>
-      <c r="AE47" s="79"/>
-      <c r="AF47" s="79"/>
-      <c r="AG47" s="79"/>
-      <c r="AH47" s="79"/>
-      <c r="AI47" s="79"/>
-      <c r="AJ47" s="79"/>
-      <c r="AK47" s="79"/>
-      <c r="AL47" s="79"/>
-      <c r="AM47" s="79"/>
-      <c r="AN47" s="79"/>
-      <c r="AO47" s="79"/>
-      <c r="AP47" s="79"/>
-      <c r="AQ47" s="79"/>
-      <c r="AR47" s="79"/>
-      <c r="AS47" s="79"/>
-      <c r="AT47" s="79"/>
-      <c r="AU47" s="79"/>
-      <c r="AV47" s="79"/>
-      <c r="AW47" s="79"/>
-      <c r="AX47" s="79"/>
-      <c r="AY47" s="79"/>
-      <c r="AZ47" s="79"/>
-      <c r="BA47" s="79"/>
-      <c r="BB47" s="79"/>
-      <c r="BC47" s="79"/>
-      <c r="BD47" s="79"/>
-      <c r="BE47" s="79"/>
-      <c r="BF47" s="79"/>
-      <c r="BG47" s="79"/>
-      <c r="BH47" s="79"/>
-      <c r="BI47" s="79"/>
-      <c r="BJ47" s="79"/>
-      <c r="BK47" s="79"/>
-      <c r="BL47" s="79"/>
-      <c r="BM47" s="79"/>
-      <c r="BN47" s="79"/>
-    </row>
-    <row r="48" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="str">
+    <row r="47" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B47" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77" t="str">
-        <f t="shared" si="19"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55" t="str">
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="V48" s="81"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81"/>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
-      <c r="AA48" s="81"/>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="81"/>
-      <c r="AD48" s="81"/>
-      <c r="AE48" s="81"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="81"/>
-      <c r="AH48" s="81"/>
-      <c r="AI48" s="81"/>
-      <c r="AJ48" s="81"/>
-      <c r="AK48" s="81"/>
-      <c r="AL48" s="81"/>
-      <c r="AM48" s="81"/>
-      <c r="AN48" s="81"/>
-      <c r="AO48" s="81"/>
-      <c r="AP48" s="81"/>
-      <c r="AQ48" s="81"/>
-      <c r="AR48" s="81"/>
-      <c r="AS48" s="81"/>
-      <c r="AT48" s="81"/>
-      <c r="AU48" s="81"/>
-      <c r="AV48" s="81"/>
-      <c r="AW48" s="81"/>
-      <c r="AX48" s="81"/>
-      <c r="AY48" s="81"/>
-      <c r="AZ48" s="81"/>
-      <c r="BA48" s="81"/>
-      <c r="BB48" s="81"/>
-      <c r="BC48" s="81"/>
-      <c r="BD48" s="81"/>
-      <c r="BE48" s="81"/>
-      <c r="BF48" s="81"/>
-      <c r="BG48" s="81"/>
-      <c r="BH48" s="81"/>
-      <c r="BI48" s="81"/>
-      <c r="BJ48" s="81"/>
-      <c r="BK48" s="81"/>
-      <c r="BL48" s="81"/>
-      <c r="BM48" s="81"/>
-      <c r="BN48" s="81"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="81"/>
+      <c r="AB47" s="81"/>
+      <c r="AC47" s="81"/>
+      <c r="AD47" s="81"/>
+      <c r="AE47" s="81"/>
+      <c r="AF47" s="81"/>
+      <c r="AG47" s="81"/>
+      <c r="AH47" s="81"/>
+      <c r="AI47" s="81"/>
+      <c r="AJ47" s="81"/>
+      <c r="AK47" s="81"/>
+      <c r="AL47" s="81"/>
+      <c r="AM47" s="81"/>
+      <c r="AN47" s="81"/>
+      <c r="AO47" s="81"/>
+      <c r="AP47" s="81"/>
+      <c r="AQ47" s="81"/>
+      <c r="AR47" s="81"/>
+      <c r="AS47" s="81"/>
+      <c r="AT47" s="81"/>
+      <c r="AU47" s="81"/>
+      <c r="AV47" s="81"/>
+      <c r="AW47" s="81"/>
+      <c r="AX47" s="81"/>
+      <c r="AY47" s="81"/>
+      <c r="AZ47" s="81"/>
+      <c r="BA47" s="81"/>
+      <c r="BB47" s="81"/>
+      <c r="BC47" s="81"/>
+      <c r="BD47" s="81"/>
+      <c r="BE47" s="81"/>
+      <c r="BF47" s="81"/>
+      <c r="BG47" s="81"/>
+      <c r="BH47" s="81"/>
+      <c r="BI47" s="81"/>
+      <c r="BJ47" s="81"/>
+      <c r="BK47" s="81"/>
+      <c r="BL47" s="81"/>
+      <c r="BM47" s="81"/>
+      <c r="BN47" s="81"/>
+    </row>
+    <row r="48" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="99"/>
+      <c r="E48" s="75">
+        <v>44487</v>
+      </c>
+      <c r="F48" s="76">
+        <f t="shared" ref="F48:F57" si="22">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44498</v>
+      </c>
+      <c r="G48" s="58">
+        <v>12</v>
+      </c>
+      <c r="H48" s="59">
+        <v>1</v>
+      </c>
+      <c r="I48" s="60">
+        <f t="shared" ref="I48:I57" si="23">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>10</v>
+      </c>
+      <c r="J48" s="73"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="79"/>
+      <c r="R48" s="79"/>
+      <c r="S48" s="79"/>
+      <c r="T48" s="79"/>
+      <c r="U48" s="79"/>
+      <c r="V48" s="79"/>
+      <c r="W48" s="79"/>
+      <c r="X48" s="79"/>
+      <c r="Y48" s="79"/>
+      <c r="Z48" s="79"/>
+      <c r="AA48" s="79"/>
+      <c r="AB48" s="79"/>
+      <c r="AC48" s="79"/>
+      <c r="AD48" s="79"/>
+      <c r="AE48" s="79"/>
+      <c r="AF48" s="79"/>
+      <c r="AG48" s="79"/>
+      <c r="AH48" s="79"/>
+      <c r="AI48" s="79"/>
+      <c r="AJ48" s="79"/>
+      <c r="AK48" s="79"/>
+      <c r="AL48" s="79"/>
+      <c r="AM48" s="79"/>
+      <c r="AN48" s="79"/>
+      <c r="AO48" s="79"/>
+      <c r="AP48" s="79"/>
+      <c r="AQ48" s="79"/>
+      <c r="AR48" s="79"/>
+      <c r="AS48" s="79"/>
+      <c r="AT48" s="79"/>
+      <c r="AU48" s="79"/>
+      <c r="AV48" s="79"/>
+      <c r="AW48" s="79"/>
+      <c r="AX48" s="79"/>
+      <c r="AY48" s="79"/>
+      <c r="AZ48" s="79"/>
+      <c r="BA48" s="79"/>
+      <c r="BB48" s="79"/>
+      <c r="BC48" s="79"/>
+      <c r="BD48" s="79"/>
+      <c r="BE48" s="79"/>
+      <c r="BF48" s="79"/>
+      <c r="BG48" s="79"/>
+      <c r="BH48" s="79"/>
+      <c r="BI48" s="79"/>
+      <c r="BJ48" s="79"/>
+      <c r="BK48" s="79"/>
+      <c r="BL48" s="79"/>
+      <c r="BM48" s="79"/>
+      <c r="BN48" s="79"/>
     </row>
     <row r="49" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B49" s="98" t="s">
-        <v>183</v>
+        <f t="shared" ref="A49:A57" si="24">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.1</v>
+      </c>
+      <c r="B49" s="100" t="s">
+        <v>185</v>
       </c>
       <c r="D49" s="99"/>
       <c r="E49" s="75">
         <v>44487</v>
       </c>
       <c r="F49" s="76">
-        <f t="shared" ref="F49:F58" si="24">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G49" s="58">
         <v>12</v>
       </c>
       <c r="H49" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="60">
-        <f t="shared" ref="I49:I58" si="25">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J49" s="73"/>
@@ -9492,28 +9494,28 @@
     </row>
     <row r="50" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="str">
-        <f t="shared" ref="A50:A58" si="26">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.1</v>
+        <f t="shared" si="24"/>
+        <v>4.1.2</v>
       </c>
       <c r="B50" s="100" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="75">
         <v>44487</v>
       </c>
       <c r="F50" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G50" s="58">
         <v>12</v>
       </c>
       <c r="H50" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J50" s="73"/>
@@ -9576,8 +9578,8 @@
     </row>
     <row r="51" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.2</v>
+        <f t="shared" si="24"/>
+        <v>4.1.3</v>
       </c>
       <c r="B51" s="100" t="s">
         <v>159</v>
@@ -9587,17 +9589,17 @@
         <v>44487</v>
       </c>
       <c r="F51" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G51" s="58">
         <v>12</v>
       </c>
       <c r="H51" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J51" s="73"/>
@@ -9660,8 +9662,8 @@
     </row>
     <row r="52" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.3</v>
+        <f t="shared" si="24"/>
+        <v>4.1.4</v>
       </c>
       <c r="B52" s="100" t="s">
         <v>160</v>
@@ -9671,17 +9673,17 @@
         <v>44487</v>
       </c>
       <c r="F52" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G52" s="58">
         <v>12</v>
       </c>
       <c r="H52" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J52" s="73"/>
@@ -9744,8 +9746,8 @@
     </row>
     <row r="53" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.4</v>
+        <f t="shared" si="24"/>
+        <v>4.1.5</v>
       </c>
       <c r="B53" s="100" t="s">
         <v>161</v>
@@ -9755,17 +9757,17 @@
         <v>44487</v>
       </c>
       <c r="F53" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G53" s="58">
         <v>12</v>
       </c>
       <c r="H53" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J53" s="73"/>
@@ -9828,8 +9830,8 @@
     </row>
     <row r="54" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.5</v>
+        <f t="shared" si="24"/>
+        <v>4.1.6</v>
       </c>
       <c r="B54" s="100" t="s">
         <v>162</v>
@@ -9839,17 +9841,17 @@
         <v>44487</v>
       </c>
       <c r="F54" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G54" s="58">
         <v>12</v>
       </c>
       <c r="H54" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J54" s="73"/>
@@ -9912,8 +9914,8 @@
     </row>
     <row r="55" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.6</v>
+        <f t="shared" si="24"/>
+        <v>4.1.7</v>
       </c>
       <c r="B55" s="100" t="s">
         <v>163</v>
@@ -9923,17 +9925,17 @@
         <v>44487</v>
       </c>
       <c r="F55" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G55" s="58">
         <v>12</v>
       </c>
       <c r="H55" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J55" s="73"/>
@@ -9996,8 +9998,8 @@
     </row>
     <row r="56" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.7</v>
+        <f t="shared" si="24"/>
+        <v>4.1.8</v>
       </c>
       <c r="B56" s="100" t="s">
         <v>164</v>
@@ -10007,17 +10009,17 @@
         <v>44487</v>
       </c>
       <c r="F56" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G56" s="58">
         <v>12</v>
       </c>
       <c r="H56" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J56" s="73"/>
@@ -10080,8 +10082,8 @@
     </row>
     <row r="57" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.8</v>
+        <f t="shared" si="24"/>
+        <v>4.1.9</v>
       </c>
       <c r="B57" s="100" t="s">
         <v>165</v>
@@ -10091,17 +10093,17 @@
         <v>44487</v>
       </c>
       <c r="F57" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44498</v>
       </c>
       <c r="G57" s="58">
         <v>12</v>
       </c>
       <c r="H57" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J57" s="73"/>
@@ -10164,28 +10166,28 @@
     </row>
     <row r="58" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.1.9</v>
-      </c>
-      <c r="B58" s="100" t="s">
-        <v>166</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>154</v>
       </c>
       <c r="D58" s="99"/>
       <c r="E58" s="75">
         <v>44487</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G58" s="58">
         <v>12</v>
       </c>
       <c r="H58" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J58" s="73"/>
@@ -10248,28 +10250,28 @@
     </row>
     <row r="59" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B59" s="98" t="s">
-        <v>155</v>
+        <f t="shared" ref="A59:A67" si="25">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
+      </c>
+      <c r="B59" s="100" t="s">
+        <v>187</v>
       </c>
       <c r="D59" s="99"/>
       <c r="E59" s="75">
         <v>44487</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F59" si="26">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
         <v>44498</v>
       </c>
       <c r="G59" s="58">
         <v>12</v>
       </c>
       <c r="H59" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I59" si="27">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
         <v>10</v>
       </c>
       <c r="J59" s="73"/>
@@ -10332,28 +10334,28 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f t="shared" ref="A60:A68" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
+        <f t="shared" si="25"/>
+        <v>4.2.2</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="75">
         <v>44487</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" ref="F60" si="28">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G60" s="58">
         <v>12</v>
       </c>
       <c r="H60" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="60">
-        <f t="shared" ref="I60" si="29">IF(OR(F60=0,E60=0)," - ",NETWORKDAYS(E60,F60))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J60" s="73"/>
@@ -10416,8 +10418,8 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.2</v>
+        <f t="shared" si="25"/>
+        <v>4.2.3</v>
       </c>
       <c r="B61" s="100" t="s">
         <v>167</v>
@@ -10427,14 +10429,14 @@
         <v>44487</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G61" s="58">
         <v>12</v>
       </c>
       <c r="H61" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="60">
         <f t="shared" si="4"/>
@@ -10500,8 +10502,8 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.3</v>
+        <f t="shared" si="25"/>
+        <v>4.2.4</v>
       </c>
       <c r="B62" s="100" t="s">
         <v>168</v>
@@ -10511,14 +10513,14 @@
         <v>44487</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G62" s="58">
         <v>12</v>
       </c>
       <c r="H62" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="60">
         <f t="shared" si="4"/>
@@ -10584,8 +10586,8 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.4</v>
+        <f t="shared" si="25"/>
+        <v>4.2.5</v>
       </c>
       <c r="B63" s="100" t="s">
         <v>169</v>
@@ -10595,14 +10597,14 @@
         <v>44487</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G63" s="58">
         <v>12</v>
       </c>
       <c r="H63" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="60">
         <f t="shared" si="4"/>
@@ -10668,8 +10670,8 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.5</v>
+        <f t="shared" si="25"/>
+        <v>4.2.6</v>
       </c>
       <c r="B64" s="100" t="s">
         <v>170</v>
@@ -10679,14 +10681,14 @@
         <v>44487</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G64" s="58">
         <v>12</v>
       </c>
       <c r="H64" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="60">
         <f t="shared" si="4"/>
@@ -10752,8 +10754,8 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.6</v>
+        <f t="shared" si="25"/>
+        <v>4.2.7</v>
       </c>
       <c r="B65" s="100" t="s">
         <v>171</v>
@@ -10763,14 +10765,14 @@
         <v>44487</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G65" s="58">
         <v>12</v>
       </c>
       <c r="H65" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="60">
         <f t="shared" si="4"/>
@@ -10836,8 +10838,8 @@
     </row>
     <row r="66" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.7</v>
+        <f t="shared" si="25"/>
+        <v>4.2.8</v>
       </c>
       <c r="B66" s="100" t="s">
         <v>172</v>
@@ -10847,14 +10849,14 @@
         <v>44487</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G66" s="58">
         <v>12</v>
       </c>
       <c r="H66" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="60">
         <f t="shared" si="4"/>
@@ -10920,8 +10922,8 @@
     </row>
     <row r="67" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.8</v>
+        <f t="shared" si="25"/>
+        <v>4.2.9</v>
       </c>
       <c r="B67" s="100" t="s">
         <v>173</v>
@@ -10931,14 +10933,14 @@
         <v>44487</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G67" s="58">
         <v>12</v>
       </c>
       <c r="H67" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="60">
         <f t="shared" si="4"/>
@@ -11004,25 +11006,25 @@
     </row>
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.9</v>
-      </c>
-      <c r="B68" s="100" t="s">
-        <v>174</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>155</v>
       </c>
       <c r="D68" s="99"/>
       <c r="E68" s="75">
         <v>44487</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G68" s="58">
         <v>12</v>
       </c>
       <c r="H68" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="60">
         <f t="shared" si="4"/>
@@ -11088,25 +11090,25 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B69" s="98" t="s">
-        <v>156</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.3.1</v>
+      </c>
+      <c r="B69" s="100" t="s">
+        <v>188</v>
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="75">
         <v>44487</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G69" s="58">
         <v>12</v>
       </c>
       <c r="H69" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="60">
         <f t="shared" si="4"/>
@@ -11173,27 +11175,27 @@
     <row r="70" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.3.1</v>
+        <v>4.3.2</v>
       </c>
       <c r="B70" s="100" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="75">
         <v>44487</v>
       </c>
       <c r="F70" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F70" si="28">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
         <v>44498</v>
       </c>
       <c r="G70" s="58">
         <v>12</v>
       </c>
       <c r="H70" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I70" si="29">IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
         <v>10</v>
       </c>
       <c r="J70" s="73"/>
@@ -11256,28 +11258,28 @@
     </row>
     <row r="71" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.3.2</v>
-      </c>
-      <c r="B71" s="100" t="s">
-        <v>229</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B71" s="98" t="s">
+        <v>156</v>
       </c>
       <c r="D71" s="99"/>
       <c r="E71" s="75">
         <v>44487</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" ref="F71" si="30">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G71" s="58">
         <v>12</v>
       </c>
       <c r="H71" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="60">
-        <f t="shared" ref="I71" si="31">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J71" s="73"/>
@@ -11340,25 +11342,25 @@
     </row>
     <row r="72" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B72" s="98" t="s">
-        <v>157</v>
+        <f t="shared" ref="A72:A80" si="30">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.4.1</v>
+      </c>
+      <c r="B72" s="100" t="s">
+        <v>186</v>
       </c>
       <c r="D72" s="99"/>
       <c r="E72" s="75">
         <v>44487</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G72" s="58">
         <v>12</v>
       </c>
       <c r="H72" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="60">
         <f t="shared" si="4"/>
@@ -11424,28 +11426,28 @@
     </row>
     <row r="73" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="str">
-        <f t="shared" ref="A73:A81" si="32">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.4.1</v>
+        <f t="shared" si="30"/>
+        <v>4.4.2</v>
       </c>
       <c r="B73" s="100" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="75">
         <v>44487</v>
       </c>
       <c r="F73" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F73:F80" si="31">IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
         <v>44498</v>
       </c>
       <c r="G73" s="58">
         <v>12</v>
       </c>
       <c r="H73" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I73:I80" si="32">IF(OR(F73=0,E73=0)," - ",NETWORKDAYS(E73,F73))</f>
         <v>10</v>
       </c>
       <c r="J73" s="73"/>
@@ -11508,8 +11510,8 @@
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.2</v>
+        <f t="shared" si="30"/>
+        <v>4.4.3</v>
       </c>
       <c r="B74" s="100" t="s">
         <v>175</v>
@@ -11519,17 +11521,17 @@
         <v>44487</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" ref="F74:F81" si="33">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G74" s="58">
         <v>12</v>
       </c>
       <c r="H74" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="60">
-        <f t="shared" ref="I74:I81" si="34">IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J74" s="73"/>
@@ -11592,8 +11594,8 @@
     </row>
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.3</v>
+        <f t="shared" si="30"/>
+        <v>4.4.4</v>
       </c>
       <c r="B75" s="100" t="s">
         <v>176</v>
@@ -11603,17 +11605,17 @@
         <v>44487</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G75" s="58">
         <v>12</v>
       </c>
       <c r="H75" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J75" s="73"/>
@@ -11676,8 +11678,8 @@
     </row>
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.4</v>
+        <f t="shared" si="30"/>
+        <v>4.4.5</v>
       </c>
       <c r="B76" s="100" t="s">
         <v>177</v>
@@ -11687,17 +11689,17 @@
         <v>44487</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G76" s="58">
         <v>12</v>
       </c>
       <c r="H76" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J76" s="73"/>
@@ -11760,8 +11762,8 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.5</v>
+        <f t="shared" si="30"/>
+        <v>4.4.6</v>
       </c>
       <c r="B77" s="100" t="s">
         <v>178</v>
@@ -11771,17 +11773,17 @@
         <v>44487</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G77" s="58">
         <v>12</v>
       </c>
       <c r="H77" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J77" s="73"/>
@@ -11844,8 +11846,8 @@
     </row>
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.6</v>
+        <f t="shared" si="30"/>
+        <v>4.4.7</v>
       </c>
       <c r="B78" s="100" t="s">
         <v>179</v>
@@ -11855,17 +11857,17 @@
         <v>44487</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G78" s="58">
         <v>12</v>
       </c>
       <c r="H78" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J78" s="73"/>
@@ -11928,8 +11930,8 @@
     </row>
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.7</v>
+        <f t="shared" si="30"/>
+        <v>4.4.8</v>
       </c>
       <c r="B79" s="100" t="s">
         <v>180</v>
@@ -11939,17 +11941,17 @@
         <v>44487</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G79" s="58">
         <v>12</v>
       </c>
       <c r="H79" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J79" s="73"/>
@@ -12012,8 +12014,8 @@
     </row>
     <row r="80" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.8</v>
+        <f t="shared" si="30"/>
+        <v>4.4.9</v>
       </c>
       <c r="B80" s="100" t="s">
         <v>181</v>
@@ -12023,17 +12025,17 @@
         <v>44487</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>44498</v>
       </c>
       <c r="G80" s="58">
         <v>12</v>
       </c>
       <c r="H80" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="J80" s="73"/>
@@ -12096,28 +12098,28 @@
     </row>
     <row r="81" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v>4.4.9</v>
-      </c>
-      <c r="B81" s="100" t="s">
-        <v>182</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B81" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="D81" s="99"/>
       <c r="E81" s="75">
         <v>44487</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>44498</v>
       </c>
       <c r="G81" s="58">
         <v>12</v>
       </c>
       <c r="H81" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J81" s="73"/>
@@ -12180,28 +12182,28 @@
     </row>
     <row r="82" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B82" s="98" t="s">
-        <v>158</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.5.1</v>
+      </c>
+      <c r="B82" s="100" t="s">
+        <v>230</v>
       </c>
       <c r="D82" s="99"/>
       <c r="E82" s="75">
         <v>44487</v>
       </c>
       <c r="F82" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F82:F83" si="33">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
         <v>44498</v>
       </c>
       <c r="G82" s="58">
         <v>12</v>
       </c>
       <c r="H82" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I82:I83" si="34">IF(OR(F82=0,E82=0)," - ",NETWORKDAYS(E82,F82))</f>
         <v>10</v>
       </c>
       <c r="J82" s="73"/>
@@ -12265,7 +12267,7 @@
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.5.1</v>
+        <v>4.5.2</v>
       </c>
       <c r="B83" s="100" t="s">
         <v>231</v>
@@ -12275,17 +12277,17 @@
         <v>44487</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" ref="F83:F84" si="35">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
+        <f t="shared" si="33"/>
         <v>44498</v>
       </c>
       <c r="G83" s="58">
         <v>12</v>
       </c>
       <c r="H83" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="60">
-        <f t="shared" ref="I83:I84" si="36">IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="J83" s="73"/>
@@ -12348,28 +12350,28 @@
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.5.2</v>
-      </c>
-      <c r="B84" s="100" t="s">
-        <v>232</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.6</v>
+      </c>
+      <c r="B84" s="98" t="s">
+        <v>193</v>
       </c>
       <c r="D84" s="99"/>
       <c r="E84" s="75">
         <v>44487</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="F84:F85" si="35">IF(ISBLANK(E84)," - ",IF(G84=0,E84,E84+G84-1))</f>
         <v>44498</v>
       </c>
       <c r="G84" s="58">
         <v>12</v>
       </c>
       <c r="H84" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="60">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="I84:I85" si="36">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
         <v>10</v>
       </c>
       <c r="J84" s="73"/>
@@ -12432,10 +12434,10 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.6</v>
-      </c>
-      <c r="B85" s="98" t="s">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.6.1</v>
+      </c>
+      <c r="B85" s="100" t="s">
         <v>194</v>
       </c>
       <c r="D85" s="99"/>
@@ -12443,17 +12445,17 @@
         <v>44487</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" ref="F85:F86" si="37">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
+        <f t="shared" si="35"/>
         <v>44498</v>
       </c>
       <c r="G85" s="58">
         <v>12</v>
       </c>
       <c r="H85" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="60">
-        <f t="shared" ref="I85:I86" si="38">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="J85" s="73"/>
@@ -12514,189 +12516,189 @@
       <c r="BM85" s="79"/>
       <c r="BN85" s="79"/>
     </row>
-    <row r="86" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.6.1</v>
-      </c>
-      <c r="B86" s="100" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" s="99"/>
-      <c r="E86" s="75">
-        <v>44487</v>
-      </c>
-      <c r="F86" s="76">
-        <f t="shared" si="37"/>
-        <v>44498</v>
-      </c>
-      <c r="G86" s="58">
-        <v>12</v>
-      </c>
-      <c r="H86" s="59">
-        <v>0</v>
-      </c>
-      <c r="I86" s="60">
-        <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="J86" s="73"/>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="79"/>
-      <c r="N86" s="79"/>
-      <c r="O86" s="79"/>
-      <c r="P86" s="79"/>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
-      <c r="W86" s="79"/>
-      <c r="X86" s="79"/>
-      <c r="Y86" s="79"/>
-      <c r="Z86" s="79"/>
-      <c r="AA86" s="79"/>
-      <c r="AB86" s="79"/>
-      <c r="AC86" s="79"/>
-      <c r="AD86" s="79"/>
-      <c r="AE86" s="79"/>
-      <c r="AF86" s="79"/>
-      <c r="AG86" s="79"/>
-      <c r="AH86" s="79"/>
-      <c r="AI86" s="79"/>
-      <c r="AJ86" s="79"/>
-      <c r="AK86" s="79"/>
-      <c r="AL86" s="79"/>
-      <c r="AM86" s="79"/>
-      <c r="AN86" s="79"/>
-      <c r="AO86" s="79"/>
-      <c r="AP86" s="79"/>
-      <c r="AQ86" s="79"/>
-      <c r="AR86" s="79"/>
-      <c r="AS86" s="79"/>
-      <c r="AT86" s="79"/>
-      <c r="AU86" s="79"/>
-      <c r="AV86" s="79"/>
-      <c r="AW86" s="79"/>
-      <c r="AX86" s="79"/>
-      <c r="AY86" s="79"/>
-      <c r="AZ86" s="79"/>
-      <c r="BA86" s="79"/>
-      <c r="BB86" s="79"/>
-      <c r="BC86" s="79"/>
-      <c r="BD86" s="79"/>
-      <c r="BE86" s="79"/>
-      <c r="BF86" s="79"/>
-      <c r="BG86" s="79"/>
-      <c r="BH86" s="79"/>
-      <c r="BI86" s="79"/>
-      <c r="BJ86" s="79"/>
-      <c r="BK86" s="79"/>
-      <c r="BL86" s="79"/>
-      <c r="BM86" s="79"/>
-      <c r="BN86" s="79"/>
-    </row>
-    <row r="87" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="49" t="str">
+    <row r="86" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B86" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77" t="str">
-        <f t="shared" si="19"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G87" s="53"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="55" t="str">
+      <c r="G86" s="53"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J87" s="74"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="81"/>
-      <c r="O87" s="81"/>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="V87" s="81"/>
-      <c r="W87" s="81"/>
-      <c r="X87" s="81"/>
-      <c r="Y87" s="81"/>
-      <c r="Z87" s="81"/>
-      <c r="AA87" s="81"/>
-      <c r="AB87" s="81"/>
-      <c r="AC87" s="81"/>
-      <c r="AD87" s="81"/>
-      <c r="AE87" s="81"/>
-      <c r="AF87" s="81"/>
-      <c r="AG87" s="81"/>
-      <c r="AH87" s="81"/>
-      <c r="AI87" s="81"/>
-      <c r="AJ87" s="81"/>
-      <c r="AK87" s="81"/>
-      <c r="AL87" s="81"/>
-      <c r="AM87" s="81"/>
-      <c r="AN87" s="81"/>
-      <c r="AO87" s="81"/>
-      <c r="AP87" s="81"/>
-      <c r="AQ87" s="81"/>
-      <c r="AR87" s="81"/>
-      <c r="AS87" s="81"/>
-      <c r="AT87" s="81"/>
-      <c r="AU87" s="81"/>
-      <c r="AV87" s="81"/>
-      <c r="AW87" s="81"/>
-      <c r="AX87" s="81"/>
-      <c r="AY87" s="81"/>
-      <c r="AZ87" s="81"/>
-      <c r="BA87" s="81"/>
-      <c r="BB87" s="81"/>
-      <c r="BC87" s="81"/>
-      <c r="BD87" s="81"/>
-      <c r="BE87" s="81"/>
-      <c r="BF87" s="81"/>
-      <c r="BG87" s="81"/>
-      <c r="BH87" s="81"/>
-      <c r="BI87" s="81"/>
-      <c r="BJ87" s="81"/>
-      <c r="BK87" s="81"/>
-      <c r="BL87" s="81"/>
-      <c r="BM87" s="81"/>
-      <c r="BN87" s="81"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="81"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
+      <c r="W86" s="81"/>
+      <c r="X86" s="81"/>
+      <c r="Y86" s="81"/>
+      <c r="Z86" s="81"/>
+      <c r="AA86" s="81"/>
+      <c r="AB86" s="81"/>
+      <c r="AC86" s="81"/>
+      <c r="AD86" s="81"/>
+      <c r="AE86" s="81"/>
+      <c r="AF86" s="81"/>
+      <c r="AG86" s="81"/>
+      <c r="AH86" s="81"/>
+      <c r="AI86" s="81"/>
+      <c r="AJ86" s="81"/>
+      <c r="AK86" s="81"/>
+      <c r="AL86" s="81"/>
+      <c r="AM86" s="81"/>
+      <c r="AN86" s="81"/>
+      <c r="AO86" s="81"/>
+      <c r="AP86" s="81"/>
+      <c r="AQ86" s="81"/>
+      <c r="AR86" s="81"/>
+      <c r="AS86" s="81"/>
+      <c r="AT86" s="81"/>
+      <c r="AU86" s="81"/>
+      <c r="AV86" s="81"/>
+      <c r="AW86" s="81"/>
+      <c r="AX86" s="81"/>
+      <c r="AY86" s="81"/>
+      <c r="AZ86" s="81"/>
+      <c r="BA86" s="81"/>
+      <c r="BB86" s="81"/>
+      <c r="BC86" s="81"/>
+      <c r="BD86" s="81"/>
+      <c r="BE86" s="81"/>
+      <c r="BF86" s="81"/>
+      <c r="BG86" s="81"/>
+      <c r="BH86" s="81"/>
+      <c r="BI86" s="81"/>
+      <c r="BJ86" s="81"/>
+      <c r="BK86" s="81"/>
+      <c r="BL86" s="81"/>
+      <c r="BM86" s="81"/>
+      <c r="BN86" s="81"/>
+    </row>
+    <row r="87" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B87" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="99"/>
+      <c r="E87" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F87" s="76">
+        <f t="shared" si="17"/>
+        <v>44512</v>
+      </c>
+      <c r="G87" s="58">
+        <v>12</v>
+      </c>
+      <c r="H87" s="59">
+        <v>1</v>
+      </c>
+      <c r="I87" s="60">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J87" s="73"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="79"/>
+      <c r="P87" s="79"/>
+      <c r="Q87" s="79"/>
+      <c r="R87" s="79"/>
+      <c r="S87" s="79"/>
+      <c r="T87" s="79"/>
+      <c r="U87" s="79"/>
+      <c r="V87" s="79"/>
+      <c r="W87" s="79"/>
+      <c r="X87" s="79"/>
+      <c r="Y87" s="79"/>
+      <c r="Z87" s="79"/>
+      <c r="AA87" s="79"/>
+      <c r="AB87" s="79"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="79"/>
+      <c r="AE87" s="79"/>
+      <c r="AF87" s="79"/>
+      <c r="AG87" s="79"/>
+      <c r="AH87" s="79"/>
+      <c r="AI87" s="79"/>
+      <c r="AJ87" s="79"/>
+      <c r="AK87" s="79"/>
+      <c r="AL87" s="79"/>
+      <c r="AM87" s="79"/>
+      <c r="AN87" s="79"/>
+      <c r="AO87" s="79"/>
+      <c r="AP87" s="79"/>
+      <c r="AQ87" s="79"/>
+      <c r="AR87" s="79"/>
+      <c r="AS87" s="79"/>
+      <c r="AT87" s="79"/>
+      <c r="AU87" s="79"/>
+      <c r="AV87" s="79"/>
+      <c r="AW87" s="79"/>
+      <c r="AX87" s="79"/>
+      <c r="AY87" s="79"/>
+      <c r="AZ87" s="79"/>
+      <c r="BA87" s="79"/>
+      <c r="BB87" s="79"/>
+      <c r="BC87" s="79"/>
+      <c r="BD87" s="79"/>
+      <c r="BE87" s="79"/>
+      <c r="BF87" s="79"/>
+      <c r="BG87" s="79"/>
+      <c r="BH87" s="79"/>
+      <c r="BI87" s="79"/>
+      <c r="BJ87" s="79"/>
+      <c r="BK87" s="79"/>
+      <c r="BL87" s="79"/>
+      <c r="BM87" s="79"/>
+      <c r="BN87" s="79"/>
     </row>
     <row r="88" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B88" s="98" t="s">
-        <v>184</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.1.1</v>
+      </c>
+      <c r="B88" s="100" t="s">
+        <v>196</v>
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="75">
         <v>44501</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G88" s="58">
         <v>12</v>
       </c>
       <c r="H88" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="60">
         <f t="shared" si="4"/>
@@ -12763,27 +12765,27 @@
     <row r="89" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.1</v>
+        <v>5.1.2</v>
       </c>
       <c r="B89" s="100" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="D89" s="99"/>
       <c r="E89" s="75">
         <v>44501</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F89" si="37">IF(ISBLANK(E89)," - ",IF(G89=0,E89,E89+G89-1))</f>
         <v>44512</v>
       </c>
       <c r="G89" s="58">
         <v>12</v>
       </c>
       <c r="H89" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I89" si="38">IF(OR(F89=0,E89=0)," - ",NETWORKDAYS(E89,F89))</f>
         <v>10</v>
       </c>
       <c r="J89" s="73"/>
@@ -12846,28 +12848,28 @@
     </row>
     <row r="90" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.1.2</v>
-      </c>
-      <c r="B90" s="100" t="s">
-        <v>230</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B90" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="D90" s="99"/>
       <c r="E90" s="75">
         <v>44501</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" ref="F90" si="39">IF(ISBLANK(E90)," - ",IF(G90=0,E90,E90+G90-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G90" s="58">
         <v>12</v>
       </c>
       <c r="H90" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="60">
-        <f t="shared" ref="I90" si="40">IF(OR(F90=0,E90=0)," - ",NETWORKDAYS(E90,F90))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J90" s="73"/>
@@ -12931,24 +12933,24 @@
     <row r="91" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B91" s="98" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D91" s="99"/>
       <c r="E91" s="75">
         <v>44501</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G91" s="58">
         <v>12</v>
       </c>
       <c r="H91" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="60">
         <f t="shared" si="4"/>
@@ -13014,28 +13016,28 @@
     </row>
     <row r="92" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B92" s="98" t="s">
-        <v>190</v>
+        <f t="shared" ref="A92:A119" si="39">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.3.1</v>
+      </c>
+      <c r="B92" s="100" t="s">
+        <v>186</v>
       </c>
       <c r="D92" s="99"/>
       <c r="E92" s="75">
         <v>44501</v>
       </c>
       <c r="F92" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F92:F100" si="40">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
         <v>44512</v>
       </c>
       <c r="G92" s="58">
         <v>12</v>
       </c>
       <c r="H92" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I92:I100" si="41">IF(OR(F92=0,E92=0)," - ",NETWORKDAYS(E92,F92))</f>
         <v>10</v>
       </c>
       <c r="J92" s="73"/>
@@ -13098,28 +13100,28 @@
     </row>
     <row r="93" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f t="shared" ref="A93:A120" si="41">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.3.1</v>
+        <f t="shared" si="39"/>
+        <v>5.3.2</v>
       </c>
       <c r="B93" s="100" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D93" s="99"/>
       <c r="E93" s="75">
         <v>44501</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" ref="F93:F101" si="42">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G93" s="58">
         <v>12</v>
       </c>
       <c r="H93" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" ref="I93:I101" si="43">IF(OR(F93=0,E93=0)," - ",NETWORKDAYS(E93,F93))</f>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J93" s="73"/>
@@ -13182,8 +13184,8 @@
     </row>
     <row r="94" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.2</v>
+        <f t="shared" si="39"/>
+        <v>5.3.3</v>
       </c>
       <c r="B94" s="100" t="s">
         <v>175</v>
@@ -13193,17 +13195,17 @@
         <v>44501</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G94" s="58">
         <v>12</v>
       </c>
       <c r="H94" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J94" s="73"/>
@@ -13266,8 +13268,8 @@
     </row>
     <row r="95" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.3</v>
+        <f t="shared" si="39"/>
+        <v>5.3.4</v>
       </c>
       <c r="B95" s="100" t="s">
         <v>176</v>
@@ -13277,17 +13279,17 @@
         <v>44501</v>
       </c>
       <c r="F95" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G95" s="58">
         <v>12</v>
       </c>
       <c r="H95" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J95" s="73"/>
@@ -13350,8 +13352,8 @@
     </row>
     <row r="96" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.4</v>
+        <f t="shared" si="39"/>
+        <v>5.3.5</v>
       </c>
       <c r="B96" s="100" t="s">
         <v>177</v>
@@ -13361,17 +13363,17 @@
         <v>44501</v>
       </c>
       <c r="F96" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G96" s="58">
         <v>12</v>
       </c>
       <c r="H96" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J96" s="73"/>
@@ -13434,8 +13436,8 @@
     </row>
     <row r="97" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.5</v>
+        <f t="shared" si="39"/>
+        <v>5.3.6</v>
       </c>
       <c r="B97" s="100" t="s">
         <v>178</v>
@@ -13445,17 +13447,17 @@
         <v>44501</v>
       </c>
       <c r="F97" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G97" s="58">
         <v>12</v>
       </c>
       <c r="H97" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J97" s="73"/>
@@ -13518,8 +13520,8 @@
     </row>
     <row r="98" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.6</v>
+        <f t="shared" si="39"/>
+        <v>5.3.7</v>
       </c>
       <c r="B98" s="100" t="s">
         <v>179</v>
@@ -13529,17 +13531,17 @@
         <v>44501</v>
       </c>
       <c r="F98" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G98" s="58">
         <v>12</v>
       </c>
       <c r="H98" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J98" s="73"/>
@@ -13602,8 +13604,8 @@
     </row>
     <row r="99" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.7</v>
+        <f t="shared" si="39"/>
+        <v>5.3.8</v>
       </c>
       <c r="B99" s="100" t="s">
         <v>180</v>
@@ -13613,17 +13615,17 @@
         <v>44501</v>
       </c>
       <c r="F99" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G99" s="58">
         <v>12</v>
       </c>
       <c r="H99" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J99" s="73"/>
@@ -13686,8 +13688,8 @@
     </row>
     <row r="100" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.8</v>
+        <f t="shared" si="39"/>
+        <v>5.3.9</v>
       </c>
       <c r="B100" s="100" t="s">
         <v>181</v>
@@ -13697,17 +13699,17 @@
         <v>44501</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>44512</v>
       </c>
       <c r="G100" s="58">
         <v>12</v>
       </c>
       <c r="H100" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="J100" s="73"/>
@@ -13770,28 +13772,28 @@
     </row>
     <row r="101" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.3.9</v>
-      </c>
-      <c r="B101" s="100" t="s">
-        <v>182</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.4</v>
+      </c>
+      <c r="B101" s="98" t="s">
+        <v>197</v>
       </c>
       <c r="D101" s="99"/>
       <c r="E101" s="75">
         <v>44501</v>
       </c>
       <c r="F101" s="76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G101" s="58">
         <v>12</v>
       </c>
       <c r="H101" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="60">
-        <f t="shared" si="43"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J101" s="73"/>
@@ -13854,10 +13856,10 @@
     </row>
     <row r="102" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
-      </c>
-      <c r="B102" s="98" t="s">
+        <f t="shared" si="39"/>
+        <v>5.4.1</v>
+      </c>
+      <c r="B102" s="100" t="s">
         <v>198</v>
       </c>
       <c r="D102" s="99"/>
@@ -13865,14 +13867,14 @@
         <v>44501</v>
       </c>
       <c r="F102" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G102" s="58">
         <v>12</v>
       </c>
       <c r="H102" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="60">
         <f t="shared" si="4"/>
@@ -13938,28 +13940,28 @@
     </row>
     <row r="103" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.1</v>
+        <f t="shared" si="39"/>
+        <v>5.4.2</v>
       </c>
       <c r="B103" s="100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D103" s="99"/>
       <c r="E103" s="75">
         <v>44501</v>
       </c>
       <c r="F103" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F103" si="42">IF(ISBLANK(E103)," - ",IF(G103=0,E103,E103+G103-1))</f>
         <v>44512</v>
       </c>
       <c r="G103" s="58">
         <v>12</v>
       </c>
       <c r="H103" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I103" si="43">IF(OR(F103=0,E103=0)," - ",NETWORKDAYS(E103,F103))</f>
         <v>10</v>
       </c>
       <c r="J103" s="73"/>
@@ -14022,28 +14024,28 @@
     </row>
     <row r="104" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.2</v>
+        <f t="shared" si="39"/>
+        <v>5.4.3</v>
       </c>
       <c r="B104" s="100" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D104" s="99"/>
       <c r="E104" s="75">
         <v>44501</v>
       </c>
       <c r="F104" s="76">
-        <f t="shared" ref="F104" si="44">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G104" s="58">
         <v>12</v>
       </c>
       <c r="H104" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="60">
-        <f t="shared" ref="I104" si="45">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J104" s="73"/>
@@ -14106,28 +14108,28 @@
     </row>
     <row r="105" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.3</v>
+        <f t="shared" si="39"/>
+        <v>5.4.4</v>
       </c>
       <c r="B105" s="100" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D105" s="99"/>
       <c r="E105" s="75">
         <v>44501</v>
       </c>
       <c r="F105" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F105" si="44">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
         <v>44512</v>
       </c>
       <c r="G105" s="58">
         <v>12</v>
       </c>
       <c r="H105" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I105" si="45">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
         <v>10</v>
       </c>
       <c r="J105" s="73"/>
@@ -14190,28 +14192,28 @@
     </row>
     <row r="106" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.4</v>
+        <f t="shared" si="39"/>
+        <v>5.4.5</v>
       </c>
       <c r="B106" s="100" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="75">
         <v>44501</v>
       </c>
       <c r="F106" s="76">
-        <f t="shared" ref="F106" si="46">IF(ISBLANK(E106)," - ",IF(G106=0,E106,E106+G106-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G106" s="58">
         <v>12</v>
       </c>
       <c r="H106" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="60">
-        <f t="shared" ref="I106" si="47">IF(OR(F106=0,E106=0)," - ",NETWORKDAYS(E106,F106))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J106" s="73"/>
@@ -14274,28 +14276,28 @@
     </row>
     <row r="107" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.5</v>
+        <f t="shared" si="39"/>
+        <v>5.4.6</v>
       </c>
       <c r="B107" s="100" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D107" s="99"/>
       <c r="E107" s="75">
         <v>44501</v>
       </c>
       <c r="F107" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F107" si="46">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
         <v>44512</v>
       </c>
       <c r="G107" s="58">
         <v>12</v>
       </c>
       <c r="H107" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I107" si="47">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
         <v>10</v>
       </c>
       <c r="J107" s="73"/>
@@ -14358,28 +14360,28 @@
     </row>
     <row r="108" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.6</v>
+        <f t="shared" si="39"/>
+        <v>5.4.7</v>
       </c>
       <c r="B108" s="100" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D108" s="99"/>
       <c r="E108" s="75">
         <v>44501</v>
       </c>
       <c r="F108" s="76">
-        <f t="shared" ref="F108" si="48">IF(ISBLANK(E108)," - ",IF(G108=0,E108,E108+G108-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G108" s="58">
         <v>12</v>
       </c>
       <c r="H108" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" s="60">
-        <f t="shared" ref="I108" si="49">IF(OR(F108=0,E108=0)," - ",NETWORKDAYS(E108,F108))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J108" s="73"/>
@@ -14442,28 +14444,28 @@
     </row>
     <row r="109" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.7</v>
+        <f t="shared" si="39"/>
+        <v>5.4.8</v>
       </c>
       <c r="B109" s="100" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D109" s="99"/>
       <c r="E109" s="75">
         <v>44501</v>
       </c>
       <c r="F109" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F109" si="48">IF(ISBLANK(E109)," - ",IF(G109=0,E109,E109+G109-1))</f>
         <v>44512</v>
       </c>
       <c r="G109" s="58">
         <v>12</v>
       </c>
       <c r="H109" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I109" si="49">IF(OR(F109=0,E109=0)," - ",NETWORKDAYS(E109,F109))</f>
         <v>10</v>
       </c>
       <c r="J109" s="73"/>
@@ -14526,28 +14528,28 @@
     </row>
     <row r="110" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.8</v>
+        <f t="shared" si="39"/>
+        <v>5.4.9</v>
       </c>
       <c r="B110" s="100" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D110" s="99"/>
       <c r="E110" s="75">
         <v>44501</v>
       </c>
       <c r="F110" s="76">
-        <f t="shared" ref="F110" si="50">IF(ISBLANK(E110)," - ",IF(G110=0,E110,E110+G110-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G110" s="58">
         <v>12</v>
       </c>
       <c r="H110" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="60">
-        <f t="shared" ref="I110" si="51">IF(OR(F110=0,E110=0)," - ",NETWORKDAYS(E110,F110))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J110" s="73"/>
@@ -14610,28 +14612,28 @@
     </row>
     <row r="111" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.9</v>
+        <f t="shared" si="39"/>
+        <v>5.4.10</v>
       </c>
       <c r="B111" s="100" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D111" s="99"/>
       <c r="E111" s="75">
         <v>44501</v>
       </c>
       <c r="F111" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F111" si="50">IF(ISBLANK(E111)," - ",IF(G111=0,E111,E111+G111-1))</f>
         <v>44512</v>
       </c>
       <c r="G111" s="58">
         <v>12</v>
       </c>
       <c r="H111" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I111" si="51">IF(OR(F111=0,E111=0)," - ",NETWORKDAYS(E111,F111))</f>
         <v>10</v>
       </c>
       <c r="J111" s="73"/>
@@ -14694,28 +14696,28 @@
     </row>
     <row r="112" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.10</v>
+        <f t="shared" si="39"/>
+        <v>5.4.11</v>
       </c>
       <c r="B112" s="100" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D112" s="99"/>
       <c r="E112" s="75">
         <v>44501</v>
       </c>
       <c r="F112" s="76">
-        <f t="shared" ref="F112" si="52">IF(ISBLANK(E112)," - ",IF(G112=0,E112,E112+G112-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G112" s="58">
         <v>12</v>
       </c>
       <c r="H112" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="60">
-        <f t="shared" ref="I112" si="53">IF(OR(F112=0,E112=0)," - ",NETWORKDAYS(E112,F112))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J112" s="73"/>
@@ -14778,28 +14780,28 @@
     </row>
     <row r="113" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.11</v>
+        <f t="shared" si="39"/>
+        <v>5.4.12</v>
       </c>
       <c r="B113" s="100" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D113" s="99"/>
       <c r="E113" s="75">
         <v>44501</v>
       </c>
       <c r="F113" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F113" si="52">IF(ISBLANK(E113)," - ",IF(G113=0,E113,E113+G113-1))</f>
         <v>44512</v>
       </c>
       <c r="G113" s="58">
         <v>12</v>
       </c>
       <c r="H113" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I113" si="53">IF(OR(F113=0,E113=0)," - ",NETWORKDAYS(E113,F113))</f>
         <v>10</v>
       </c>
       <c r="J113" s="73"/>
@@ -14862,28 +14864,28 @@
     </row>
     <row r="114" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.12</v>
+        <f t="shared" si="39"/>
+        <v>5.4.13</v>
       </c>
       <c r="B114" s="100" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D114" s="99"/>
       <c r="E114" s="75">
         <v>44501</v>
       </c>
       <c r="F114" s="76">
-        <f t="shared" ref="F114" si="54">IF(ISBLANK(E114)," - ",IF(G114=0,E114,E114+G114-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G114" s="58">
         <v>12</v>
       </c>
       <c r="H114" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" s="60">
-        <f t="shared" ref="I114" si="55">IF(OR(F114=0,E114=0)," - ",NETWORKDAYS(E114,F114))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J114" s="73"/>
@@ -14946,28 +14948,28 @@
     </row>
     <row r="115" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.13</v>
+        <f t="shared" si="39"/>
+        <v>5.4.14</v>
       </c>
       <c r="B115" s="100" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="75">
         <v>44501</v>
       </c>
       <c r="F115" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F115" si="54">IF(ISBLANK(E115)," - ",IF(G115=0,E115,E115+G115-1))</f>
         <v>44512</v>
       </c>
       <c r="G115" s="58">
         <v>12</v>
       </c>
       <c r="H115" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I115" si="55">IF(OR(F115=0,E115=0)," - ",NETWORKDAYS(E115,F115))</f>
         <v>10</v>
       </c>
       <c r="J115" s="73"/>
@@ -15030,28 +15032,28 @@
     </row>
     <row r="116" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.14</v>
+        <f t="shared" si="39"/>
+        <v>5.4.15</v>
       </c>
       <c r="B116" s="100" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D116" s="99"/>
       <c r="E116" s="75">
         <v>44501</v>
       </c>
       <c r="F116" s="76">
-        <f t="shared" ref="F116" si="56">IF(ISBLANK(E116)," - ",IF(G116=0,E116,E116+G116-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G116" s="58">
         <v>12</v>
       </c>
       <c r="H116" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="60">
-        <f t="shared" ref="I116" si="57">IF(OR(F116=0,E116=0)," - ",NETWORKDAYS(E116,F116))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J116" s="73"/>
@@ -15114,28 +15116,28 @@
     </row>
     <row r="117" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.15</v>
+        <f t="shared" si="39"/>
+        <v>5.4.16</v>
       </c>
       <c r="B117" s="100" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D117" s="99"/>
       <c r="E117" s="75">
         <v>44501</v>
       </c>
       <c r="F117" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F117" si="56">IF(ISBLANK(E117)," - ",IF(G117=0,E117,E117+G117-1))</f>
         <v>44512</v>
       </c>
       <c r="G117" s="58">
         <v>12</v>
       </c>
       <c r="H117" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I117" si="57">IF(OR(F117=0,E117=0)," - ",NETWORKDAYS(E117,F117))</f>
         <v>10</v>
       </c>
       <c r="J117" s="73"/>
@@ -15198,28 +15200,28 @@
     </row>
     <row r="118" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.16</v>
+        <f t="shared" si="39"/>
+        <v>5.4.17</v>
       </c>
       <c r="B118" s="100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D118" s="99"/>
       <c r="E118" s="75">
         <v>44501</v>
       </c>
       <c r="F118" s="76">
-        <f t="shared" ref="F118" si="58">IF(ISBLANK(E118)," - ",IF(G118=0,E118,E118+G118-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G118" s="58">
         <v>12</v>
       </c>
       <c r="H118" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="60">
-        <f t="shared" ref="I118" si="59">IF(OR(F118=0,E118=0)," - ",NETWORKDAYS(E118,F118))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J118" s="73"/>
@@ -15282,28 +15284,28 @@
     </row>
     <row r="119" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.17</v>
+        <f t="shared" si="39"/>
+        <v>5.4.18</v>
       </c>
       <c r="B119" s="100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D119" s="99"/>
       <c r="E119" s="75">
         <v>44501</v>
       </c>
       <c r="F119" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F119" si="58">IF(ISBLANK(E119)," - ",IF(G119=0,E119,E119+G119-1))</f>
         <v>44512</v>
       </c>
       <c r="G119" s="58">
         <v>12</v>
       </c>
       <c r="H119" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I119" si="59">IF(OR(F119=0,E119=0)," - ",NETWORKDAYS(E119,F119))</f>
         <v>10</v>
       </c>
       <c r="J119" s="73"/>
@@ -15366,28 +15368,28 @@
     </row>
     <row r="120" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="56" t="str">
-        <f t="shared" si="41"/>
-        <v>5.4.18</v>
-      </c>
-      <c r="B120" s="100" t="s">
-        <v>208</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.5</v>
+      </c>
+      <c r="B120" s="98" t="s">
+        <v>191</v>
       </c>
       <c r="D120" s="99"/>
       <c r="E120" s="75">
         <v>44501</v>
       </c>
       <c r="F120" s="76">
-        <f t="shared" ref="F120" si="60">IF(ISBLANK(E120)," - ",IF(G120=0,E120,E120+G120-1))</f>
+        <f t="shared" si="17"/>
         <v>44512</v>
       </c>
       <c r="G120" s="58">
         <v>12</v>
       </c>
       <c r="H120" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" s="60">
-        <f t="shared" ref="I120" si="61">IF(OR(F120=0,E120=0)," - ",NETWORKDAYS(E120,F120))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J120" s="73"/>
@@ -15450,28 +15452,28 @@
     </row>
     <row r="121" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.5</v>
-      </c>
-      <c r="B121" s="98" t="s">
-        <v>192</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>5.5.1</v>
+      </c>
+      <c r="B121" s="100" t="s">
+        <v>216</v>
       </c>
       <c r="D121" s="99"/>
       <c r="E121" s="75">
         <v>44501</v>
       </c>
       <c r="F121" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F121:F123" si="60">IF(ISBLANK(E121)," - ",IF(G121=0,E121,E121+G121-1))</f>
         <v>44512</v>
       </c>
       <c r="G121" s="58">
         <v>12</v>
       </c>
       <c r="H121" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I121:I123" si="61">IF(OR(F121=0,E121=0)," - ",NETWORKDAYS(E121,F121))</f>
         <v>10</v>
       </c>
       <c r="J121" s="73"/>
@@ -15535,7 +15537,7 @@
     <row r="122" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.1</v>
+        <v>5.5.2</v>
       </c>
       <c r="B122" s="100" t="s">
         <v>217</v>
@@ -15545,17 +15547,17 @@
         <v>44501</v>
       </c>
       <c r="F122" s="76">
-        <f t="shared" ref="F122:F124" si="62">IF(ISBLANK(E122)," - ",IF(G122=0,E122,E122+G122-1))</f>
+        <f t="shared" si="60"/>
         <v>44512</v>
       </c>
       <c r="G122" s="58">
         <v>12</v>
       </c>
       <c r="H122" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" s="60">
-        <f t="shared" ref="I122:I124" si="63">IF(OR(F122=0,E122=0)," - ",NETWORKDAYS(E122,F122))</f>
+        <f t="shared" si="61"/>
         <v>10</v>
       </c>
       <c r="J122" s="73"/>
@@ -15619,7 +15621,7 @@
     <row r="123" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.2</v>
+        <v>5.5.3</v>
       </c>
       <c r="B123" s="100" t="s">
         <v>218</v>
@@ -15629,17 +15631,17 @@
         <v>44501</v>
       </c>
       <c r="F123" s="76">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>44512</v>
       </c>
       <c r="G123" s="58">
         <v>12</v>
       </c>
       <c r="H123" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>10</v>
       </c>
       <c r="J123" s="73"/>
@@ -15700,192 +15702,192 @@
       <c r="BM123" s="79"/>
       <c r="BN123" s="79"/>
     </row>
-    <row r="124" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>5.5.3</v>
-      </c>
-      <c r="B124" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="D124" s="99"/>
-      <c r="E124" s="75">
+    <row r="124" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="52"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77" t="str">
+        <f t="shared" ref="F124:F134" si="62">IF(ISBLANK(E124)," - ",IF(G124=0,E124,E124+G124-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G124" s="53"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="55" t="str">
+        <f t="shared" ref="I124:I134" si="63">IF(OR(F124=0,E124=0)," - ",NETWORKDAYS(E124,F124))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J124" s="74"/>
+      <c r="K124" s="81"/>
+      <c r="L124" s="81"/>
+      <c r="M124" s="81"/>
+      <c r="N124" s="81"/>
+      <c r="O124" s="81"/>
+      <c r="P124" s="81"/>
+      <c r="Q124" s="81"/>
+      <c r="R124" s="81"/>
+      <c r="S124" s="81"/>
+      <c r="T124" s="81"/>
+      <c r="U124" s="81"/>
+      <c r="V124" s="81"/>
+      <c r="W124" s="81"/>
+      <c r="X124" s="81"/>
+      <c r="Y124" s="81"/>
+      <c r="Z124" s="81"/>
+      <c r="AA124" s="81"/>
+      <c r="AB124" s="81"/>
+      <c r="AC124" s="81"/>
+      <c r="AD124" s="81"/>
+      <c r="AE124" s="81"/>
+      <c r="AF124" s="81"/>
+      <c r="AG124" s="81"/>
+      <c r="AH124" s="81"/>
+      <c r="AI124" s="81"/>
+      <c r="AJ124" s="81"/>
+      <c r="AK124" s="81"/>
+      <c r="AL124" s="81"/>
+      <c r="AM124" s="81"/>
+      <c r="AN124" s="81"/>
+      <c r="AO124" s="81"/>
+      <c r="AP124" s="81"/>
+      <c r="AQ124" s="81"/>
+      <c r="AR124" s="81"/>
+      <c r="AS124" s="81"/>
+      <c r="AT124" s="81"/>
+      <c r="AU124" s="81"/>
+      <c r="AV124" s="81"/>
+      <c r="AW124" s="81"/>
+      <c r="AX124" s="81"/>
+      <c r="AY124" s="81"/>
+      <c r="AZ124" s="81"/>
+      <c r="BA124" s="81"/>
+      <c r="BB124" s="81"/>
+      <c r="BC124" s="81"/>
+      <c r="BD124" s="81"/>
+      <c r="BE124" s="81"/>
+      <c r="BF124" s="81"/>
+      <c r="BG124" s="81"/>
+      <c r="BH124" s="81"/>
+      <c r="BI124" s="81"/>
+      <c r="BJ124" s="81"/>
+      <c r="BK124" s="81"/>
+      <c r="BL124" s="81"/>
+      <c r="BM124" s="81"/>
+      <c r="BN124" s="81"/>
+    </row>
+    <row r="125" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B125" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D125" s="99"/>
+      <c r="E125" s="75">
         <v>44501</v>
       </c>
-      <c r="F124" s="76">
+      <c r="F125" s="76">
         <f t="shared" si="62"/>
         <v>44512</v>
       </c>
-      <c r="G124" s="58">
+      <c r="G125" s="58">
         <v>12</v>
       </c>
-      <c r="H124" s="59">
-        <v>0</v>
-      </c>
-      <c r="I124" s="60">
+      <c r="H125" s="59">
+        <v>1</v>
+      </c>
+      <c r="I125" s="60">
         <f t="shared" si="63"/>
         <v>10</v>
       </c>
-      <c r="J124" s="73"/>
-      <c r="K124" s="79"/>
-      <c r="L124" s="79"/>
-      <c r="M124" s="79"/>
-      <c r="N124" s="79"/>
-      <c r="O124" s="79"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="79"/>
-      <c r="R124" s="79"/>
-      <c r="S124" s="79"/>
-      <c r="T124" s="79"/>
-      <c r="U124" s="79"/>
-      <c r="V124" s="79"/>
-      <c r="W124" s="79"/>
-      <c r="X124" s="79"/>
-      <c r="Y124" s="79"/>
-      <c r="Z124" s="79"/>
-      <c r="AA124" s="79"/>
-      <c r="AB124" s="79"/>
-      <c r="AC124" s="79"/>
-      <c r="AD124" s="79"/>
-      <c r="AE124" s="79"/>
-      <c r="AF124" s="79"/>
-      <c r="AG124" s="79"/>
-      <c r="AH124" s="79"/>
-      <c r="AI124" s="79"/>
-      <c r="AJ124" s="79"/>
-      <c r="AK124" s="79"/>
-      <c r="AL124" s="79"/>
-      <c r="AM124" s="79"/>
-      <c r="AN124" s="79"/>
-      <c r="AO124" s="79"/>
-      <c r="AP124" s="79"/>
-      <c r="AQ124" s="79"/>
-      <c r="AR124" s="79"/>
-      <c r="AS124" s="79"/>
-      <c r="AT124" s="79"/>
-      <c r="AU124" s="79"/>
-      <c r="AV124" s="79"/>
-      <c r="AW124" s="79"/>
-      <c r="AX124" s="79"/>
-      <c r="AY124" s="79"/>
-      <c r="AZ124" s="79"/>
-      <c r="BA124" s="79"/>
-      <c r="BB124" s="79"/>
-      <c r="BC124" s="79"/>
-      <c r="BD124" s="79"/>
-      <c r="BE124" s="79"/>
-      <c r="BF124" s="79"/>
-      <c r="BG124" s="79"/>
-      <c r="BH124" s="79"/>
-      <c r="BI124" s="79"/>
-      <c r="BJ124" s="79"/>
-      <c r="BK124" s="79"/>
-      <c r="BL124" s="79"/>
-      <c r="BM124" s="79"/>
-      <c r="BN124" s="79"/>
-    </row>
-    <row r="125" spans="1:66" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B125" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D125" s="52"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77" t="str">
-        <f t="shared" ref="F125:F135" si="64">IF(ISBLANK(E125)," - ",IF(G125=0,E125,E125+G125-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G125" s="53"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="55" t="str">
-        <f t="shared" ref="I125:I135" si="65">IF(OR(F125=0,E125=0)," - ",NETWORKDAYS(E125,F125))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J125" s="74"/>
-      <c r="K125" s="81"/>
-      <c r="L125" s="81"/>
-      <c r="M125" s="81"/>
-      <c r="N125" s="81"/>
-      <c r="O125" s="81"/>
-      <c r="P125" s="81"/>
-      <c r="Q125" s="81"/>
-      <c r="R125" s="81"/>
-      <c r="S125" s="81"/>
-      <c r="T125" s="81"/>
-      <c r="U125" s="81"/>
-      <c r="V125" s="81"/>
-      <c r="W125" s="81"/>
-      <c r="X125" s="81"/>
-      <c r="Y125" s="81"/>
-      <c r="Z125" s="81"/>
-      <c r="AA125" s="81"/>
-      <c r="AB125" s="81"/>
-      <c r="AC125" s="81"/>
-      <c r="AD125" s="81"/>
-      <c r="AE125" s="81"/>
-      <c r="AF125" s="81"/>
-      <c r="AG125" s="81"/>
-      <c r="AH125" s="81"/>
-      <c r="AI125" s="81"/>
-      <c r="AJ125" s="81"/>
-      <c r="AK125" s="81"/>
-      <c r="AL125" s="81"/>
-      <c r="AM125" s="81"/>
-      <c r="AN125" s="81"/>
-      <c r="AO125" s="81"/>
-      <c r="AP125" s="81"/>
-      <c r="AQ125" s="81"/>
-      <c r="AR125" s="81"/>
-      <c r="AS125" s="81"/>
-      <c r="AT125" s="81"/>
-      <c r="AU125" s="81"/>
-      <c r="AV125" s="81"/>
-      <c r="AW125" s="81"/>
-      <c r="AX125" s="81"/>
-      <c r="AY125" s="81"/>
-      <c r="AZ125" s="81"/>
-      <c r="BA125" s="81"/>
-      <c r="BB125" s="81"/>
-      <c r="BC125" s="81"/>
-      <c r="BD125" s="81"/>
-      <c r="BE125" s="81"/>
-      <c r="BF125" s="81"/>
-      <c r="BG125" s="81"/>
-      <c r="BH125" s="81"/>
-      <c r="BI125" s="81"/>
-      <c r="BJ125" s="81"/>
-      <c r="BK125" s="81"/>
-      <c r="BL125" s="81"/>
-      <c r="BM125" s="81"/>
-      <c r="BN125" s="81"/>
+      <c r="J125" s="73"/>
+      <c r="K125" s="79"/>
+      <c r="L125" s="79"/>
+      <c r="M125" s="79"/>
+      <c r="N125" s="79"/>
+      <c r="O125" s="79"/>
+      <c r="P125" s="79"/>
+      <c r="Q125" s="79"/>
+      <c r="R125" s="79"/>
+      <c r="S125" s="79"/>
+      <c r="T125" s="79"/>
+      <c r="U125" s="79"/>
+      <c r="V125" s="79"/>
+      <c r="W125" s="79"/>
+      <c r="X125" s="79"/>
+      <c r="Y125" s="79"/>
+      <c r="Z125" s="79"/>
+      <c r="AA125" s="79"/>
+      <c r="AB125" s="79"/>
+      <c r="AC125" s="79"/>
+      <c r="AD125" s="79"/>
+      <c r="AE125" s="79"/>
+      <c r="AF125" s="79"/>
+      <c r="AG125" s="79"/>
+      <c r="AH125" s="79"/>
+      <c r="AI125" s="79"/>
+      <c r="AJ125" s="79"/>
+      <c r="AK125" s="79"/>
+      <c r="AL125" s="79"/>
+      <c r="AM125" s="79"/>
+      <c r="AN125" s="79"/>
+      <c r="AO125" s="79"/>
+      <c r="AP125" s="79"/>
+      <c r="AQ125" s="79"/>
+      <c r="AR125" s="79"/>
+      <c r="AS125" s="79"/>
+      <c r="AT125" s="79"/>
+      <c r="AU125" s="79"/>
+      <c r="AV125" s="79"/>
+      <c r="AW125" s="79"/>
+      <c r="AX125" s="79"/>
+      <c r="AY125" s="79"/>
+      <c r="AZ125" s="79"/>
+      <c r="BA125" s="79"/>
+      <c r="BB125" s="79"/>
+      <c r="BC125" s="79"/>
+      <c r="BD125" s="79"/>
+      <c r="BE125" s="79"/>
+      <c r="BF125" s="79"/>
+      <c r="BG125" s="79"/>
+      <c r="BH125" s="79"/>
+      <c r="BI125" s="79"/>
+      <c r="BJ125" s="79"/>
+      <c r="BK125" s="79"/>
+      <c r="BL125" s="79"/>
+      <c r="BM125" s="79"/>
+      <c r="BN125" s="79"/>
     </row>
     <row r="126" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B126" s="98" t="s">
-        <v>191</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.1.1</v>
+      </c>
+      <c r="B126" s="100" t="s">
+        <v>219</v>
       </c>
       <c r="D126" s="99"/>
       <c r="E126" s="75">
         <v>44501</v>
       </c>
       <c r="F126" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G126" s="58">
         <v>12</v>
       </c>
       <c r="H126" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J126" s="73"/>
@@ -15949,7 +15951,7 @@
     <row r="127" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.1</v>
+        <v>6.1.2</v>
       </c>
       <c r="B127" s="100" t="s">
         <v>220</v>
@@ -15959,17 +15961,17 @@
         <v>44501</v>
       </c>
       <c r="F127" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G127" s="58">
         <v>12</v>
       </c>
       <c r="H127" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J127" s="73"/>
@@ -16033,7 +16035,7 @@
     <row r="128" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.2</v>
+        <v>6.1.3</v>
       </c>
       <c r="B128" s="100" t="s">
         <v>221</v>
@@ -16043,17 +16045,17 @@
         <v>44501</v>
       </c>
       <c r="F128" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G128" s="58">
         <v>12</v>
       </c>
       <c r="H128" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J128" s="73"/>
@@ -16116,28 +16118,28 @@
     </row>
     <row r="129" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.1.3</v>
-      </c>
-      <c r="B129" s="100" t="s">
-        <v>222</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B129" s="98" t="s">
+        <v>192</v>
       </c>
       <c r="D129" s="99"/>
       <c r="E129" s="75">
         <v>44501</v>
       </c>
       <c r="F129" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G129" s="58">
         <v>12</v>
       </c>
       <c r="H129" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J129" s="73"/>
@@ -16200,28 +16202,28 @@
     </row>
     <row r="130" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B130" s="98" t="s">
-        <v>193</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.2.1</v>
+      </c>
+      <c r="B130" s="100" t="s">
+        <v>223</v>
       </c>
       <c r="D130" s="99"/>
       <c r="E130" s="75">
         <v>44501</v>
       </c>
       <c r="F130" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G130" s="58">
         <v>12</v>
       </c>
       <c r="H130" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J130" s="73"/>
@@ -16285,27 +16287,27 @@
     <row r="131" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.2.1</v>
+        <v>6.2.2</v>
       </c>
       <c r="B131" s="100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D131" s="99"/>
       <c r="E131" s="75">
         <v>44501</v>
       </c>
       <c r="F131" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G131" s="58">
         <v>12</v>
       </c>
       <c r="H131" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J131" s="73"/>
@@ -16368,28 +16370,28 @@
     </row>
     <row r="132" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.2.2</v>
-      </c>
-      <c r="B132" s="100" t="s">
-        <v>223</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.3</v>
+      </c>
+      <c r="B132" s="98" t="s">
+        <v>195</v>
       </c>
       <c r="D132" s="99"/>
       <c r="E132" s="75">
         <v>44501</v>
       </c>
       <c r="F132" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G132" s="58">
         <v>12</v>
       </c>
       <c r="H132" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J132" s="73"/>
@@ -16452,28 +16454,28 @@
     </row>
     <row r="133" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
-      </c>
-      <c r="B133" s="98" t="s">
-        <v>196</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>6.3.1</v>
+      </c>
+      <c r="B133" s="100" t="s">
+        <v>224</v>
       </c>
       <c r="D133" s="99"/>
       <c r="E133" s="75">
         <v>44501</v>
       </c>
       <c r="F133" s="76">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>44512</v>
       </c>
       <c r="G133" s="58">
         <v>12</v>
       </c>
       <c r="H133" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J133" s="73"/>
@@ -16536,28 +16538,28 @@
     </row>
     <row r="134" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>6.3.1</v>
-      </c>
-      <c r="B134" s="100" t="s">
-        <v>225</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.4</v>
+      </c>
+      <c r="B134" s="98" t="s">
+        <v>232</v>
       </c>
       <c r="D134" s="99"/>
       <c r="E134" s="75">
-        <v>44501</v>
+        <v>44515</v>
       </c>
       <c r="F134" s="76">
-        <f t="shared" si="64"/>
-        <v>44512</v>
+        <f t="shared" si="62"/>
+        <v>44526</v>
       </c>
       <c r="G134" s="58">
         <v>12</v>
       </c>
       <c r="H134" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" s="60">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>10</v>
       </c>
       <c r="J134" s="73"/>
@@ -16618,91 +16620,7 @@
       <c r="BM134" s="79"/>
       <c r="BN134" s="79"/>
     </row>
-    <row r="135" spans="1:66" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.4</v>
-      </c>
-      <c r="B135" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="D135" s="99"/>
-      <c r="E135" s="75">
-        <v>44515</v>
-      </c>
-      <c r="F135" s="76">
-        <f t="shared" si="64"/>
-        <v>44526</v>
-      </c>
-      <c r="G135" s="58">
-        <v>12</v>
-      </c>
-      <c r="H135" s="59">
-        <v>0</v>
-      </c>
-      <c r="I135" s="60">
-        <f t="shared" si="65"/>
-        <v>10</v>
-      </c>
-      <c r="J135" s="73"/>
-      <c r="K135" s="79"/>
-      <c r="L135" s="79"/>
-      <c r="M135" s="79"/>
-      <c r="N135" s="79"/>
-      <c r="O135" s="79"/>
-      <c r="P135" s="79"/>
-      <c r="Q135" s="79"/>
-      <c r="R135" s="79"/>
-      <c r="S135" s="79"/>
-      <c r="T135" s="79"/>
-      <c r="U135" s="79"/>
-      <c r="V135" s="79"/>
-      <c r="W135" s="79"/>
-      <c r="X135" s="79"/>
-      <c r="Y135" s="79"/>
-      <c r="Z135" s="79"/>
-      <c r="AA135" s="79"/>
-      <c r="AB135" s="79"/>
-      <c r="AC135" s="79"/>
-      <c r="AD135" s="79"/>
-      <c r="AE135" s="79"/>
-      <c r="AF135" s="79"/>
-      <c r="AG135" s="79"/>
-      <c r="AH135" s="79"/>
-      <c r="AI135" s="79"/>
-      <c r="AJ135" s="79"/>
-      <c r="AK135" s="79"/>
-      <c r="AL135" s="79"/>
-      <c r="AM135" s="79"/>
-      <c r="AN135" s="79"/>
-      <c r="AO135" s="79"/>
-      <c r="AP135" s="79"/>
-      <c r="AQ135" s="79"/>
-      <c r="AR135" s="79"/>
-      <c r="AS135" s="79"/>
-      <c r="AT135" s="79"/>
-      <c r="AU135" s="79"/>
-      <c r="AV135" s="79"/>
-      <c r="AW135" s="79"/>
-      <c r="AX135" s="79"/>
-      <c r="AY135" s="79"/>
-      <c r="AZ135" s="79"/>
-      <c r="BA135" s="79"/>
-      <c r="BB135" s="79"/>
-      <c r="BC135" s="79"/>
-      <c r="BD135" s="79"/>
-      <c r="BE135" s="79"/>
-      <c r="BF135" s="79"/>
-      <c r="BG135" s="79"/>
-      <c r="BH135" s="79"/>
-      <c r="BI135" s="79"/>
-      <c r="BJ135" s="79"/>
-      <c r="BK135" s="79"/>
-      <c r="BL135" s="79"/>
-      <c r="BM135" s="79"/>
-      <c r="BN135" s="79"/>
-    </row>
-    <row r="136" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -16727,8 +16645,8 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H46 H48 H82 H59 H72 H87:H88 H69 H91:H92 H102 H121">
-    <cfRule type="dataBar" priority="464">
+  <conditionalFormatting sqref="H8:H9 H47 H86">
+    <cfRule type="dataBar" priority="478">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16742,25 +16660,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="113" priority="507">
+    <cfRule type="expression" dxfId="114" priority="521">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN135">
-    <cfRule type="expression" dxfId="112" priority="510">
+  <conditionalFormatting sqref="K8:BN22 K26:BN134">
+    <cfRule type="expression" dxfId="113" priority="524">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="511">
+    <cfRule type="expression" dxfId="112" priority="525">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K46:BN46 K48:BN48 K82:BN82 K59:BN59 K72:BN72 K87:BN88 K69:BN69 K91:BN92 K102:BN102 K121:BN121">
-    <cfRule type="expression" dxfId="110" priority="470">
+  <conditionalFormatting sqref="K6:BN9 K45:BN45 K47:BN47 K81:BN81 K58:BN58 K71:BN71 K86:BN87 K68:BN68 K90:BN91 K101:BN101 K120:BN120">
+    <cfRule type="expression" dxfId="111" priority="484">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125:H126 H130 H133">
-    <cfRule type="dataBar" priority="455">
+  <conditionalFormatting sqref="H124">
+    <cfRule type="dataBar" priority="469">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16773,13 +16691,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125:BN126 K130:BN130 K133:BN133">
-    <cfRule type="expression" dxfId="109" priority="456">
+  <conditionalFormatting sqref="K124:BN125 K129:BN129 K132:BN132">
+    <cfRule type="expression" dxfId="110" priority="470">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="451">
+    <cfRule type="dataBar" priority="465">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16793,12 +16711,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="108" priority="452">
+    <cfRule type="expression" dxfId="109" priority="466">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="447">
+    <cfRule type="dataBar" priority="461">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16812,12 +16730,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
-    <cfRule type="expression" dxfId="107" priority="448">
+    <cfRule type="expression" dxfId="108" priority="462">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="443">
+    <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16831,88 +16749,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="106" priority="444">
+    <cfRule type="expression" dxfId="107" priority="458">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="439">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{774D44FC-5846-4374-A9F1-1179C1D016C6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="105" priority="440">
+    <cfRule type="expression" dxfId="106" priority="454">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="435">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E232DA9A-BF25-49F0-AC07-38715E03ECA9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="104" priority="436">
+    <cfRule type="expression" dxfId="105" priority="450">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="427">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E5E5450F-D45D-4716-B9EE-C8BCADEABF4B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="103" priority="428">
+    <cfRule type="expression" dxfId="104" priority="442">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="423">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1068551E-16AC-459E-8BE4-D195A5C62F35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="102" priority="424">
+    <cfRule type="expression" dxfId="103" priority="438">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="415">
+    <cfRule type="dataBar" priority="429">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16926,12 +16788,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="101" priority="416">
+    <cfRule type="expression" dxfId="102" priority="430">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="421">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16945,12 +16807,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="100" priority="408">
+    <cfRule type="expression" dxfId="101" priority="422">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="403">
+    <cfRule type="dataBar" priority="417">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -16964,183 +16826,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="99" priority="404">
+    <cfRule type="expression" dxfId="100" priority="418">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="395">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82CC2AB7-970B-4252-96B5-8B21D6571CE5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="98" priority="396">
+    <cfRule type="expression" dxfId="99" priority="410">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="387">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B696BCA4-5CFD-48C6-BB60-538AE0CE40C2}</x14:id>
-        </ext>
-      </extLst>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="98" priority="402">
+      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="97" priority="388">
+    <cfRule type="expression" dxfId="97" priority="400">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="385">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0C49B6A5-30BA-4E07-BC0F-A9DAE6BD8698}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="96" priority="386">
+    <cfRule type="expression" dxfId="96" priority="398">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="383">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E17CFE8A-21C8-4D8B-91F7-4868C91731BD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="95" priority="384">
+    <cfRule type="expression" dxfId="95" priority="396">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="381">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68C64920-8702-4997-9EDE-0C7EA6C1BC4C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="94" priority="382">
+    <cfRule type="expression" dxfId="94" priority="394">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="379">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8386B425-7FC9-417B-9FEE-4E866F319198}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="93" priority="380">
+    <cfRule type="expression" dxfId="93" priority="392">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="377">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF4006A7-8C7F-4B9D-A27D-C90DC78E4242}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="92" priority="378">
+    <cfRule type="expression" dxfId="92" priority="390">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="375">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6307B45-BD90-4358-8AFE-AAB6AB1E83E5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="91" priority="376">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="373">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED91C897-5804-4DA6-91D4-7D5FC0BEFB7D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="90" priority="374">
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="91" priority="388">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="351">
+    <cfRule type="dataBar" priority="365">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17154,12 +16890,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="89" priority="352">
+    <cfRule type="expression" dxfId="90" priority="366">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="347">
+    <cfRule type="dataBar" priority="361">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17173,12 +16909,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="88" priority="348">
+    <cfRule type="expression" dxfId="89" priority="362">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="339">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17192,12 +16928,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="87" priority="340">
+    <cfRule type="expression" dxfId="88" priority="354">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="335">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17211,12 +16947,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="86" priority="336">
+    <cfRule type="expression" dxfId="87" priority="350">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="331">
+    <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17230,12 +16966,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="85" priority="332">
+    <cfRule type="expression" dxfId="86" priority="346">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="327">
+    <cfRule type="dataBar" priority="341">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17249,12 +16985,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="84" priority="328">
+    <cfRule type="expression" dxfId="85" priority="342">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="319">
+    <cfRule type="dataBar" priority="333">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17268,12 +17004,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="83" priority="320">
+    <cfRule type="expression" dxfId="84" priority="334">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="315">
+    <cfRule type="dataBar" priority="329">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17287,12 +17023,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="82" priority="316">
+    <cfRule type="expression" dxfId="83" priority="330">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="311">
+    <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17306,12 +17042,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="81" priority="312">
+    <cfRule type="expression" dxfId="82" priority="326">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="307">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17325,12 +17061,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="80" priority="308">
+    <cfRule type="expression" dxfId="81" priority="322">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="303">
+    <cfRule type="dataBar" priority="317">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17344,12 +17080,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="79" priority="304">
+    <cfRule type="expression" dxfId="80" priority="318">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="dataBar" priority="295">
+    <cfRule type="dataBar" priority="309">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17363,12 +17099,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="78" priority="296">
+    <cfRule type="expression" dxfId="79" priority="310">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="291">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="dataBar" priority="305">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17381,13 +17117,386 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="77" priority="292">
+  <conditionalFormatting sqref="K26:BN26">
+    <cfRule type="expression" dxfId="78" priority="306">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="279">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="77" priority="294">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="76" priority="292">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="75" priority="290">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="74" priority="288">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="73" priority="286">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="72" priority="284">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="71" priority="282">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="70" priority="280">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="69" priority="276">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="68" priority="274">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="67" priority="272">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="66" priority="270">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="65" priority="268">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="64" priority="266">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K80:BN80">
+    <cfRule type="expression" dxfId="63" priority="264">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="62" priority="262">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="61" priority="258">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="60" priority="254">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="59" priority="252">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="58" priority="250">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="57" priority="248">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="56" priority="246">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="55" priority="244">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="54" priority="242">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="53" priority="240">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="52" priority="236">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="51" priority="232">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="50" priority="216">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="49" priority="212">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:BN84">
+    <cfRule type="expression" dxfId="48" priority="204">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:BN85">
+    <cfRule type="expression" dxfId="47" priority="196">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K88:BN88">
+    <cfRule type="expression" dxfId="46" priority="192">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94:BN94">
+    <cfRule type="expression" dxfId="45" priority="188">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K95:BN95">
+    <cfRule type="expression" dxfId="44" priority="186">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="43" priority="184">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="42" priority="182">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="41" priority="180">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="40" priority="178">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="39" priority="176">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K93:BN93">
+    <cfRule type="expression" dxfId="38" priority="174">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K92:BN92">
+    <cfRule type="expression" dxfId="37" priority="172">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="36" priority="168">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="35" priority="166">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K110:BN110">
+    <cfRule type="expression" dxfId="34" priority="164">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K112:BN112">
+    <cfRule type="expression" dxfId="33" priority="162">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:BN114">
+    <cfRule type="expression" dxfId="32" priority="160">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:BN116">
+    <cfRule type="expression" dxfId="31" priority="158">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K118:BN118">
+    <cfRule type="expression" dxfId="30" priority="156">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="29" priority="154">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="28" priority="152">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="27" priority="148">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="26" priority="144">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="25" priority="140">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="24" priority="136">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:BN111">
+    <cfRule type="expression" dxfId="23" priority="132">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113:BN113">
+    <cfRule type="expression" dxfId="22" priority="128">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:BN115">
+    <cfRule type="expression" dxfId="21" priority="124">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117:BN117">
+    <cfRule type="expression" dxfId="20" priority="120">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119:BN119">
+    <cfRule type="expression" dxfId="19" priority="116">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K121:BN121">
+    <cfRule type="expression" dxfId="18" priority="112">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K122:BN122">
+    <cfRule type="expression" dxfId="17" priority="108">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K123:BN123">
+    <cfRule type="expression" dxfId="16" priority="104">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K128:BN128">
+    <cfRule type="expression" dxfId="15" priority="84">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126:BN127">
+    <cfRule type="expression" dxfId="14" priority="88">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K131:BN131">
+    <cfRule type="expression" dxfId="13" priority="80">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K130:BN130">
+    <cfRule type="expression" dxfId="12" priority="72">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K133:BN133">
+    <cfRule type="expression" dxfId="11" priority="68">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="10" priority="44">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89:BN89">
+    <cfRule type="expression" dxfId="9" priority="36">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:BN82">
+    <cfRule type="expression" dxfId="8" priority="32">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83:BN83">
+    <cfRule type="expression" dxfId="7" priority="28">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K134:BN134">
+    <cfRule type="expression" dxfId="6" priority="20">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="5" priority="16">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:BN25">
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="14">
+      <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17395,18 +17504,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A8BCFAD-835B-4789-B8DF-B57E31B5556E}</x14:id>
+          <x14:id>{C8A3B4DD-35AF-4DDD-A697-390026EBBC85}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="76" priority="280">
+  <conditionalFormatting sqref="K23:BN23">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="277">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17414,18 +17523,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19A2DD6D-3382-4E99-B082-A344F1D3A5D1}</x14:id>
+          <x14:id>{90A78CB0-AF7E-4942-9FF3-C171EBB92C29}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="75" priority="278">
+  <conditionalFormatting sqref="K24:BN24">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="275">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17433,18 +17542,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3DAA9D83-48CE-43ED-B23F-B4B89679CD08}</x14:id>
+          <x14:id>{BD061B0B-B853-4336-B850-826626C76205}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="74" priority="276">
+  <conditionalFormatting sqref="K25:BN25">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="273">
+  <conditionalFormatting sqref="H32:H46">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17452,1366 +17561,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{449F95BD-8E29-4B42-98B4-4EE4D65984D3}</x14:id>
+          <x14:id>{CF7AAFE0-EFC9-46AD-87F1-96B19BB9619E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="73" priority="274">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="271">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51ABC9FB-C76A-4FFC-9865-873CA68FC741}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="72" priority="272">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="269">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AE739472-CCEB-4ABA-84C2-D0C115E8B6F0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="71" priority="270">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="267">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{226BE6C4-41CA-48A5-9C8B-46FE2627052E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="70" priority="268">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="265">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD5ED029-0247-42C7-9376-E4AA96220959}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="69" priority="266">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="261">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80C7B214-E503-446F-AACC-ABC2A9C1AE3A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="68" priority="262">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="dataBar" priority="259">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75C89A18-54AB-4F9C-A423-3153F07F081E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="67" priority="260">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="dataBar" priority="257">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{685C0734-E1B8-4DB5-8876-3F2AB007A51D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="66" priority="258">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="dataBar" priority="255">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B390B206-6C04-4484-8DEC-679892B47F0A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="65" priority="256">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="dataBar" priority="253">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0291B26D-894E-4558-B409-F9D342525F58}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="64" priority="254">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="dataBar" priority="251">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3860D0ED-25E8-4D67-9AC5-B90B1DBDF216}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="63" priority="252">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="dataBar" priority="249">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C32A98C-3B3E-4280-945A-2FFDF9045C02}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="62" priority="250">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="dataBar" priority="247">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{841FAB04-B424-4D46-B949-9E23F58B7811}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="61" priority="248">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="243">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15F8BCAE-DB3E-4CD2-AF98-8DEAA41E1CAC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="60" priority="244">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="239">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42035E71-B9B1-4461-8DE9-4CDA45C0C830}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="59" priority="240">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="237">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{099EA4DC-B274-49EF-8BB9-EAAF168E7252}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="58" priority="238">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="235">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DC2A762-F1D9-4614-9B29-53E40ECDAA8E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="57" priority="236">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="233">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7DCCBE09-6DBB-4127-8CA6-BEEFC13B36DE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="56" priority="234">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="231">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{835C87DE-EB0C-4AD9-BC8B-29FCC0885A25}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="55" priority="232">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="229">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E65C0C62-B910-4D5E-8A17-86112DC96FAC}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="54" priority="230">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="227">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E0A6DE3F-732F-49A1-8768-CF61992E416A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="53" priority="228">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="225">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B1FE7B33-3301-4023-9F63-6C6B252B55B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="52" priority="226">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="221">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13EDA942-BC51-4DE4-9510-7A9712676C3F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="51" priority="222">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="217">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4C7E1B42-A117-497E-A2A1-1C8B926D7B63}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="50" priority="218">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="209">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC64EC7F-37F4-4903-9C17-C6873EA1F9DB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="49" priority="210">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="201">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A762629-57A0-49BD-8BDF-1DF721832E28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="48" priority="202">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="dataBar" priority="197">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6B44860F-7284-4C2B-82F1-20A024AD3D70}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="47" priority="198">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="dataBar" priority="189">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AB69090D-E280-4658-AEB8-6B4DA27C51A1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="46" priority="190">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="dataBar" priority="181">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4C266898-06C6-44DA-8359-67AA8067CA6D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="45" priority="182">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="dataBar" priority="177">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF3736C1-0FBD-4475-AF41-6265F6F40B9D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="44" priority="178">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="dataBar" priority="173">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A56701B1-A0CD-47F2-B15A-719050781909}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="43" priority="174">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="dataBar" priority="171">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{501D9318-0652-4972-9321-6A1A271008A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="42" priority="172">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="dataBar" priority="169">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C440867F-0D20-4607-8CA3-A46E7308D699}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="41" priority="170">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="dataBar" priority="167">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF933B2B-34E4-4BC2-9025-E8C268A9A736}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="40" priority="168">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="dataBar" priority="165">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FADD3EA2-3227-42CC-A058-DDEF0EEF6E7E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="39" priority="166">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="dataBar" priority="163">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F67F867B-BCA4-43D4-955F-DFA642AD8663}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="38" priority="164">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
-    <cfRule type="dataBar" priority="161">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6E178CC-D4E8-4000-9263-D5FA810DE6FE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
-    <cfRule type="expression" dxfId="37" priority="162">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="dataBar" priority="159">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07294A54-9EE1-4C72-8F09-8E954F24127B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="36" priority="160">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="157">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C40F8D2A-9E4A-42D8-B0B7-3F9E448078A6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="35" priority="158">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
-    <cfRule type="dataBar" priority="153">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2CEE0E9-EFB0-4976-82D0-AACEE83165E6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="34" priority="154">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="dataBar" priority="151">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AE7DCA60-AB8B-4004-AC23-51C80D7C4AD9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN109">
-    <cfRule type="expression" dxfId="33" priority="152">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H111">
-    <cfRule type="dataBar" priority="149">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A630620F-D47D-43F1-8D1E-E73189DE4D5D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111:BN111">
-    <cfRule type="expression" dxfId="32" priority="150">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
-    <cfRule type="dataBar" priority="147">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4CB62942-71C5-42BC-91E6-9E018E99AF52}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K113:BN113">
-    <cfRule type="expression" dxfId="31" priority="148">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
-    <cfRule type="dataBar" priority="145">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9AEBE713-85B2-4F0D-9D91-D7777BC5EA49}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K115:BN115">
-    <cfRule type="expression" dxfId="30" priority="146">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117">
-    <cfRule type="dataBar" priority="143">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{09C81860-2826-498E-842F-74131CF94BCD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117:BN117">
-    <cfRule type="expression" dxfId="29" priority="144">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119">
-    <cfRule type="dataBar" priority="141">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B1B4B95D-5672-4252-ADC2-738702B5D71B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119:BN119">
-    <cfRule type="expression" dxfId="28" priority="142">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
-    <cfRule type="dataBar" priority="139">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1678B17A-E03B-4DE4-A738-FD5C4B362F97}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="27" priority="140">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
-    <cfRule type="dataBar" priority="137">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64E01FD5-A9A6-4690-AEFE-9638888937C5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="26" priority="138">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="dataBar" priority="133">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E24DB83-EC9C-4EC0-B0EB-BED2123D9D98}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="25" priority="134">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
-    <cfRule type="dataBar" priority="129">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6CFF17CD-3DC6-4792-BC26-4C59955E92AA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="24" priority="130">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
-    <cfRule type="dataBar" priority="125">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{697A1C6E-F654-4059-8CB0-495C5A850982}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="23" priority="126">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="dataBar" priority="121">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84A71BC0-6639-4E23-BBFE-B8AE13ABDFA9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K110:BN110">
-    <cfRule type="expression" dxfId="22" priority="122">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="dataBar" priority="117">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49124A96-F6F8-4ADE-A591-784C88182E41}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K112:BN112">
-    <cfRule type="expression" dxfId="21" priority="118">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
-    <cfRule type="dataBar" priority="113">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18BA52E5-B553-46E1-A0B8-DEBD1186DA8E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BN114">
-    <cfRule type="expression" dxfId="20" priority="114">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H116">
-    <cfRule type="dataBar" priority="109">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DEB30DF3-D251-4E6D-A733-C0B469B7215E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K116:BN116">
-    <cfRule type="expression" dxfId="19" priority="110">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="dataBar" priority="105">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A95CEAC-51BE-4753-ADBA-EDCDCC042E0D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K118:BN118">
-    <cfRule type="expression" dxfId="18" priority="106">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
-    <cfRule type="dataBar" priority="101">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DAA9E4AA-1424-4CB5-B893-FE3BFEF5F846}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K120:BN120">
-    <cfRule type="expression" dxfId="17" priority="102">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
-    <cfRule type="dataBar" priority="97">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ABFABFE9-AD74-4534-AB9F-B240CE24B317}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K122:BN122">
-    <cfRule type="expression" dxfId="16" priority="98">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
-    <cfRule type="dataBar" priority="93">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96F6C1B6-C953-41B2-B796-3B21133EE235}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K123:BN123">
-    <cfRule type="expression" dxfId="15" priority="94">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H124">
-    <cfRule type="dataBar" priority="89">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F9F0CC17-E959-446D-BADB-B3D8762306A6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K124:BN124">
-    <cfRule type="expression" dxfId="14" priority="90">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="dataBar" priority="69">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{107CE8E3-1C76-498B-AC05-D52F04A4E749}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K129:BN129">
-    <cfRule type="expression" dxfId="13" priority="70">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H127:H128">
-    <cfRule type="dataBar" priority="73">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0EA6EB24-3A3A-4DC0-9523-AA0EA5D6BD37}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K127:BN128">
-    <cfRule type="expression" dxfId="12" priority="74">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H132">
-    <cfRule type="dataBar" priority="65">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{213007D5-B229-4D63-82AB-A5E8D3DB9021}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K132:BN132">
-    <cfRule type="expression" dxfId="11" priority="66">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H131">
-    <cfRule type="dataBar" priority="57">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA0FBEAC-E070-4FEE-A486-8434701F9C3D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K131:BN131">
-    <cfRule type="expression" dxfId="10" priority="58">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H134">
-    <cfRule type="dataBar" priority="53">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECE9105D-AFF4-479D-BCA2-328CF70580A2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K134:BN134">
-    <cfRule type="expression" dxfId="9" priority="54">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C89024CD-84DC-4471-9609-167084AE8F0E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="8" priority="50">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="41">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{908F853F-EE27-49BB-BB18-0E25234B8CF9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="7" priority="42">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DA3E02A-4852-4451-8EB1-1B87F9319BBB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="6" priority="38">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{755FC922-0523-43E8-875D-3E3C82E262B2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="5" priority="30">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9126A156-0AFB-400A-A726-62DDE7C4DB26}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="4" priority="22">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A8DBF7D6-CE8D-4AFA-B141-B28C3E900945}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2883FA23-26DA-45E3-AB06-63646B2B8604}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="2" priority="14">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H135">
+  <conditionalFormatting sqref="H48:H66">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18820,17 +17575,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F0E4E7F1-E777-4F7C-9E55-B3A6471A7711}</x14:id>
+          <x14:id>{1058DB79-7D53-4FC4-A085-A8BD4369BD1D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K135:BN135">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>K$6=TODAY()</formula>
+  <conditionalFormatting sqref="H67:H85">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6EA13315-36B0-4087-B54A-C81783342075}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H87:H108">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBE42E43-D1D5-41FD-9895-200B310C44C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109:H123">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1864110E-BBC3-45DE-858D-39A9BB439970}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H125:H134">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18839,14 +17631,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6958FB69-6ED8-4018-9699-8A7BDC8E2C44}</x14:id>
+          <x14:id>{49D970AD-EE21-497F-A1D5-93CC7F49F967}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -18859,8 +17646,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E48 E87 G48:H48 H102 H72 H59 H69 H88 H91:H92 H87" unlockedFormula="1"/>
-    <ignoredError sqref="A87 A48" formula="1"/>
+    <ignoredError sqref="E47 E86 G47:H47 H86" unlockedFormula="1"/>
+    <ignoredError sqref="A86 A47" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -18908,7 +17695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H46 H48 H82 H59 H72 H87:H88 H69 H91:H92 H102 H121</xm:sqref>
+          <xm:sqref>H8:H9 H47 H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B2163715-8EBF-4ECA-9D50-501563E55A4B}">
@@ -18923,7 +17710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H125:H126 H130 H133</xm:sqref>
+          <xm:sqref>H124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A17471B-557C-4E65-A854-27EC1402D477}">
@@ -18971,66 +17758,6 @@
           <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{774D44FC-5846-4374-A9F1-1179C1D016C6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E232DA9A-BF25-49F0-AC07-38715E03ECA9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5E5450F-D45D-4716-B9EE-C8BCADEABF4B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1068551E-16AC-459E-8BE4-D195A5C62F35}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35FFA150-2212-46AA-B542-72E06B5774DE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -19074,141 +17801,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82CC2AB7-970B-4252-96B5-8B21D6571CE5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B696BCA4-5CFD-48C6-BB60-538AE0CE40C2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0C49B6A5-30BA-4E07-BC0F-A9DAE6BD8698}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E17CFE8A-21C8-4D8B-91F7-4868C91731BD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68C64920-8702-4997-9EDE-0C7EA6C1BC4C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8386B425-7FC9-417B-9FEE-4E866F319198}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF4006A7-8C7F-4B9D-A27D-C90DC78E4242}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6307B45-BD90-4358-8AFE-AAB6AB1E83E5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED91C897-5804-4DA6-91D4-7D5FC0BEFB7D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{18FFBC65-A763-4D92-855F-AD1F36E9DDA2}">
@@ -19403,10 +17995,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A8BCFAD-835B-4789-B8DF-B57E31B5556E}">
+          <x14:cfRule type="dataBar" id="{C8A3B4DD-35AF-4DDD-A697-390026EBBC85}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19418,1015 +18010,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19A2DD6D-3382-4E99-B082-A344F1D3A5D1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3DAA9D83-48CE-43ED-B23F-B4B89679CD08}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{449F95BD-8E29-4B42-98B4-4EE4D65984D3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51ABC9FB-C76A-4FFC-9865-873CA68FC741}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AE739472-CCEB-4ABA-84C2-D0C115E8B6F0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{226BE6C4-41CA-48A5-9C8B-46FE2627052E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD5ED029-0247-42C7-9376-E4AA96220959}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80C7B214-E503-446F-AACC-ABC2A9C1AE3A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75C89A18-54AB-4F9C-A423-3153F07F081E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{685C0734-E1B8-4DB5-8876-3F2AB007A51D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B390B206-6C04-4484-8DEC-679892B47F0A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H78</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0291B26D-894E-4558-B409-F9D342525F58}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3860D0ED-25E8-4D67-9AC5-B90B1DBDF216}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C32A98C-3B3E-4280-945A-2FFDF9045C02}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{841FAB04-B424-4D46-B949-9E23F58B7811}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15F8BCAE-DB3E-4CD2-AF98-8DEAA41E1CAC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42035E71-B9B1-4461-8DE9-4CDA45C0C830}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{099EA4DC-B274-49EF-8BB9-EAAF168E7252}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DC2A762-F1D9-4614-9B29-53E40ECDAA8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7DCCBE09-6DBB-4127-8CA6-BEEFC13B36DE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{835C87DE-EB0C-4AD9-BC8B-29FCC0885A25}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E65C0C62-B910-4D5E-8A17-86112DC96FAC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0A6DE3F-732F-49A1-8768-CF61992E416A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1FE7B33-3301-4023-9F63-6C6B252B55B8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13EDA942-BC51-4DE4-9510-7A9712676C3F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C7E1B42-A117-497E-A2A1-1C8B926D7B63}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC64EC7F-37F4-4903-9C17-C6873EA1F9DB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A762629-57A0-49BD-8BDF-1DF721832E28}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6B44860F-7284-4C2B-82F1-20A024AD3D70}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AB69090D-E280-4658-AEB8-6B4DA27C51A1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C266898-06C6-44DA-8359-67AA8067CA6D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF3736C1-0FBD-4475-AF41-6265F6F40B9D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A56701B1-A0CD-47F2-B15A-719050781909}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{501D9318-0652-4972-9321-6A1A271008A3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C440867F-0D20-4607-8CA3-A46E7308D699}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF933B2B-34E4-4BC2-9025-E8C268A9A736}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FADD3EA2-3227-42CC-A058-DDEF0EEF6E7E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F67F867B-BCA4-43D4-955F-DFA642AD8663}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6E178CC-D4E8-4000-9263-D5FA810DE6FE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H101</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{07294A54-9EE1-4C72-8F09-8E954F24127B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C40F8D2A-9E4A-42D8-B0B7-3F9E448078A6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A2CEE0E9-EFB0-4976-82D0-AACEE83165E6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AE7DCA60-AB8B-4004-AC23-51C80D7C4AD9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A630620F-D47D-43F1-8D1E-E73189DE4D5D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H111</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4CB62942-71C5-42BC-91E6-9E018E99AF52}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9AEBE713-85B2-4F0D-9D91-D7777BC5EA49}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{09C81860-2826-498E-842F-74131CF94BCD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B1B4B95D-5672-4252-ADC2-738702B5D71B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H119</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1678B17A-E03B-4DE4-A738-FD5C4B362F97}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64E01FD5-A9A6-4690-AEFE-9638888937C5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E24DB83-EC9C-4EC0-B0EB-BED2123D9D98}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6CFF17CD-3DC6-4792-BC26-4C59955E92AA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{697A1C6E-F654-4059-8CB0-495C5A850982}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84A71BC0-6639-4E23-BBFE-B8AE13ABDFA9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H110</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49124A96-F6F8-4ADE-A591-784C88182E41}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H112</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18BA52E5-B553-46E1-A0B8-DEBD1186DA8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DEB30DF3-D251-4E6D-A733-C0B469B7215E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A95CEAC-51BE-4753-ADBA-EDCDCC042E0D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H118</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAA9E4AA-1424-4CB5-B893-FE3BFEF5F846}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H120</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABFABFE9-AD74-4534-AB9F-B240CE24B317}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H122</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96F6C1B6-C953-41B2-B796-3B21133EE235}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H123</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F9F0CC17-E959-446D-BADB-B3D8762306A6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H124</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{107CE8E3-1C76-498B-AC05-D52F04A4E749}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H129</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0EA6EB24-3A3A-4DC0-9523-AA0EA5D6BD37}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H127:H128</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{213007D5-B229-4D63-82AB-A5E8D3DB9021}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H132</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA0FBEAC-E070-4FEE-A486-8434701F9C3D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H131</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ECE9105D-AFF4-479D-BCA2-328CF70580A2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H134</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C89024CD-84DC-4471-9609-167084AE8F0E}">
+          <x14:cfRule type="dataBar" id="{90A78CB0-AF7E-4942-9FF3-C171EBB92C29}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20441,7 +18028,7 @@
           <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{908F853F-EE27-49BB-BB18-0E25234B8CF9}">
+          <x14:cfRule type="dataBar" id="{BD061B0B-B853-4336-B850-826626C76205}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20456,7 +18043,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DA3E02A-4852-4451-8EB1-1B87F9319BBB}">
+          <x14:cfRule type="dataBar" id="{CF7AAFE0-EFC9-46AD-87F1-96B19BB9619E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20468,10 +18055,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H32:H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{755FC922-0523-43E8-875D-3E3C82E262B2}">
+          <x14:cfRule type="dataBar" id="{1058DB79-7D53-4FC4-A085-A8BD4369BD1D}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20483,10 +18070,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H48:H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9126A156-0AFB-400A-A726-62DDE7C4DB26}">
+          <x14:cfRule type="dataBar" id="{6EA13315-36B0-4087-B54A-C81783342075}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20498,10 +18085,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H67:H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A8DBF7D6-CE8D-4AFA-B141-B28C3E900945}">
+          <x14:cfRule type="dataBar" id="{EBE42E43-D1D5-41FD-9895-200B310C44C8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20513,10 +18100,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
+          <xm:sqref>H87:H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2883FA23-26DA-45E3-AB06-63646B2B8604}">
+          <x14:cfRule type="dataBar" id="{1864110E-BBC3-45DE-858D-39A9BB439970}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20528,10 +18115,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
+          <xm:sqref>H109:H123</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F0E4E7F1-E777-4F7C-9E55-B3A6471A7711}">
+          <x14:cfRule type="dataBar" id="{49D970AD-EE21-497F-A1D5-93CC7F49F967}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -20543,22 +18130,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H135</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6958FB69-6ED8-4018-9699-8A7BDC8E2C44}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H125:H134</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
